--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6565AEA7-0AF0-413A-899D-0911B981C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="kursname">Notenliste!$A$52:$A$60</definedName>
     <definedName name="semester">Notenliste!$D$52:$D$62</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -326,7 +325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -955,6 +954,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1024,13 +1026,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1073,7 +1072,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="0" hidden="0"/>
@@ -1106,7 +1104,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1134,6 +1132,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:prstGeom prst="rect">
@@ -1369,40 +1368,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:M2">
-  <autoFilter ref="B1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="B1:M2">
+  <autoFilter ref="B1:M2"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Level" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail"/>
-    <tableColumn id="11" xr3:uid="{CCDF543C-BDC3-4850-8294-3FC3D79F9961}" name="Telefon" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{A883DFD2-FB32-40E5-919A-65C2D11AD471}" name="bestanden" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{0EBC7429-111A-48E5-BC59-DC1B98B315F3}" name="Teilnahmeschein" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="6"/>
+    <tableColumn id="1" name="Nachname"/>
+    <tableColumn id="2" name="Vorname"/>
+    <tableColumn id="3" name="Hochschule"/>
+    <tableColumn id="4" name="Matrikelnummer"/>
+    <tableColumn id="7" name="Note" dataDxfId="12"/>
+    <tableColumn id="8" name="LP" dataDxfId="11"/>
+    <tableColumn id="9" name="Level" dataDxfId="10"/>
+    <tableColumn id="5" name="E-Mail"/>
+    <tableColumn id="11" name="Telefon" dataDxfId="9"/>
+    <tableColumn id="12" name="bestanden" dataDxfId="8"/>
+    <tableColumn id="10" name="Teilnahmeschein" dataDxfId="7"/>
+    <tableColumn id="6" name="Schein erhalten" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
-  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
+  <autoFilter ref="A1:H36"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="3">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="5"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="4"/>
+    <tableColumn id="4" name="Note" dataDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="5" name="Datum" dataDxfId="2"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1619,34 +1618,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="6.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="45.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.44140625" hidden="1"/>
+    <col min="12" max="12" width="24.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="45.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1917,7 +1916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1933,62 +1932,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2004,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2014,547 +2013,547 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
     <col min="4" max="18" width="14" style="6" customWidth="1"/>
-    <col min="19" max="19" width="22.33203125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="16.88671875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="2.6640625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="4.88671875" style="5" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="8" customWidth="1"/>
-    <col min="26" max="26" width="5.6640625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="2.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="5" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="5" customWidth="1"/>
+    <col min="27" max="27" width="2.7109375" style="5" customWidth="1"/>
     <col min="28" max="28" width="3" style="5" customWidth="1"/>
-    <col min="29" max="29" width="6.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="5.109375" style="5" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="6.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="17.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="17.7109375" style="5" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="17.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="35" max="259" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="260" max="260" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="261" max="261" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="262" max="262" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="263" max="263" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="264" max="266" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="17.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="35" max="259" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="260" max="260" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="261" max="261" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="262" max="262" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="263" max="263" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="264" max="266" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="267" max="267" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="268" max="268" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="269" max="515" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="516" max="516" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="517" max="517" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="518" max="518" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="519" max="519" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="520" max="522" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="268" max="268" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="269" max="515" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="516" max="516" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="517" max="517" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="518" max="518" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="519" max="519" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="520" max="522" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="523" max="523" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="524" max="524" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="525" max="771" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="772" max="772" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="773" max="773" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="774" max="774" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="775" max="775" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="776" max="778" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="524" max="524" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="525" max="771" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="772" max="772" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="773" max="773" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="774" max="774" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="775" max="775" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="776" max="778" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="779" max="779" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="780" max="780" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="781" max="1027" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1028" max="1028" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1029" max="1029" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1030" max="1030" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1031" max="1031" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1032" max="1034" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="780" max="780" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="781" max="1027" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1028" max="1028" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1029" max="1029" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1030" max="1030" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1031" max="1031" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1032" max="1034" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="1035" max="1035" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1036" max="1036" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1037" max="1283" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1284" max="1284" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1285" max="1285" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1286" max="1286" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1287" max="1287" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1288" max="1290" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1036" max="1036" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1037" max="1283" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1284" max="1284" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1285" max="1285" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1286" max="1286" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1287" max="1287" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1288" max="1290" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="1291" max="1291" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1292" max="1292" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1293" max="1539" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1540" max="1540" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1541" max="1541" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1542" max="1542" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1543" max="1543" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1544" max="1546" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1292" max="1292" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1293" max="1539" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1540" max="1540" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1541" max="1541" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1542" max="1542" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1543" max="1543" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1544" max="1546" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="1547" max="1547" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1548" max="1548" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1549" max="1795" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1796" max="1796" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1797" max="1797" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1798" max="1798" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="1799" max="1799" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="1800" max="1802" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1548" max="1548" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1549" max="1795" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1796" max="1796" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1797" max="1797" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1798" max="1798" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1799" max="1799" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1800" max="1802" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="1803" max="1803" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1804" max="1804" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="1805" max="2051" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2052" max="2052" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2053" max="2053" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2054" max="2054" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2055" max="2055" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2056" max="2058" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1804" max="1804" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1805" max="2051" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2052" max="2052" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2053" max="2053" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2054" max="2054" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2055" max="2055" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2056" max="2058" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="2059" max="2059" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2060" max="2060" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2061" max="2307" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2308" max="2308" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2309" max="2309" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2310" max="2310" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2311" max="2311" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2312" max="2314" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2060" max="2060" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2061" max="2307" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2308" max="2308" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2309" max="2309" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2310" max="2310" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2311" max="2311" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2312" max="2314" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="2315" max="2315" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2316" max="2316" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2317" max="2563" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2564" max="2564" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2565" max="2565" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2566" max="2566" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2567" max="2567" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2568" max="2570" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2316" max="2316" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2317" max="2563" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2564" max="2564" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2565" max="2565" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2566" max="2566" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2567" max="2567" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2568" max="2570" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="2571" max="2571" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2572" max="2572" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2573" max="2819" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2820" max="2820" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2821" max="2821" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2822" max="2822" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="2823" max="2823" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2824" max="2826" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2572" max="2572" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2573" max="2819" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2820" max="2820" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2821" max="2821" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2822" max="2822" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2823" max="2823" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2824" max="2826" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="2827" max="2827" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2828" max="2828" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="2829" max="3075" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3076" max="3076" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3077" max="3077" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3078" max="3078" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3079" max="3079" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3080" max="3082" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2828" max="2828" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2829" max="3075" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3076" max="3076" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3077" max="3077" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3078" max="3078" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="3079" max="3079" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3080" max="3082" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="3083" max="3083" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3084" max="3084" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3085" max="3331" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3332" max="3332" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3333" max="3333" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3334" max="3334" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3335" max="3335" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3336" max="3338" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3084" max="3084" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3085" max="3331" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3332" max="3332" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3333" max="3333" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3334" max="3334" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="3335" max="3335" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3336" max="3338" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="3339" max="3339" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3340" max="3340" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3341" max="3587" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3588" max="3588" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3589" max="3589" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3590" max="3590" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3591" max="3591" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3592" max="3594" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3340" max="3340" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3341" max="3587" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3588" max="3588" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3589" max="3589" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3590" max="3590" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="3591" max="3591" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3592" max="3594" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="3595" max="3595" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3596" max="3596" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3597" max="3843" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3844" max="3844" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3845" max="3845" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3846" max="3846" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="3847" max="3847" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="3848" max="3850" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3596" max="3596" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3597" max="3843" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3844" max="3844" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3845" max="3845" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3846" max="3846" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="3847" max="3847" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="3848" max="3850" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="3851" max="3851" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3852" max="3852" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="3853" max="4099" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4100" max="4100" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4101" max="4101" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4102" max="4102" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4103" max="4103" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4104" max="4106" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3852" max="3852" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3853" max="4099" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4100" max="4100" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4101" max="4101" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4102" max="4102" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4103" max="4103" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4104" max="4106" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="4107" max="4107" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4108" max="4108" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4109" max="4355" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4356" max="4356" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4357" max="4357" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4358" max="4358" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4359" max="4359" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4360" max="4362" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4108" max="4108" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4109" max="4355" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4356" max="4356" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4357" max="4357" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4358" max="4358" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4359" max="4359" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4360" max="4362" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="4363" max="4363" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4364" max="4364" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4365" max="4611" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4612" max="4612" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4613" max="4613" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4614" max="4614" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4615" max="4615" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4616" max="4618" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4364" max="4364" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4365" max="4611" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4612" max="4612" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4613" max="4613" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4614" max="4614" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4615" max="4615" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4616" max="4618" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="4619" max="4619" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4620" max="4620" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4621" max="4867" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4868" max="4868" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4869" max="4869" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4870" max="4870" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4871" max="4871" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="4872" max="4874" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4620" max="4620" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4621" max="4867" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4868" max="4868" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4869" max="4869" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4870" max="4870" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4871" max="4871" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="4872" max="4874" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="4875" max="4875" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4876" max="4876" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="4877" max="5123" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5124" max="5124" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5125" max="5125" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5126" max="5126" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5127" max="5127" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5128" max="5130" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4876" max="4876" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4877" max="5123" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5124" max="5124" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5125" max="5125" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5126" max="5126" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5127" max="5127" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="5128" max="5130" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="5131" max="5131" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5132" max="5132" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5133" max="5379" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5380" max="5380" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5381" max="5381" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5382" max="5382" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5383" max="5383" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5384" max="5386" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5132" max="5132" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5133" max="5379" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5380" max="5380" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5381" max="5381" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5382" max="5382" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5383" max="5383" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="5384" max="5386" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="5387" max="5387" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5388" max="5388" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5389" max="5635" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5636" max="5636" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5637" max="5637" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5638" max="5638" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5639" max="5639" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5640" max="5642" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5388" max="5388" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5389" max="5635" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5636" max="5636" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5637" max="5637" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5638" max="5638" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5639" max="5639" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="5640" max="5642" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="5643" max="5643" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5644" max="5644" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5645" max="5891" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5892" max="5892" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5893" max="5893" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5894" max="5894" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5895" max="5895" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="5896" max="5898" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5644" max="5644" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5645" max="5891" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5892" max="5892" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5893" max="5893" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5894" max="5894" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5895" max="5895" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="5896" max="5898" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="5899" max="5899" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5900" max="5900" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="5901" max="6147" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6148" max="6148" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6149" max="6149" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6150" max="6150" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6151" max="6151" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6152" max="6154" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5900" max="5900" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5901" max="6147" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6148" max="6148" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6149" max="6149" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6150" max="6150" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="6151" max="6151" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6152" max="6154" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6155" max="6155" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6156" max="6156" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6157" max="6403" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6404" max="6404" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6405" max="6405" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6406" max="6406" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6407" max="6407" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6408" max="6410" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6156" max="6156" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6157" max="6403" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6404" max="6404" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6405" max="6405" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6406" max="6406" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="6407" max="6407" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6408" max="6410" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6411" max="6411" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6412" max="6412" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6413" max="6659" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6660" max="6660" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6661" max="6661" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6662" max="6662" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6663" max="6663" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6664" max="6666" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6412" max="6412" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6413" max="6659" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6660" max="6660" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6661" max="6661" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6662" max="6662" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="6663" max="6663" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6664" max="6666" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6667" max="6667" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6668" max="6668" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6669" max="6915" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6916" max="6916" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6917" max="6917" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6918" max="6918" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="6919" max="6919" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="6920" max="6922" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6668" max="6668" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6669" max="6915" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6916" max="6916" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6917" max="6917" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6918" max="6918" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="6919" max="6919" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6920" max="6922" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="6923" max="6923" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6924" max="6924" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="6925" max="7171" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7172" max="7172" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7173" max="7173" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7174" max="7174" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7175" max="7175" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7176" max="7178" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6924" max="6924" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6925" max="7171" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7172" max="7172" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7173" max="7173" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7174" max="7174" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="7175" max="7175" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7176" max="7178" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="7179" max="7179" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7180" max="7180" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7181" max="7427" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7428" max="7428" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7429" max="7429" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7430" max="7430" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7431" max="7431" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7432" max="7434" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7180" max="7180" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7181" max="7427" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7428" max="7428" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7429" max="7429" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7430" max="7430" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="7431" max="7431" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7432" max="7434" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="7435" max="7435" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7436" max="7436" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7437" max="7683" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7684" max="7684" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7685" max="7685" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7686" max="7686" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7687" max="7687" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7688" max="7690" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7436" max="7436" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7437" max="7683" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7684" max="7684" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7685" max="7685" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7686" max="7686" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="7687" max="7687" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7688" max="7690" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="7691" max="7691" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7692" max="7692" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7693" max="7939" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7940" max="7940" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7941" max="7941" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7942" max="7942" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7943" max="7943" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="7944" max="7946" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7692" max="7692" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7693" max="7939" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7940" max="7940" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7941" max="7941" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7942" max="7942" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="7943" max="7943" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="7944" max="7946" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="7947" max="7947" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7948" max="7948" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="7949" max="8195" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8196" max="8196" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8197" max="8197" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8198" max="8198" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8199" max="8199" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8200" max="8202" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7948" max="7948" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7949" max="8195" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8196" max="8196" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8197" max="8197" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8198" max="8198" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="8199" max="8199" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8200" max="8202" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="8203" max="8203" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8204" max="8204" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8205" max="8451" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8452" max="8452" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8453" max="8453" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8454" max="8454" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8455" max="8455" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8456" max="8458" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8204" max="8204" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8205" max="8451" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8452" max="8452" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8453" max="8453" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8454" max="8454" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="8455" max="8455" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8456" max="8458" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="8459" max="8459" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8460" max="8460" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8461" max="8707" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8708" max="8708" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8709" max="8709" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8710" max="8710" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8711" max="8711" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8712" max="8714" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8460" max="8460" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8461" max="8707" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8708" max="8708" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8709" max="8709" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8710" max="8710" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="8711" max="8711" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8712" max="8714" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="8715" max="8715" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8716" max="8716" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8717" max="8963" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8964" max="8964" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8965" max="8965" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8966" max="8966" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8967" max="8967" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="8968" max="8970" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8716" max="8716" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8717" max="8963" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8964" max="8964" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8965" max="8965" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8966" max="8966" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="8967" max="8967" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8968" max="8970" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="8971" max="8971" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8972" max="8972" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="8973" max="9219" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9220" max="9220" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9221" max="9221" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9222" max="9222" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9223" max="9223" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9224" max="9226" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8972" max="8972" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8973" max="9219" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9220" max="9220" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9221" max="9221" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9222" max="9222" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="9223" max="9223" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="9224" max="9226" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="9227" max="9227" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9228" max="9228" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9229" max="9475" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9476" max="9476" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9477" max="9477" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9478" max="9478" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9479" max="9479" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9480" max="9482" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9228" max="9228" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9229" max="9475" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9476" max="9476" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9477" max="9477" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9478" max="9478" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="9479" max="9479" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="9480" max="9482" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="9483" max="9483" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9484" max="9484" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9485" max="9731" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9732" max="9732" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9733" max="9733" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9734" max="9734" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9735" max="9735" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9736" max="9738" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9484" max="9484" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9485" max="9731" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9732" max="9732" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9733" max="9733" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9734" max="9734" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="9735" max="9735" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="9736" max="9738" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="9739" max="9739" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9740" max="9740" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9741" max="9987" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9988" max="9988" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9989" max="9989" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9990" max="9990" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="9991" max="9991" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="9992" max="9994" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9740" max="9740" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9741" max="9987" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9988" max="9988" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9989" max="9989" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9990" max="9990" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="9991" max="9991" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="9992" max="9994" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="9995" max="9995" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9996" max="9996" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9997" max="10243" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10244" max="10244" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10245" max="10245" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10246" max="10246" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10247" max="10247" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10248" max="10250" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9996" max="9996" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9997" max="10243" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10244" max="10244" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10245" max="10245" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10246" max="10246" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="10247" max="10247" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="10248" max="10250" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="10251" max="10251" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10252" max="10252" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10253" max="10499" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10500" max="10500" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10501" max="10501" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10502" max="10502" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10503" max="10503" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10504" max="10506" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10252" max="10252" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10253" max="10499" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10500" max="10500" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10501" max="10501" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10502" max="10502" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="10503" max="10503" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="10504" max="10506" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="10507" max="10507" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10508" max="10508" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10509" max="10755" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10756" max="10756" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10757" max="10757" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10758" max="10758" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="10759" max="10759" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10760" max="10762" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10508" max="10508" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10509" max="10755" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10756" max="10756" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10757" max="10757" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10758" max="10758" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="10759" max="10759" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="10760" max="10762" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="10763" max="10763" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10764" max="10764" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="10765" max="11011" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11012" max="11012" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11013" max="11013" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11014" max="11014" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11015" max="11015" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11016" max="11018" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10764" max="10764" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10765" max="11011" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11012" max="11012" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11013" max="11013" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11014" max="11014" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="11015" max="11015" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11016" max="11018" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="11019" max="11019" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11020" max="11020" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11021" max="11267" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11268" max="11268" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11269" max="11269" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11270" max="11270" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11271" max="11271" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11272" max="11274" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11020" max="11020" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11021" max="11267" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11268" max="11268" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11269" max="11269" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11270" max="11270" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="11271" max="11271" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11272" max="11274" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="11275" max="11275" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11276" max="11276" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11277" max="11523" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11524" max="11524" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11525" max="11525" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11526" max="11526" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11527" max="11527" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11528" max="11530" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11276" max="11276" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11277" max="11523" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11524" max="11524" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11525" max="11525" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11526" max="11526" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="11527" max="11527" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11528" max="11530" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="11531" max="11531" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11532" max="11532" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11533" max="11779" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11780" max="11780" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11781" max="11781" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11782" max="11782" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="11783" max="11783" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="11784" max="11786" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11532" max="11532" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11533" max="11779" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11780" max="11780" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11781" max="11781" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11782" max="11782" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="11783" max="11783" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="11784" max="11786" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="11787" max="11787" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11788" max="11788" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="11789" max="12035" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12036" max="12036" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12037" max="12037" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12038" max="12038" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12039" max="12039" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12040" max="12042" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11788" max="11788" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11789" max="12035" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12036" max="12036" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12037" max="12037" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12038" max="12038" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="12039" max="12039" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="12040" max="12042" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="12043" max="12043" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12044" max="12044" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12045" max="12291" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12292" max="12292" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12293" max="12293" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12294" max="12294" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12295" max="12295" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12296" max="12298" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12044" max="12044" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12045" max="12291" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12292" max="12292" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12293" max="12293" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12294" max="12294" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="12295" max="12295" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="12296" max="12298" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="12299" max="12299" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12300" max="12300" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12301" max="12547" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12548" max="12548" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12549" max="12549" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12550" max="12550" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12551" max="12551" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12552" max="12554" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12300" max="12300" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12301" max="12547" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12548" max="12548" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12549" max="12549" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12550" max="12550" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="12551" max="12551" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="12552" max="12554" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="12555" max="12555" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12556" max="12556" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12557" max="12803" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12804" max="12804" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12805" max="12805" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12806" max="12806" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12807" max="12807" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="12808" max="12810" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12556" max="12556" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12557" max="12803" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12804" max="12804" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12805" max="12805" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12806" max="12806" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="12807" max="12807" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="12808" max="12810" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="12811" max="12811" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12812" max="12812" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="12813" max="13059" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13060" max="13060" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13061" max="13061" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13062" max="13062" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13063" max="13063" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13064" max="13066" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12812" max="12812" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12813" max="13059" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13060" max="13060" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13061" max="13061" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13062" max="13062" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13063" max="13063" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13064" max="13066" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="13067" max="13067" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13068" max="13068" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13069" max="13315" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13316" max="13316" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13317" max="13317" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13318" max="13318" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13319" max="13319" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13320" max="13322" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13068" max="13068" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13069" max="13315" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13316" max="13316" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13317" max="13317" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13318" max="13318" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13319" max="13319" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13320" max="13322" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="13323" max="13323" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13324" max="13324" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13325" max="13571" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13572" max="13572" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13573" max="13573" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13574" max="13574" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13575" max="13575" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13576" max="13578" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13324" max="13324" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13325" max="13571" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13572" max="13572" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13573" max="13573" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13574" max="13574" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13575" max="13575" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13576" max="13578" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="13579" max="13579" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13580" max="13580" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13581" max="13827" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13828" max="13828" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13829" max="13829" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13830" max="13830" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="13831" max="13831" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="13832" max="13834" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13580" max="13580" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13581" max="13827" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13828" max="13828" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13829" max="13829" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13830" max="13830" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13831" max="13831" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="13832" max="13834" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="13835" max="13835" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13836" max="13836" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="13837" max="14083" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14084" max="14084" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14085" max="14085" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14086" max="14086" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14087" max="14087" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14088" max="14090" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13836" max="13836" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13837" max="14083" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14084" max="14084" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14085" max="14085" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14086" max="14086" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14087" max="14087" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14088" max="14090" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="14091" max="14091" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14092" max="14092" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14093" max="14339" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14340" max="14340" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14341" max="14341" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14342" max="14342" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14343" max="14343" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14344" max="14346" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14092" max="14092" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14093" max="14339" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14340" max="14340" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14341" max="14341" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14342" max="14342" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14343" max="14343" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14344" max="14346" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="14347" max="14347" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14348" max="14348" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14349" max="14595" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14596" max="14596" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14597" max="14597" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14598" max="14598" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14599" max="14599" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14600" max="14602" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14348" max="14348" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14349" max="14595" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14596" max="14596" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14597" max="14597" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14598" max="14598" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14599" max="14599" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14600" max="14602" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="14603" max="14603" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14604" max="14604" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14605" max="14851" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14852" max="14852" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14853" max="14853" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14854" max="14854" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="14855" max="14855" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="14856" max="14858" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14604" max="14604" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14605" max="14851" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14852" max="14852" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14853" max="14853" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14854" max="14854" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14855" max="14855" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14856" max="14858" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="14859" max="14859" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14860" max="14860" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14861" max="15107" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15108" max="15108" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15109" max="15109" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15110" max="15110" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15111" max="15111" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15112" max="15114" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14860" max="14860" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14861" max="15107" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15108" max="15108" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15109" max="15109" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15110" max="15110" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15111" max="15111" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15112" max="15114" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="15115" max="15115" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15116" max="15116" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15117" max="15363" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15364" max="15364" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15365" max="15365" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15366" max="15366" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15367" max="15367" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15368" max="15370" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15116" max="15116" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15117" max="15363" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15364" max="15364" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15365" max="15365" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15366" max="15366" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15367" max="15367" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15368" max="15370" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="15371" max="15371" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15372" max="15372" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15373" max="15619" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15620" max="15620" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15621" max="15621" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15622" max="15622" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15623" max="15623" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15624" max="15626" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15372" max="15372" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15373" max="15619" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15620" max="15620" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15621" max="15621" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15622" max="15622" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15623" max="15623" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15624" max="15626" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="15627" max="15627" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15628" max="15628" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15629" max="15875" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15876" max="15876" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15877" max="15877" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15878" max="15878" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="15879" max="15879" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="15880" max="15882" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15628" max="15628" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15629" max="15875" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15876" max="15876" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15877" max="15877" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15878" max="15878" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15879" max="15879" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="15880" max="15882" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="15883" max="15883" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15884" max="15884" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="15885" max="16131" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16132" max="16132" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16133" max="16133" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16134" max="16134" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="16135" max="16135" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="16136" max="16138" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15884" max="15884" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15885" max="16131" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16132" max="16132" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16133" max="16133" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16134" max="16134" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="16135" max="16135" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="16136" max="16138" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="16139" max="16139" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16140" max="16140" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16141" max="16143" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16144" max="16144" width="15.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16145" max="16145" width="11.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16146" max="16146" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="16147" max="16147" width="21.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="16148" max="16150" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16140" max="16140" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16141" max="16143" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16144" max="16144" width="15.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16145" max="16145" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16146" max="16146" width="15.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="16147" max="16147" width="21.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="16148" max="16150" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="16151" max="16151" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16152" max="16153" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16154" max="16155" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16152" max="16153" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16154" max="16155" width="11.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="16156" max="16156" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16157" max="16159" width="20.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="16160" max="16384" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16157" max="16159" width="20.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16160" max="16384" width="11.42578125" style="5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2619,7 +2618,7 @@
       <c r="V1" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="119" t="s">
+      <c r="W1" s="92" t="s">
         <v>89</v>
       </c>
       <c r="X1" s="13" t="s">
@@ -2649,7 +2648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2735,7 +2734,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2821,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2907,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2993,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3079,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3165,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3251,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3337,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3423,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3509,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3595,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3681,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3767,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3853,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3939,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4025,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4111,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4197,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4283,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4369,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4455,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4541,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4627,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4696,7 +4695,7 @@
       <c r="AD25" s="8"/>
       <c r="AE25" s="22"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4765,7 +4764,7 @@
       <c r="AD26" s="8"/>
       <c r="AE26" s="22"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <f>RAWDATA!B27</f>
         <v>0</v>
@@ -4834,7 +4833,7 @@
       <c r="AD27" s="8"/>
       <c r="AE27" s="22"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <f>RAWDATA!B28</f>
         <v>0</v>
@@ -4903,7 +4902,7 @@
       <c r="AD28" s="8"/>
       <c r="AE28" s="22"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <f>RAWDATA!B29</f>
         <v>0</v>
@@ -4972,7 +4971,7 @@
       <c r="AD29" s="8"/>
       <c r="AE29" s="22"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <f>RAWDATA!B30</f>
         <v>0</v>
@@ -5041,7 +5040,7 @@
       <c r="AD30" s="8"/>
       <c r="AE30" s="22"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <f>RAWDATA!B31</f>
         <v>0</v>
@@ -5110,7 +5109,7 @@
       <c r="AD31" s="8"/>
       <c r="AE31" s="22"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <f>RAWDATA!B32</f>
         <v>0</v>
@@ -5179,7 +5178,7 @@
       <c r="AD32" s="8"/>
       <c r="AE32" s="22"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <f>RAWDATA!B33</f>
         <v>0</v>
@@ -5248,7 +5247,7 @@
       <c r="AD33" s="8"/>
       <c r="AE33" s="22"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <f>RAWDATA!B34</f>
         <v>0</v>
@@ -5317,7 +5316,7 @@
       <c r="AD34" s="8"/>
       <c r="AE34" s="22"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <f>RAWDATA!B35</f>
         <v>0</v>
@@ -5403,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <f>RAWDATA!B36</f>
         <v>0</v>
@@ -5489,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>23</v>
@@ -5523,7 +5522,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="15"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
@@ -5539,7 +5538,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="15"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
         <v>25</v>
@@ -5574,7 +5573,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="15"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="26"/>
@@ -5604,7 +5603,7 @@
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
@@ -5612,26 +5611,26 @@
         <v>80</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="28"/>
@@ -5639,7 +5638,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="15"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>28</v>
       </c>
@@ -5647,24 +5646,24 @@
         <v>59</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="28"/>
@@ -5672,7 +5671,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="15"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
@@ -5680,24 +5679,24 @@
         <v>60</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="94"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
       <c r="W43" s="25"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="28"/>
@@ -5705,7 +5704,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="15"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>30</v>
       </c>
@@ -5713,24 +5712,24 @@
         <v>61</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
       <c r="W44" s="25"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="28"/>
@@ -5738,7 +5737,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="15"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>31</v>
       </c>
@@ -5746,24 +5745,24 @@
         <v>62</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
       <c r="Y45" s="28"/>
@@ -5771,7 +5770,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="15"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>32</v>
       </c>
@@ -5779,24 +5778,24 @@
         <v>63</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
       <c r="W46" s="15"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="28"/>
@@ -5804,7 +5803,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="15"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>33</v>
       </c>
@@ -5812,24 +5811,24 @@
         <v>64</v>
       </c>
       <c r="C47" s="26"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="93"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="28"/>
@@ -5837,7 +5836,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="15"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>34</v>
       </c>
@@ -5845,24 +5844,24 @@
         <v>65</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="93"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="95"/>
+      <c r="U48" s="95"/>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="28"/>
@@ -5870,58 +5869,58 @@
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
     </row>
   </sheetData>
@@ -5930,7 +5929,7 @@
     <mergeCell ref="D41:U48"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47"/>
   </dataValidations>
   <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.2598425196850389" bottom="1.0629921259842521" header="0.59055118110236249" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" scale="82" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5942,7 +5941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5952,21 +5951,21 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="31" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="31" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="str">
         <f>Notenliste!B44</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="98"/>
       <c r="C1" s="32" t="s">
         <v>35</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>1.3</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>1.7</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2.7</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>3.3</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>3.7</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>4</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
@@ -6093,74 +6092,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="str">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-    </row>
-    <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="str">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+    </row>
+    <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102" t="str">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103" t="str">
         <f>"Semster: "&amp;Notenliste!B47</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-    </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+    </row>
+    <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -6204,7 +6203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <v>1</v>
       </c>
@@ -6229,8 +6228,8 @@
         <v>applicant.mail</v>
       </c>
       <c r="G4" s="41" t="str">
-        <f>RAWDATA!M2</f>
-        <v>attendance.ts_received_str</v>
+        <f>RAWDATA!J2</f>
+        <v>applicant.phone</v>
       </c>
       <c r="H4" s="42" t="str">
         <f>RAWDATA!N2</f>
@@ -6261,7 +6260,7 @@
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>2</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="41">
-        <f>RAWDATA!M3</f>
+        <f>RAWDATA!J3</f>
         <v>0</v>
       </c>
       <c r="H5" s="42" t="str">
@@ -6318,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>3</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="41">
-        <f>RAWDATA!M4</f>
+        <f>RAWDATA!J4</f>
         <v>0</v>
       </c>
       <c r="H6" s="42" t="str">
@@ -6375,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>4</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="41">
-        <f>RAWDATA!M5</f>
+        <f>RAWDATA!J5</f>
         <v>0</v>
       </c>
       <c r="H7" s="42" t="str">
@@ -6432,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>5</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="41">
-        <f>RAWDATA!M6</f>
+        <f>RAWDATA!J6</f>
         <v>0</v>
       </c>
       <c r="H8" s="42" t="str">
@@ -6489,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>6</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="41">
-        <f>RAWDATA!M7</f>
+        <f>RAWDATA!J7</f>
         <v>0</v>
       </c>
       <c r="H9" s="42" t="str">
@@ -6546,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>7</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="41">
-        <f>RAWDATA!M8</f>
+        <f>RAWDATA!J8</f>
         <v>0</v>
       </c>
       <c r="H10" s="42" t="str">
@@ -6603,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>8</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="41">
-        <f>RAWDATA!M9</f>
+        <f>RAWDATA!J9</f>
         <v>0</v>
       </c>
       <c r="H11" s="42" t="str">
@@ -6660,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>9</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="41">
-        <f>RAWDATA!M10</f>
+        <f>RAWDATA!J10</f>
         <v>0</v>
       </c>
       <c r="H12" s="42" t="str">
@@ -6717,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>10</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="41">
-        <f>RAWDATA!M11</f>
+        <f>RAWDATA!J11</f>
         <v>0</v>
       </c>
       <c r="H13" s="42" t="str">
@@ -6774,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>11</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="41">
-        <f>RAWDATA!M12</f>
+        <f>RAWDATA!J12</f>
         <v>0</v>
       </c>
       <c r="H14" s="42" t="str">
@@ -6831,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>12</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="41">
-        <f>RAWDATA!M13</f>
+        <f>RAWDATA!J13</f>
         <v>0</v>
       </c>
       <c r="H15" s="42" t="str">
@@ -6888,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>13</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="41">
-        <f>RAWDATA!M14</f>
+        <f>RAWDATA!J14</f>
         <v>0</v>
       </c>
       <c r="H16" s="42" t="str">
@@ -6945,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>14</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="41">
-        <f>RAWDATA!M15</f>
+        <f>RAWDATA!J15</f>
         <v>0</v>
       </c>
       <c r="H17" s="42" t="str">
@@ -7002,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>15</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="41">
-        <f>RAWDATA!M16</f>
+        <f>RAWDATA!J16</f>
         <v>0</v>
       </c>
       <c r="H18" s="42" t="str">
@@ -7059,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>16</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="41">
-        <f>RAWDATA!M17</f>
+        <f>RAWDATA!J17</f>
         <v>0</v>
       </c>
       <c r="H19" s="42" t="str">
@@ -7116,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>17</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="41">
-        <f>RAWDATA!M18</f>
+        <f>RAWDATA!J18</f>
         <v>0</v>
       </c>
       <c r="H20" s="42" t="str">
@@ -7173,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>18</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="41">
-        <f>RAWDATA!M19</f>
+        <f>RAWDATA!J19</f>
         <v>0</v>
       </c>
       <c r="H21" s="42" t="str">
@@ -7230,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>19</v>
       </c>
@@ -7255,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="41">
-        <f>RAWDATA!M20</f>
+        <f>RAWDATA!J20</f>
         <v>0</v>
       </c>
       <c r="H22" s="42" t="str">
@@ -7287,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>20</v>
       </c>
@@ -7312,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="41">
-        <f>RAWDATA!M21</f>
+        <f>RAWDATA!J21</f>
         <v>0</v>
       </c>
       <c r="H23" s="42" t="str">
@@ -7344,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>21</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="41">
-        <f>RAWDATA!M22</f>
+        <f>RAWDATA!J22</f>
         <v>0</v>
       </c>
       <c r="H24" s="42" t="str">
@@ -7401,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>22</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="41">
-        <f>RAWDATA!M23</f>
+        <f>RAWDATA!J23</f>
         <v>0</v>
       </c>
       <c r="H25" s="42" t="str">
@@ -7458,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>23</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="41">
-        <f>RAWDATA!M24</f>
+        <f>RAWDATA!J24</f>
         <v>0</v>
       </c>
       <c r="H26" s="42" t="str">
@@ -7515,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>24</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="41">
-        <f>RAWDATA!M25</f>
+        <f>RAWDATA!J25</f>
         <v>0</v>
       </c>
       <c r="H27" s="42">
@@ -7572,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>25</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="41">
-        <f>RAWDATA!M26</f>
+        <f>RAWDATA!J26</f>
         <v>0</v>
       </c>
       <c r="H28" s="42">
@@ -7629,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>26</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="41">
-        <f>RAWDATA!M27</f>
+        <f>RAWDATA!J27</f>
         <v>0</v>
       </c>
       <c r="H29" s="42">
@@ -7686,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>27</v>
       </c>
@@ -7711,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="41">
-        <f>RAWDATA!M28</f>
+        <f>RAWDATA!J28</f>
         <v>0</v>
       </c>
       <c r="H30" s="42">
@@ -7743,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>28</v>
       </c>
@@ -7768,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="41">
-        <f>RAWDATA!M29</f>
+        <f>RAWDATA!J29</f>
         <v>0</v>
       </c>
       <c r="H31" s="42">
@@ -7800,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>29</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="41">
-        <f>RAWDATA!M30</f>
+        <f>RAWDATA!J30</f>
         <v>0</v>
       </c>
       <c r="H32" s="42">
@@ -7857,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>30</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="41">
-        <f>RAWDATA!M31</f>
+        <f>RAWDATA!J31</f>
         <v>0</v>
       </c>
       <c r="H33" s="42">
@@ -7914,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>31</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="41">
-        <f>RAWDATA!M32</f>
+        <f>RAWDATA!J32</f>
         <v>0</v>
       </c>
       <c r="H34" s="42">
@@ -7971,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>32</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="41">
-        <f>RAWDATA!M33</f>
+        <f>RAWDATA!J33</f>
         <v>0</v>
       </c>
       <c r="H35" s="42">
@@ -8028,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>33</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="41">
-        <f>RAWDATA!M34</f>
+        <f>RAWDATA!J34</f>
         <v>0</v>
       </c>
       <c r="H36" s="42">
@@ -8085,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="41">
-        <f>RAWDATA!M35</f>
+        <f>RAWDATA!J35</f>
         <v>0</v>
       </c>
       <c r="H37" s="42">
@@ -8142,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="41">
-        <f>RAWDATA!M36</f>
+        <f>RAWDATA!J36</f>
         <v>0</v>
       </c>
       <c r="H38" s="42">
@@ -8199,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -8221,90 +8220,91 @@
       <c r="M39" s="43"/>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="103" t="s">
+    <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-    </row>
-    <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-    </row>
-    <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-    </row>
-    <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="97"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="104"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+    </row>
+    <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="100"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+    </row>
+    <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="100"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+    </row>
+    <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="100"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="98"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="105"/>
       <c r="O44" s="35"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:E2"/>
@@ -8321,7 +8321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8331,124 +8331,124 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="0.88671875" style="34" customWidth="1"/>
-    <col min="7" max="20" width="7.6640625" style="34" customWidth="1"/>
-    <col min="21" max="21" width="0.88671875" style="34" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="47" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="48" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="34" customWidth="1"/>
+    <col min="7" max="20" width="7.7109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="0.85546875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="47" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="48" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="1" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="32" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="str">
+    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="109"/>
-    </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="110"/>
+    </row>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="109"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="str">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="110"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="109"/>
-    </row>
-    <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="112" t="s">
+      <c r="G3" s="112"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="110"/>
+    </row>
+    <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="115" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="51"/>
@@ -8467,22 +8467,22 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="53"/>
-      <c r="V4" s="116" t="s">
+      <c r="V4" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="118" t="s">
+      <c r="W4" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="118" t="s">
+      <c r="X4" s="119" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="50" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="115"/>
+    <row r="5" spans="1:24" s="50" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="54"/>
       <c r="G5" s="52">
         <v>1</v>
@@ -8527,11 +8527,11 @@
         <v>14</v>
       </c>
       <c r="U5" s="55"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V5" s="118"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>1</v>
       </c>
@@ -8571,7 +8571,7 @@
       <c r="W6" s="58"/>
       <c r="X6" s="58"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>2</v>
       </c>
@@ -8611,7 +8611,7 @@
       <c r="W7" s="58"/>
       <c r="X7" s="58"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>3</v>
       </c>
@@ -8651,7 +8651,7 @@
       <c r="W8" s="58"/>
       <c r="X8" s="58"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>4</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="W9" s="58"/>
       <c r="X9" s="58"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>5</v>
       </c>
@@ -8731,7 +8731,7 @@
       <c r="W10" s="58"/>
       <c r="X10" s="58"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>6</v>
       </c>
@@ -8771,7 +8771,7 @@
       <c r="W11" s="58"/>
       <c r="X11" s="58"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>7</v>
       </c>
@@ -8811,7 +8811,7 @@
       <c r="W12" s="58"/>
       <c r="X12" s="58"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>8</v>
       </c>
@@ -8851,7 +8851,7 @@
       <c r="W13" s="58"/>
       <c r="X13" s="58"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>9</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>10</v>
       </c>
@@ -8931,7 +8931,7 @@
       <c r="W15" s="58"/>
       <c r="X15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>11</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="W16" s="58"/>
       <c r="X16" s="58"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>12</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="W17" s="58"/>
       <c r="X17" s="58"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>13</v>
       </c>
@@ -9051,7 +9051,7 @@
       <c r="W18" s="58"/>
       <c r="X18" s="58"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>14</v>
       </c>
@@ -9091,7 +9091,7 @@
       <c r="W19" s="58"/>
       <c r="X19" s="58"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>15</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="W20" s="58"/>
       <c r="X20" s="58"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>16</v>
       </c>
@@ -9171,7 +9171,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>17</v>
       </c>
@@ -9211,7 +9211,7 @@
       <c r="W22" s="58"/>
       <c r="X22" s="58"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>18</v>
       </c>
@@ -9251,7 +9251,7 @@
       <c r="W23" s="58"/>
       <c r="X23" s="58"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>19</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="W24" s="58"/>
       <c r="X24" s="58"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>20</v>
       </c>
@@ -9331,7 +9331,7 @@
       <c r="W25" s="58"/>
       <c r="X25" s="58"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>21</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="W26" s="58"/>
       <c r="X26" s="58"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>22</v>
       </c>
@@ -9411,7 +9411,7 @@
       <c r="W27" s="58"/>
       <c r="X27" s="58"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>23</v>
       </c>
@@ -9451,7 +9451,7 @@
       <c r="W28" s="58"/>
       <c r="X28" s="58"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>24</v>
       </c>
@@ -9491,7 +9491,7 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>25</v>
       </c>
@@ -9531,7 +9531,7 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
     </row>
-    <row r="31" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>26</v>
       </c>
@@ -9571,7 +9571,7 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
     </row>
-    <row r="32" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>27</v>
       </c>
@@ -9611,7 +9611,7 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
     </row>
-    <row r="33" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>28</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
     </row>
-    <row r="34" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>29</v>
       </c>
@@ -9691,7 +9691,7 @@
       <c r="W34" s="58"/>
       <c r="X34" s="58"/>
     </row>
-    <row r="35" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>30</v>
       </c>
@@ -9731,7 +9731,7 @@
       <c r="W35" s="58"/>
       <c r="X35" s="58"/>
     </row>
-    <row r="36" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>31</v>
       </c>
@@ -9771,7 +9771,7 @@
       <c r="W36" s="58"/>
       <c r="X36" s="58"/>
     </row>
-    <row r="37" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>32</v>
       </c>
@@ -9811,7 +9811,7 @@
       <c r="W37" s="58"/>
       <c r="X37" s="58"/>
     </row>
-    <row r="38" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>33</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="W38" s="58"/>
       <c r="X38" s="58"/>
     </row>
-    <row r="39" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34</v>
       </c>
@@ -9891,7 +9891,7 @@
       <c r="W39" s="58"/>
       <c r="X39" s="58"/>
     </row>
-    <row r="40" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35</v>
       </c>
@@ -9956,25 +9956,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="59" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="61" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -10022,7 +10022,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -10044,7 +10044,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -10066,7 +10066,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -10088,7 +10088,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -10110,7 +10110,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -10132,7 +10132,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -10154,7 +10154,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -10176,7 +10176,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -10198,7 +10198,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -10220,7 +10220,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -10242,7 +10242,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -10264,7 +10264,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -10286,7 +10286,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -10308,7 +10308,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -10330,7 +10330,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -10352,7 +10352,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -10374,7 +10374,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -10396,7 +10396,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -10418,7 +10418,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -10440,7 +10440,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -10462,7 +10462,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -10484,7 +10484,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -10506,7 +10506,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -10528,7 +10528,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -10550,7 +10550,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>IF(Notenliste!D27=0," ",Notenliste!D27)</f>
         <v xml:space="preserve"> </v>
@@ -10572,7 +10572,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>IF(Notenliste!D28=0," ",Notenliste!D28)</f>
         <v xml:space="preserve"> </v>
@@ -10594,7 +10594,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>IF(Notenliste!D29=0," ",Notenliste!D29)</f>
         <v xml:space="preserve"> </v>
@@ -10616,7 +10616,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="str">
         <f>IF(Notenliste!D30=0," ",Notenliste!D30)</f>
         <v xml:space="preserve"> </v>
@@ -10638,7 +10638,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>IF(Notenliste!D31=0," ",Notenliste!D31)</f>
         <v xml:space="preserve"> </v>
@@ -10660,7 +10660,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
         <f>IF(Notenliste!D32=0," ",Notenliste!D32)</f>
         <v xml:space="preserve"> </v>
@@ -10682,7 +10682,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f>IF(Notenliste!D33=0," ",Notenliste!D33)</f>
         <v xml:space="preserve"> </v>
@@ -10704,7 +10704,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f>IF(Notenliste!D34=0," ",Notenliste!D34)</f>
         <v xml:space="preserve"> </v>
@@ -10726,7 +10726,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f>IF(Notenliste!D35=0," ",Notenliste!D35)</f>
         <v xml:space="preserve"> </v>
@@ -10748,7 +10748,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>IF(Notenliste!D36=0," ",Notenliste!D36)</f>
         <v xml:space="preserve"> </v>
@@ -10773,21 +10773,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="E1 E37:E1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="E1 E37:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="A1 A37:A1048576" xr:uid="{00000000-0002-0000-0500-000004000000}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="A1 A37:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -1132,7 +1132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:prstGeom prst="rect">
@@ -2009,8 +2008,8 @@
   </sheetPr>
   <dimension ref="A1:WWM70"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2687,7 +2686,7 @@
         <v>attendance.sanitized_grade</v>
       </c>
       <c r="T2" s="18" t="e">
-        <f>LOOKUP(S2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S2,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>#N/A</v>
       </c>
       <c r="U2" s="12"/>
@@ -2773,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="18" t="str">
-        <f>LOOKUP(S3,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S3,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U3" s="12"/>
@@ -2859,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="18" t="str">
-        <f>LOOKUP(S4,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S4,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U4" s="12"/>
@@ -2945,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="18" t="str">
-        <f>LOOKUP(S5,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S5,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U5" s="12"/>
@@ -3031,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="18" t="str">
-        <f>LOOKUP(S6,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S6,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U6" s="12"/>
@@ -3117,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="18" t="str">
-        <f>LOOKUP(S7,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S7,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U7" s="12"/>
@@ -3203,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="18" t="str">
-        <f>LOOKUP(S8,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S8,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U8" s="12"/>
@@ -3289,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="18" t="str">
-        <f>LOOKUP(S9,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S9,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U9" s="12"/>
@@ -3375,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="18" t="str">
-        <f>LOOKUP(S10,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S10,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U10" s="12"/>
@@ -3461,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="18" t="str">
-        <f>LOOKUP(S11,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S11,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U11" s="12"/>
@@ -3547,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="18" t="str">
-        <f>LOOKUP(S12,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S12,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U12" s="12"/>
@@ -3633,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="18" t="str">
-        <f>LOOKUP(S13,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S13,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U13" s="12"/>
@@ -3719,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="18" t="str">
-        <f>LOOKUP(S14,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S14,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U14" s="12"/>
@@ -3805,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="18" t="str">
-        <f>LOOKUP(S15,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S15,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U15" s="12"/>
@@ -3891,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="18" t="str">
-        <f>LOOKUP(S16,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S16,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U16" s="12"/>
@@ -3977,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="18" t="str">
-        <f>LOOKUP(S17,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S17,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U17" s="12"/>
@@ -4063,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="18" t="str">
-        <f>LOOKUP(S18,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S18,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U18" s="12"/>
@@ -4149,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="18" t="str">
-        <f>LOOKUP(S19,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S19,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U19" s="12"/>
@@ -4235,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="18" t="str">
-        <f>LOOKUP(S20,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S20,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U20" s="12"/>
@@ -4321,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="18" t="str">
-        <f>LOOKUP(S21,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S21,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U21" s="12"/>
@@ -4407,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="18" t="str">
-        <f>LOOKUP(S22,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S22,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U22" s="12"/>
@@ -4493,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="18" t="str">
-        <f>LOOKUP(S23,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S23,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U23" s="12"/>
@@ -4579,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="18" t="str">
-        <f>LOOKUP(S24,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S24,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U24" s="12"/>
@@ -4665,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="18" t="str">
-        <f>LOOKUP(S25,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S25,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U25" s="12"/>
@@ -4734,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="18" t="str">
-        <f>LOOKUP(S26,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S26,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U26" s="12"/>
@@ -4803,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="18" t="str">
-        <f>LOOKUP(S27,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S27,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U27" s="12"/>
@@ -4872,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="18" t="str">
-        <f>LOOKUP(S28,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S28,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U28" s="12"/>
@@ -4941,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="18" t="str">
-        <f>LOOKUP(S29,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S29,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U29" s="12"/>
@@ -5010,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="18" t="str">
-        <f>LOOKUP(S30,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S30,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U30" s="12"/>
@@ -5079,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="18" t="str">
-        <f>LOOKUP(S31,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S31,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U31" s="12"/>
@@ -5148,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="18" t="str">
-        <f>LOOKUP(S32,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S32,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U32" s="12"/>
@@ -5217,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="18" t="str">
-        <f>LOOKUP(S33,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S33,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U33" s="12"/>
@@ -5286,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="18" t="str">
-        <f>LOOKUP(S34,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S34,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U34" s="12"/>
@@ -5355,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="18" t="str">
-        <f>LOOKUP(S35,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S35,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U35" s="12"/>
@@ -5441,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="18" t="str">
-        <f>LOOKUP(S36,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(S36,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="U36" s="12"/>

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBA5C4-88C1-4E5A-83D9-CB669FC1C5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="kursname">Notenliste!$A$52:$A$60</definedName>
     <definedName name="semester">Notenliste!$D$52:$D$62</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -325,7 +326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1028,8 +1029,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1104,7 +1105,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1367,40 +1368,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA" displayName="DATA" ref="B1:M2">
-  <autoFilter ref="B1:M2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:M2">
+  <autoFilter ref="B1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nachname"/>
-    <tableColumn id="2" name="Vorname"/>
-    <tableColumn id="3" name="Hochschule"/>
-    <tableColumn id="4" name="Matrikelnummer"/>
-    <tableColumn id="7" name="Note" dataDxfId="12"/>
-    <tableColumn id="8" name="LP" dataDxfId="11"/>
-    <tableColumn id="9" name="Level" dataDxfId="10"/>
-    <tableColumn id="5" name="E-Mail"/>
-    <tableColumn id="11" name="Telefon" dataDxfId="9"/>
-    <tableColumn id="12" name="bestanden" dataDxfId="8"/>
-    <tableColumn id="10" name="Teilnahmeschein" dataDxfId="7"/>
-    <tableColumn id="6" name="Schein erhalten" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Level" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Telefon" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="bestanden" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Teilnahmeschein" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
-  <autoFilter ref="A1:H36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H36">
+  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="5"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="4"/>
-    <tableColumn id="4" name="Note" dataDxfId="3">
-      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2)))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="4">
+      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!V2&lt;&gt;0,Notenliste!V2,Notenliste!$B$43)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="2"/>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="3">
+      <calculatedColumnFormula>IF(OR(Notenliste!W2="x", Notenliste!W2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1617,34 +1620,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="6.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="45.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" hidden="1"/>
+    <col min="12" max="12" width="24.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="45.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1859,7 +1862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1931,62 +1934,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2002,557 +2005,557 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WWM70"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="6" customWidth="1"/>
     <col min="4" max="18" width="14" style="6" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="5" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="5" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="8" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" style="5" customWidth="1"/>
-    <col min="27" max="27" width="2.7109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="4.88671875" style="5" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="2.6640625" style="5" customWidth="1"/>
     <col min="28" max="28" width="3" style="5" customWidth="1"/>
-    <col min="29" max="29" width="6.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="6.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="17.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="6.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" style="5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="6.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="35" max="259" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="260" max="260" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="261" max="261" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="262" max="262" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="263" max="263" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="264" max="266" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="17.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="35" max="259" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="260" max="260" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="261" max="261" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="262" max="262" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="263" max="263" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="264" max="266" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="267" max="267" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="268" max="268" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="269" max="515" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="516" max="516" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="517" max="517" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="518" max="518" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="519" max="519" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="520" max="522" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="268" max="268" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="269" max="515" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="516" max="516" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="517" max="517" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="518" max="518" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="519" max="519" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="520" max="522" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="523" max="523" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="524" max="524" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="525" max="771" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="772" max="772" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="773" max="773" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="774" max="774" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="775" max="775" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="776" max="778" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="524" max="524" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="525" max="771" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="772" max="772" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="773" max="773" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="774" max="774" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="775" max="775" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="776" max="778" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="779" max="779" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="780" max="780" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="781" max="1027" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1028" max="1028" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1029" max="1029" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1030" max="1030" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="1031" max="1031" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="1032" max="1034" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="780" max="780" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="781" max="1027" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1028" max="1028" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1029" max="1029" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1030" max="1030" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1031" max="1031" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1032" max="1034" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="1035" max="1035" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1036" max="1036" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1037" max="1283" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1284" max="1284" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1285" max="1285" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1286" max="1286" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="1287" max="1287" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="1288" max="1290" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1036" max="1036" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1037" max="1283" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1284" max="1284" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1285" max="1285" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1286" max="1286" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1287" max="1287" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1288" max="1290" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="1291" max="1291" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1292" max="1292" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1293" max="1539" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1540" max="1540" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1541" max="1541" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1542" max="1542" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="1543" max="1543" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="1544" max="1546" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1292" max="1292" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1293" max="1539" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1540" max="1540" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1541" max="1541" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1542" max="1542" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1543" max="1543" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1544" max="1546" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="1547" max="1547" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1548" max="1548" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1549" max="1795" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1796" max="1796" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1797" max="1797" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1798" max="1798" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="1799" max="1799" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="1800" max="1802" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1548" max="1548" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1549" max="1795" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1796" max="1796" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1797" max="1797" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1798" max="1798" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="1799" max="1799" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="1800" max="1802" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="1803" max="1803" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="1804" max="1804" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="1805" max="2051" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2052" max="2052" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2053" max="2053" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2054" max="2054" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2055" max="2055" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2056" max="2058" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="1804" max="1804" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="1805" max="2051" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2052" max="2052" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2053" max="2053" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2054" max="2054" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2055" max="2055" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2056" max="2058" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="2059" max="2059" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2060" max="2060" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2061" max="2307" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2308" max="2308" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2309" max="2309" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2310" max="2310" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2311" max="2311" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2312" max="2314" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2060" max="2060" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2061" max="2307" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2308" max="2308" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2309" max="2309" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2310" max="2310" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2311" max="2311" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2312" max="2314" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="2315" max="2315" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2316" max="2316" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2317" max="2563" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2564" max="2564" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2565" max="2565" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2566" max="2566" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2567" max="2567" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2568" max="2570" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2316" max="2316" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2317" max="2563" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2564" max="2564" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2565" max="2565" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2566" max="2566" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2567" max="2567" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2568" max="2570" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="2571" max="2571" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2572" max="2572" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2573" max="2819" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2820" max="2820" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2821" max="2821" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2822" max="2822" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="2823" max="2823" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2824" max="2826" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2572" max="2572" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2573" max="2819" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2820" max="2820" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2821" max="2821" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2822" max="2822" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2823" max="2823" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2824" max="2826" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="2827" max="2827" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="2828" max="2828" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="2829" max="3075" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3076" max="3076" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3077" max="3077" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3078" max="3078" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="3079" max="3079" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3080" max="3082" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="2828" max="2828" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="2829" max="3075" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3076" max="3076" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3077" max="3077" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3078" max="3078" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3079" max="3079" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3080" max="3082" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3083" max="3083" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3084" max="3084" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3085" max="3331" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3332" max="3332" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3333" max="3333" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3334" max="3334" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="3335" max="3335" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3336" max="3338" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3084" max="3084" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3085" max="3331" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3332" max="3332" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3333" max="3333" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3334" max="3334" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3335" max="3335" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3336" max="3338" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3339" max="3339" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3340" max="3340" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3341" max="3587" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3588" max="3588" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3589" max="3589" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3590" max="3590" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="3591" max="3591" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3592" max="3594" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3340" max="3340" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3341" max="3587" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3588" max="3588" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3589" max="3589" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3590" max="3590" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3591" max="3591" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3592" max="3594" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3595" max="3595" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3596" max="3596" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3597" max="3843" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3844" max="3844" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3845" max="3845" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3846" max="3846" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="3847" max="3847" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3848" max="3850" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3596" max="3596" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3597" max="3843" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3844" max="3844" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3845" max="3845" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3846" max="3846" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3847" max="3847" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="3848" max="3850" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="3851" max="3851" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="3852" max="3852" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="3853" max="4099" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4100" max="4100" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4101" max="4101" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4102" max="4102" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4103" max="4103" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="4104" max="4106" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="3852" max="3852" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="3853" max="4099" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4100" max="4100" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4101" max="4101" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4102" max="4102" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4103" max="4103" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4104" max="4106" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="4107" max="4107" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4108" max="4108" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4109" max="4355" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4356" max="4356" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4357" max="4357" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4358" max="4358" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4359" max="4359" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="4360" max="4362" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4108" max="4108" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4109" max="4355" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4356" max="4356" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4357" max="4357" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4358" max="4358" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4359" max="4359" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4360" max="4362" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="4363" max="4363" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4364" max="4364" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4365" max="4611" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4612" max="4612" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4613" max="4613" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4614" max="4614" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4615" max="4615" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="4616" max="4618" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4364" max="4364" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4365" max="4611" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4612" max="4612" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4613" max="4613" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4614" max="4614" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4615" max="4615" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4616" max="4618" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="4619" max="4619" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4620" max="4620" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4621" max="4867" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4868" max="4868" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4869" max="4869" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4870" max="4870" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4871" max="4871" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="4872" max="4874" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4620" max="4620" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4621" max="4867" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4868" max="4868" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4869" max="4869" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4870" max="4870" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="4871" max="4871" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="4872" max="4874" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="4875" max="4875" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="4876" max="4876" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="4877" max="5123" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5124" max="5124" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5125" max="5125" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5126" max="5126" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="5127" max="5127" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="5128" max="5130" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="4876" max="4876" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="4877" max="5123" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5124" max="5124" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5125" max="5125" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5126" max="5126" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5127" max="5127" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5128" max="5130" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="5131" max="5131" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5132" max="5132" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5133" max="5379" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5380" max="5380" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5381" max="5381" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5382" max="5382" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="5383" max="5383" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="5384" max="5386" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5132" max="5132" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5133" max="5379" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5380" max="5380" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5381" max="5381" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5382" max="5382" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5383" max="5383" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5384" max="5386" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="5387" max="5387" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5388" max="5388" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5389" max="5635" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5636" max="5636" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5637" max="5637" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5638" max="5638" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="5639" max="5639" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="5640" max="5642" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5388" max="5388" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5389" max="5635" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5636" max="5636" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5637" max="5637" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5638" max="5638" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5639" max="5639" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5640" max="5642" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="5643" max="5643" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5644" max="5644" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5645" max="5891" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5892" max="5892" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5893" max="5893" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5894" max="5894" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="5895" max="5895" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="5896" max="5898" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5644" max="5644" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5645" max="5891" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5892" max="5892" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5893" max="5893" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5894" max="5894" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="5895" max="5895" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="5896" max="5898" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="5899" max="5899" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="5900" max="5900" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="5901" max="6147" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6148" max="6148" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6149" max="6149" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6150" max="6150" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6151" max="6151" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6152" max="6154" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="5900" max="5900" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="5901" max="6147" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6148" max="6148" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6149" max="6149" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6150" max="6150" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6151" max="6151" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6152" max="6154" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="6155" max="6155" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6156" max="6156" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6157" max="6403" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6404" max="6404" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6405" max="6405" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6406" max="6406" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6407" max="6407" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6408" max="6410" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6156" max="6156" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6157" max="6403" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6404" max="6404" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6405" max="6405" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6406" max="6406" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6407" max="6407" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6408" max="6410" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="6411" max="6411" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6412" max="6412" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6413" max="6659" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6660" max="6660" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6661" max="6661" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6662" max="6662" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6663" max="6663" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6664" max="6666" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6412" max="6412" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6413" max="6659" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6660" max="6660" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6661" max="6661" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6662" max="6662" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6663" max="6663" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6664" max="6666" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="6667" max="6667" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6668" max="6668" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6669" max="6915" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6916" max="6916" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6917" max="6917" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6918" max="6918" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6919" max="6919" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6920" max="6922" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6668" max="6668" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6669" max="6915" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6916" max="6916" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6917" max="6917" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6918" max="6918" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6919" max="6919" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="6920" max="6922" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="6923" max="6923" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="6924" max="6924" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="6925" max="7171" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7172" max="7172" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7173" max="7173" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7174" max="7174" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7175" max="7175" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="7176" max="7178" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="6924" max="6924" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="6925" max="7171" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7172" max="7172" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7173" max="7173" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7174" max="7174" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7175" max="7175" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7176" max="7178" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="7179" max="7179" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7180" max="7180" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7181" max="7427" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7428" max="7428" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7429" max="7429" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7430" max="7430" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7431" max="7431" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="7432" max="7434" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7180" max="7180" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7181" max="7427" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7428" max="7428" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7429" max="7429" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7430" max="7430" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7431" max="7431" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7432" max="7434" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="7435" max="7435" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7436" max="7436" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7437" max="7683" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7684" max="7684" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7685" max="7685" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7686" max="7686" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7687" max="7687" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="7688" max="7690" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7436" max="7436" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7437" max="7683" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7684" max="7684" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7685" max="7685" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7686" max="7686" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7687" max="7687" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7688" max="7690" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="7691" max="7691" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7692" max="7692" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7693" max="7939" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7940" max="7940" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7941" max="7941" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7942" max="7942" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="7943" max="7943" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="7944" max="7946" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7692" max="7692" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7693" max="7939" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7940" max="7940" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7941" max="7941" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7942" max="7942" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="7943" max="7943" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="7944" max="7946" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="7947" max="7947" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="7948" max="7948" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="7949" max="8195" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8196" max="8196" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8197" max="8197" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8198" max="8198" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="8199" max="8199" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8200" max="8202" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="7948" max="7948" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="7949" max="8195" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8196" max="8196" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8197" max="8197" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8198" max="8198" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8199" max="8199" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8200" max="8202" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="8203" max="8203" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8204" max="8204" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8205" max="8451" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8452" max="8452" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8453" max="8453" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8454" max="8454" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="8455" max="8455" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8456" max="8458" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8204" max="8204" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8205" max="8451" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8452" max="8452" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8453" max="8453" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8454" max="8454" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8455" max="8455" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8456" max="8458" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="8459" max="8459" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8460" max="8460" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8461" max="8707" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8708" max="8708" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8709" max="8709" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8710" max="8710" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="8711" max="8711" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8712" max="8714" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8460" max="8460" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8461" max="8707" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8708" max="8708" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8709" max="8709" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8710" max="8710" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8711" max="8711" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8712" max="8714" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="8715" max="8715" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8716" max="8716" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8717" max="8963" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8964" max="8964" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8965" max="8965" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8966" max="8966" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="8967" max="8967" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8968" max="8970" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8716" max="8716" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8717" max="8963" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8964" max="8964" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8965" max="8965" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8966" max="8966" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8967" max="8967" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="8968" max="8970" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="8971" max="8971" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="8972" max="8972" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="8973" max="9219" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9220" max="9220" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9221" max="9221" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9222" max="9222" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="9223" max="9223" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="9224" max="9226" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="8972" max="8972" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="8973" max="9219" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9220" max="9220" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9221" max="9221" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9222" max="9222" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9223" max="9223" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9224" max="9226" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="9227" max="9227" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9228" max="9228" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9229" max="9475" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9476" max="9476" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9477" max="9477" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9478" max="9478" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="9479" max="9479" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="9480" max="9482" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9228" max="9228" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9229" max="9475" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9476" max="9476" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9477" max="9477" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9478" max="9478" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9479" max="9479" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9480" max="9482" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="9483" max="9483" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9484" max="9484" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9485" max="9731" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9732" max="9732" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9733" max="9733" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9734" max="9734" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="9735" max="9735" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="9736" max="9738" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9484" max="9484" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9485" max="9731" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9732" max="9732" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9733" max="9733" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9734" max="9734" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9735" max="9735" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9736" max="9738" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="9739" max="9739" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9740" max="9740" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9741" max="9987" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9988" max="9988" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9989" max="9989" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9990" max="9990" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="9991" max="9991" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="9992" max="9994" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9740" max="9740" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9741" max="9987" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9988" max="9988" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9989" max="9989" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9990" max="9990" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="9991" max="9991" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="9992" max="9994" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="9995" max="9995" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="9996" max="9996" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9997" max="10243" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10244" max="10244" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10245" max="10245" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10246" max="10246" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="10247" max="10247" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="10248" max="10250" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="9996" max="9996" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="9997" max="10243" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10244" max="10244" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10245" max="10245" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10246" max="10246" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10247" max="10247" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10248" max="10250" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="10251" max="10251" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10252" max="10252" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10253" max="10499" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10500" max="10500" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10501" max="10501" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10502" max="10502" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="10503" max="10503" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="10504" max="10506" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10252" max="10252" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10253" max="10499" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10500" max="10500" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10501" max="10501" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10502" max="10502" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10503" max="10503" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10504" max="10506" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="10507" max="10507" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10508" max="10508" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10509" max="10755" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10756" max="10756" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10757" max="10757" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10758" max="10758" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="10759" max="10759" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="10760" max="10762" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10508" max="10508" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10509" max="10755" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10756" max="10756" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10757" max="10757" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10758" max="10758" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10759" max="10759" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10760" max="10762" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="10763" max="10763" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="10764" max="10764" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="10765" max="11011" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11012" max="11012" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11013" max="11013" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11014" max="11014" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="11015" max="11015" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11016" max="11018" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="10764" max="10764" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="10765" max="11011" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11012" max="11012" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11013" max="11013" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11014" max="11014" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11015" max="11015" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11016" max="11018" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="11019" max="11019" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11020" max="11020" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11021" max="11267" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11268" max="11268" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11269" max="11269" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11270" max="11270" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="11271" max="11271" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11272" max="11274" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11020" max="11020" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11021" max="11267" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11268" max="11268" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11269" max="11269" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11270" max="11270" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11271" max="11271" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11272" max="11274" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="11275" max="11275" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11276" max="11276" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11277" max="11523" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11524" max="11524" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11525" max="11525" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11526" max="11526" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="11527" max="11527" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11528" max="11530" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11276" max="11276" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11277" max="11523" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11524" max="11524" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11525" max="11525" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11526" max="11526" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11527" max="11527" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11528" max="11530" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="11531" max="11531" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11532" max="11532" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11533" max="11779" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11780" max="11780" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11781" max="11781" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11782" max="11782" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="11783" max="11783" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="11784" max="11786" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11532" max="11532" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11533" max="11779" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11780" max="11780" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11781" max="11781" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11782" max="11782" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11783" max="11783" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="11784" max="11786" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="11787" max="11787" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="11788" max="11788" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="11789" max="12035" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12036" max="12036" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12037" max="12037" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12038" max="12038" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="12039" max="12039" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12040" max="12042" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="11788" max="11788" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="11789" max="12035" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12036" max="12036" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12037" max="12037" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12038" max="12038" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12039" max="12039" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12040" max="12042" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="12043" max="12043" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12044" max="12044" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12045" max="12291" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12292" max="12292" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12293" max="12293" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12294" max="12294" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="12295" max="12295" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12296" max="12298" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12044" max="12044" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12045" max="12291" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12292" max="12292" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12293" max="12293" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12294" max="12294" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12295" max="12295" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12296" max="12298" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="12299" max="12299" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12300" max="12300" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12301" max="12547" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12548" max="12548" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12549" max="12549" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12550" max="12550" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="12551" max="12551" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12552" max="12554" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12300" max="12300" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12301" max="12547" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12548" max="12548" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12549" max="12549" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12550" max="12550" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12551" max="12551" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12552" max="12554" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="12555" max="12555" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12556" max="12556" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12557" max="12803" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12804" max="12804" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12805" max="12805" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12806" max="12806" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="12807" max="12807" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="12808" max="12810" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12556" max="12556" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12557" max="12803" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12804" max="12804" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12805" max="12805" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12806" max="12806" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12807" max="12807" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="12808" max="12810" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="12811" max="12811" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="12812" max="12812" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="12813" max="13059" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13060" max="13060" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13061" max="13061" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13062" max="13062" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="13063" max="13063" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="13064" max="13066" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="12812" max="12812" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="12813" max="13059" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13060" max="13060" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13061" max="13061" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13062" max="13062" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13063" max="13063" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13064" max="13066" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="13067" max="13067" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13068" max="13068" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13069" max="13315" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13316" max="13316" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13317" max="13317" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13318" max="13318" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="13319" max="13319" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="13320" max="13322" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13068" max="13068" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13069" max="13315" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13316" max="13316" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13317" max="13317" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13318" max="13318" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13319" max="13319" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13320" max="13322" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="13323" max="13323" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13324" max="13324" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13325" max="13571" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13572" max="13572" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13573" max="13573" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13574" max="13574" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="13575" max="13575" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="13576" max="13578" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13324" max="13324" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13325" max="13571" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13572" max="13572" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13573" max="13573" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13574" max="13574" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13575" max="13575" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13576" max="13578" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="13579" max="13579" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13580" max="13580" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13581" max="13827" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13828" max="13828" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13829" max="13829" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13830" max="13830" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="13831" max="13831" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="13832" max="13834" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13580" max="13580" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13581" max="13827" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13828" max="13828" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13829" max="13829" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13830" max="13830" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13831" max="13831" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="13832" max="13834" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="13835" max="13835" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="13836" max="13836" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="13837" max="14083" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14084" max="14084" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14085" max="14085" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14086" max="14086" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="14087" max="14087" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14088" max="14090" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="13836" max="13836" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="13837" max="14083" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14084" max="14084" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14085" max="14085" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14086" max="14086" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14087" max="14087" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14088" max="14090" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="14091" max="14091" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14092" max="14092" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14093" max="14339" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14340" max="14340" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14341" max="14341" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14342" max="14342" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="14343" max="14343" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14344" max="14346" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14092" max="14092" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14093" max="14339" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14340" max="14340" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14341" max="14341" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14342" max="14342" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14343" max="14343" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14344" max="14346" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="14347" max="14347" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14348" max="14348" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14349" max="14595" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14596" max="14596" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14597" max="14597" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14598" max="14598" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="14599" max="14599" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14600" max="14602" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14348" max="14348" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14349" max="14595" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14596" max="14596" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14597" max="14597" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14598" max="14598" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14599" max="14599" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14600" max="14602" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="14603" max="14603" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14604" max="14604" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14605" max="14851" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14852" max="14852" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14853" max="14853" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14854" max="14854" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="14855" max="14855" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14856" max="14858" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14604" max="14604" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14605" max="14851" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14852" max="14852" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14853" max="14853" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14854" max="14854" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="14855" max="14855" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14856" max="14858" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="14859" max="14859" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="14860" max="14860" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="14861" max="15107" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15108" max="15108" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15109" max="15109" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15110" max="15110" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15111" max="15111" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="15112" max="15114" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="14860" max="14860" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14861" max="15107" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15108" max="15108" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15109" max="15109" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15110" max="15110" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15111" max="15111" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15112" max="15114" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="15115" max="15115" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15116" max="15116" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15117" max="15363" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15364" max="15364" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15365" max="15365" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15366" max="15366" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15367" max="15367" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="15368" max="15370" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15116" max="15116" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15117" max="15363" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15364" max="15364" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15365" max="15365" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15366" max="15366" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15367" max="15367" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15368" max="15370" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="15371" max="15371" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15372" max="15372" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15373" max="15619" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15620" max="15620" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15621" max="15621" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15622" max="15622" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15623" max="15623" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="15624" max="15626" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15372" max="15372" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15373" max="15619" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15620" max="15620" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15621" max="15621" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15622" max="15622" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15623" max="15623" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15624" max="15626" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="15627" max="15627" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15628" max="15628" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15629" max="15875" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15876" max="15876" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15877" max="15877" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15878" max="15878" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15879" max="15879" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="15880" max="15882" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15628" max="15628" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15629" max="15875" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15876" max="15876" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15877" max="15877" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15878" max="15878" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="15879" max="15879" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="15880" max="15882" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="15883" max="15883" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="15884" max="15884" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="15885" max="16131" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16132" max="16132" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16133" max="16133" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16134" max="16134" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="16135" max="16135" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="16136" max="16138" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="15884" max="15884" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="15885" max="16131" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16132" max="16132" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16133" max="16133" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16134" max="16134" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="16135" max="16135" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="16136" max="16138" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="16139" max="16139" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16140" max="16140" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16141" max="16143" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16144" max="16144" width="15.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16145" max="16145" width="11.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16146" max="16146" width="15.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="16147" max="16147" width="21.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="16148" max="16150" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16140" max="16140" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16141" max="16143" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16144" max="16144" width="15.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16145" max="16145" width="11.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16146" max="16146" width="15.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="16147" max="16147" width="21.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="16148" max="16150" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="16151" max="16151" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16152" max="16153" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16154" max="16155" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16152" max="16153" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16154" max="16155" width="11.44140625" style="5" hidden="1" customWidth="1"/>
     <col min="16156" max="16156" width="16" style="5" hidden="1" customWidth="1"/>
-    <col min="16157" max="16159" width="20.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="16160" max="16384" width="11.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="16157" max="16159" width="20.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="16160" max="16384" width="11.44140625" style="5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2733,7 +2736,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2819,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2905,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2991,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3077,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3163,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3249,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3335,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3421,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3507,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3593,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3679,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3765,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3851,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3937,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4023,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4109,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4195,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4281,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4367,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4453,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4539,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4625,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4694,7 +4697,7 @@
       <c r="AD25" s="8"/>
       <c r="AE25" s="22"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4763,7 +4766,7 @@
       <c r="AD26" s="8"/>
       <c r="AE26" s="22"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <f>RAWDATA!B27</f>
         <v>0</v>
@@ -4832,7 +4835,7 @@
       <c r="AD27" s="8"/>
       <c r="AE27" s="22"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <f>RAWDATA!B28</f>
         <v>0</v>
@@ -4901,7 +4904,7 @@
       <c r="AD28" s="8"/>
       <c r="AE28" s="22"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <f>RAWDATA!B29</f>
         <v>0</v>
@@ -4970,7 +4973,7 @@
       <c r="AD29" s="8"/>
       <c r="AE29" s="22"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <f>RAWDATA!B30</f>
         <v>0</v>
@@ -5039,7 +5042,7 @@
       <c r="AD30" s="8"/>
       <c r="AE30" s="22"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <f>RAWDATA!B31</f>
         <v>0</v>
@@ -5108,7 +5111,7 @@
       <c r="AD31" s="8"/>
       <c r="AE31" s="22"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <f>RAWDATA!B32</f>
         <v>0</v>
@@ -5177,7 +5180,7 @@
       <c r="AD32" s="8"/>
       <c r="AE32" s="22"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <f>RAWDATA!B33</f>
         <v>0</v>
@@ -5246,7 +5249,7 @@
       <c r="AD33" s="8"/>
       <c r="AE33" s="22"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <f>RAWDATA!B34</f>
         <v>0</v>
@@ -5315,7 +5318,7 @@
       <c r="AD34" s="8"/>
       <c r="AE34" s="22"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <f>RAWDATA!B35</f>
         <v>0</v>
@@ -5401,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <f>RAWDATA!B36</f>
         <v>0</v>
@@ -5487,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>23</v>
@@ -5521,7 +5524,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="15"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
@@ -5537,7 +5540,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="15"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
         <v>25</v>
@@ -5572,7 +5575,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="15"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="26"/>
@@ -5602,7 +5605,7 @@
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
@@ -5637,7 +5640,7 @@
       <c r="AA41" s="25"/>
       <c r="AB41" s="15"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>28</v>
       </c>
@@ -5670,7 +5673,7 @@
       <c r="AA42" s="25"/>
       <c r="AB42" s="15"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>29</v>
       </c>
@@ -5703,7 +5706,7 @@
       <c r="AA43" s="25"/>
       <c r="AB43" s="15"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>30</v>
       </c>
@@ -5736,7 +5739,7 @@
       <c r="AA44" s="25"/>
       <c r="AB44" s="15"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>31</v>
       </c>
@@ -5769,7 +5772,7 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="15"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>32</v>
       </c>
@@ -5802,7 +5805,7 @@
       <c r="AA46" s="25"/>
       <c r="AB46" s="15"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>33</v>
       </c>
@@ -5835,7 +5838,7 @@
       <c r="AA47" s="25"/>
       <c r="AB47" s="15"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>34</v>
       </c>
@@ -5868,58 +5871,58 @@
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
     </row>
   </sheetData>
@@ -5928,7 +5931,7 @@
     <mergeCell ref="D41:U48"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.2598425196850389" bottom="1.0629921259842521" header="0.59055118110236249" footer="0.78740157480314954"/>
   <pageSetup paperSize="9" scale="82" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5940,7 +5943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5950,16 +5953,16 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="31" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="31" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="97" t="str">
         <f>Notenliste!B44</f>
         <v>course.name</v>
@@ -5973,7 +5976,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>1.3</v>
       </c>
@@ -5999,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>1.7</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>2.7</v>
       </c>
@@ -6035,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>3.3</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>3.7</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>4</v>
       </c>
@@ -6071,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
@@ -6091,33 +6094,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
@@ -6136,7 +6139,7 @@
       <c r="M1" s="100"/>
       <c r="N1" s="100"/>
     </row>
-    <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -6158,7 +6161,7 @@
       <c r="M2" s="102"/>
       <c r="N2" s="102"/>
     </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>1</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>UPPER(Notenliste!X2)</f>
+        <f>IF(Notenliste!X2=0," ",UPPER(Notenliste!X2))</f>
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="40" t="e">
@@ -6247,7 +6250,7 @@
         <v>#N/A</v>
       </c>
       <c r="L4" s="40" t="e">
-        <f>Notenliste!T2</f>
+        <f>IF(OR(Notenliste!W2="x", Notenliste!W2="X"), "bestanden",IF(Notenliste!T2="KP"," ",Notenliste!T2))</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="40" t="str">
@@ -6255,11 +6258,11 @@
         <v>attendance.sanitized_grade</v>
       </c>
       <c r="N4" s="42" t="str">
-        <f>UPPER(Notenliste!Z2)</f>
+        <f>IF(Notenliste!Z2=0," ",UPPER(Notenliste!Z2))</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40">
         <v>2</v>
       </c>
@@ -6296,27 +6299,27 @@
         <v>0</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f>UPPER(Notenliste!X3)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X3=0," ",UPPER(Notenliste!X3))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L5" s="40" t="str">
-        <f>Notenliste!T3</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W3="x", Notenliste!W3="X"), "bestanden",IF(Notenliste!T3="KP"," ",Notenliste!T3))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M5" s="40">
         <f>Notenliste!S3</f>
         <v>0</v>
       </c>
       <c r="N5" s="42" t="str">
-        <f>UPPER(Notenliste!Z3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z3=0," ",UPPER(Notenliste!Z3))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>3</v>
       </c>
@@ -6353,27 +6356,27 @@
         <v>0</v>
       </c>
       <c r="J6" s="40" t="str">
-        <f>UPPER(Notenliste!X4)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X4=0," ",UPPER(Notenliste!X4))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K6" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L6" s="40" t="str">
-        <f>Notenliste!T4</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W4="x", Notenliste!W4="X"), "bestanden",IF(Notenliste!T4="KP"," ",Notenliste!T4))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M6" s="40">
         <f>Notenliste!S4</f>
         <v>0</v>
       </c>
       <c r="N6" s="42" t="str">
-        <f>UPPER(Notenliste!Z4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z4=0," ",UPPER(Notenliste!Z4))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>4</v>
       </c>
@@ -6410,27 +6413,27 @@
         <v>0</v>
       </c>
       <c r="J7" s="40" t="str">
-        <f>UPPER(Notenliste!X5)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X5=0," ",UPPER(Notenliste!X5))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K7" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="40" t="str">
-        <f>Notenliste!T5</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W5="x", Notenliste!W5="X"), "bestanden",IF(Notenliste!T5="KP"," ",Notenliste!T5))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M7" s="40">
         <f>Notenliste!S5</f>
         <v>0</v>
       </c>
       <c r="N7" s="42" t="str">
-        <f>UPPER(Notenliste!Z5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z5=0," ",UPPER(Notenliste!Z5))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>5</v>
       </c>
@@ -6467,27 +6470,27 @@
         <v>0</v>
       </c>
       <c r="J8" s="40" t="str">
-        <f>UPPER(Notenliste!X6)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X6=0," ",UPPER(Notenliste!X6))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K8" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L8" s="40" t="str">
-        <f>Notenliste!T6</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W6="x", Notenliste!W6="X"), "bestanden",IF(Notenliste!T6="KP"," ",Notenliste!T6))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M8" s="40">
         <f>Notenliste!S6</f>
         <v>0</v>
       </c>
       <c r="N8" s="42" t="str">
-        <f>UPPER(Notenliste!Z6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z6=0," ",UPPER(Notenliste!Z6))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>6</v>
       </c>
@@ -6524,27 +6527,27 @@
         <v>0</v>
       </c>
       <c r="J9" s="40" t="str">
-        <f>UPPER(Notenliste!X7)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X7=0," ",UPPER(Notenliste!X7))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K9" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L9" s="40" t="str">
-        <f>Notenliste!T7</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W7="x", Notenliste!W7="X"), "bestanden",IF(Notenliste!T7="KP"," ",Notenliste!T7))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M9" s="40">
         <f>Notenliste!S7</f>
         <v>0</v>
       </c>
       <c r="N9" s="42" t="str">
-        <f>UPPER(Notenliste!Z7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z7=0," ",UPPER(Notenliste!Z7))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>7</v>
       </c>
@@ -6581,27 +6584,27 @@
         <v>0</v>
       </c>
       <c r="J10" s="40" t="str">
-        <f>UPPER(Notenliste!X8)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X8=0," ",UPPER(Notenliste!X8))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K10" s="40" t="str">
         <f t="shared" ref="K10:K38" si="1">IF(L10&lt;=4,"X","")</f>
         <v/>
       </c>
       <c r="L10" s="40" t="str">
-        <f>Notenliste!T8</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W8="x", Notenliste!W8="X"), "bestanden",IF(Notenliste!T8="KP"," ",Notenliste!T8))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M10" s="40">
         <f>Notenliste!S8</f>
         <v>0</v>
       </c>
       <c r="N10" s="42" t="str">
-        <f>UPPER(Notenliste!Z8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z8=0," ",UPPER(Notenliste!Z8))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>8</v>
       </c>
@@ -6638,27 +6641,27 @@
         <v>0</v>
       </c>
       <c r="J11" s="40" t="str">
-        <f>UPPER(Notenliste!X9)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X9=0," ",UPPER(Notenliste!X9))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K11" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L11" s="40" t="str">
-        <f>Notenliste!T9</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W9="x", Notenliste!W9="X"), "bestanden",IF(Notenliste!T9="KP"," ",Notenliste!T9))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M11" s="40">
         <f>Notenliste!S9</f>
         <v>0</v>
       </c>
       <c r="N11" s="42" t="str">
-        <f>UPPER(Notenliste!Z9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z9=0," ",UPPER(Notenliste!Z9))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>9</v>
       </c>
@@ -6695,27 +6698,27 @@
         <v>0</v>
       </c>
       <c r="J12" s="40" t="str">
-        <f>UPPER(Notenliste!X10)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X10=0," ",UPPER(Notenliste!X10))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K12" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L12" s="40" t="str">
-        <f>Notenliste!T10</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W10="x", Notenliste!W10="X"), "bestanden",IF(Notenliste!T10="KP"," ",Notenliste!T10))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M12" s="40">
         <f>Notenliste!S10</f>
         <v>0</v>
       </c>
       <c r="N12" s="42" t="str">
-        <f>UPPER(Notenliste!Z10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z10=0," ",UPPER(Notenliste!Z10))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>10</v>
       </c>
@@ -6752,27 +6755,27 @@
         <v>0</v>
       </c>
       <c r="J13" s="40" t="str">
-        <f>UPPER(Notenliste!X11)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X11=0," ",UPPER(Notenliste!X11))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K13" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L13" s="40" t="str">
-        <f>Notenliste!T11</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W11="x", Notenliste!W11="X"), "bestanden",IF(Notenliste!T11="KP"," ",Notenliste!T11))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M13" s="40">
         <f>Notenliste!S11</f>
         <v>0</v>
       </c>
       <c r="N13" s="42" t="str">
-        <f>UPPER(Notenliste!Z11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z11=0," ",UPPER(Notenliste!Z11))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>11</v>
       </c>
@@ -6809,27 +6812,27 @@
         <v>0</v>
       </c>
       <c r="J14" s="40" t="str">
-        <f>UPPER(Notenliste!X12)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X12=0," ",UPPER(Notenliste!X12))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K14" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L14" s="40" t="str">
-        <f>Notenliste!T12</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W12="x", Notenliste!W12="X"), "bestanden",IF(Notenliste!T12="KP"," ",Notenliste!T12))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M14" s="40">
         <f>Notenliste!S12</f>
         <v>0</v>
       </c>
       <c r="N14" s="42" t="str">
-        <f>UPPER(Notenliste!Z12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z12=0," ",UPPER(Notenliste!Z12))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>12</v>
       </c>
@@ -6866,27 +6869,27 @@
         <v>0</v>
       </c>
       <c r="J15" s="40" t="str">
-        <f>UPPER(Notenliste!X13)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X13=0," ",UPPER(Notenliste!X13))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K15" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L15" s="40" t="str">
-        <f>Notenliste!T13</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W13="x", Notenliste!W13="X"), "bestanden",IF(Notenliste!T13="KP"," ",Notenliste!T13))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M15" s="40">
         <f>Notenliste!S13</f>
         <v>0</v>
       </c>
       <c r="N15" s="42" t="str">
-        <f>UPPER(Notenliste!Z13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z13=0," ",UPPER(Notenliste!Z13))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>13</v>
       </c>
@@ -6923,27 +6926,27 @@
         <v>0</v>
       </c>
       <c r="J16" s="40" t="str">
-        <f>UPPER(Notenliste!X14)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X14=0," ",UPPER(Notenliste!X14))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K16" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L16" s="40" t="str">
-        <f>Notenliste!T14</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W14="x", Notenliste!W14="X"), "bestanden",IF(Notenliste!T14="KP"," ",Notenliste!T14))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M16" s="40">
         <f>Notenliste!S14</f>
         <v>0</v>
       </c>
       <c r="N16" s="42" t="str">
-        <f>UPPER(Notenliste!Z14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z14=0," ",UPPER(Notenliste!Z14))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>14</v>
       </c>
@@ -6980,27 +6983,27 @@
         <v>0</v>
       </c>
       <c r="J17" s="40" t="str">
-        <f>UPPER(Notenliste!X15)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X15=0," ",UPPER(Notenliste!X15))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K17" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L17" s="40" t="str">
-        <f>Notenliste!T15</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W15="x", Notenliste!W15="X"), "bestanden",IF(Notenliste!T15="KP"," ",Notenliste!T15))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M17" s="40">
         <f>Notenliste!S15</f>
         <v>0</v>
       </c>
       <c r="N17" s="42" t="str">
-        <f>UPPER(Notenliste!Z15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z15=0," ",UPPER(Notenliste!Z15))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>15</v>
       </c>
@@ -7037,27 +7040,27 @@
         <v>0</v>
       </c>
       <c r="J18" s="40" t="str">
-        <f>UPPER(Notenliste!X16)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X16=0," ",UPPER(Notenliste!X16))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K18" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L18" s="40" t="str">
-        <f>Notenliste!T16</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W16="x", Notenliste!W16="X"), "bestanden",IF(Notenliste!T16="KP"," ",Notenliste!T16))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M18" s="40">
         <f>Notenliste!S16</f>
         <v>0</v>
       </c>
       <c r="N18" s="42" t="str">
-        <f>UPPER(Notenliste!Z16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z16=0," ",UPPER(Notenliste!Z16))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>16</v>
       </c>
@@ -7094,27 +7097,27 @@
         <v>0</v>
       </c>
       <c r="J19" s="40" t="str">
-        <f>UPPER(Notenliste!X17)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X17=0," ",UPPER(Notenliste!X17))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K19" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L19" s="40" t="str">
-        <f>Notenliste!T17</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W17="x", Notenliste!W17="X"), "bestanden",IF(Notenliste!T17="KP"," ",Notenliste!T17))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M19" s="40">
         <f>Notenliste!S17</f>
         <v>0</v>
       </c>
       <c r="N19" s="42" t="str">
-        <f>UPPER(Notenliste!Z17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z17=0," ",UPPER(Notenliste!Z17))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>17</v>
       </c>
@@ -7151,27 +7154,27 @@
         <v>0</v>
       </c>
       <c r="J20" s="40" t="str">
-        <f>UPPER(Notenliste!X18)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X18=0," ",UPPER(Notenliste!X18))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K20" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L20" s="40" t="str">
-        <f>Notenliste!T18</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W18="x", Notenliste!W18="X"), "bestanden",IF(Notenliste!T18="KP"," ",Notenliste!T18))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M20" s="40">
         <f>Notenliste!S18</f>
         <v>0</v>
       </c>
       <c r="N20" s="42" t="str">
-        <f>UPPER(Notenliste!Z18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z18=0," ",UPPER(Notenliste!Z18))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>18</v>
       </c>
@@ -7208,27 +7211,27 @@
         <v>0</v>
       </c>
       <c r="J21" s="40" t="str">
-        <f>UPPER(Notenliste!X19)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X19=0," ",UPPER(Notenliste!X19))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L21" s="40" t="str">
-        <f>Notenliste!T19</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W19="x", Notenliste!W19="X"), "bestanden",IF(Notenliste!T19="KP"," ",Notenliste!T19))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M21" s="40">
         <f>Notenliste!S19</f>
         <v>0</v>
       </c>
       <c r="N21" s="42" t="str">
-        <f>UPPER(Notenliste!Z19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z19=0," ",UPPER(Notenliste!Z19))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>19</v>
       </c>
@@ -7265,27 +7268,27 @@
         <v>0</v>
       </c>
       <c r="J22" s="40" t="str">
-        <f>UPPER(Notenliste!X20)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X20=0," ",UPPER(Notenliste!X20))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K22" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L22" s="40" t="str">
-        <f>Notenliste!T20</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W20="x", Notenliste!W20="X"), "bestanden",IF(Notenliste!T20="KP"," ",Notenliste!T20))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M22" s="40">
         <f>Notenliste!S20</f>
         <v>0</v>
       </c>
       <c r="N22" s="42" t="str">
-        <f>UPPER(Notenliste!Z20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z20=0," ",UPPER(Notenliste!Z20))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>20</v>
       </c>
@@ -7322,27 +7325,27 @@
         <v>0</v>
       </c>
       <c r="J23" s="40" t="str">
-        <f>UPPER(Notenliste!X21)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X21=0," ",UPPER(Notenliste!X21))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K23" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L23" s="40" t="str">
-        <f>Notenliste!T21</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W21="x", Notenliste!W21="X"), "bestanden",IF(Notenliste!T21="KP"," ",Notenliste!T21))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M23" s="40">
         <f>Notenliste!S21</f>
         <v>0</v>
       </c>
       <c r="N23" s="42" t="str">
-        <f>UPPER(Notenliste!Z21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z21=0," ",UPPER(Notenliste!Z21))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>21</v>
       </c>
@@ -7379,27 +7382,27 @@
         <v>0</v>
       </c>
       <c r="J24" s="40" t="str">
-        <f>UPPER(Notenliste!X22)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X22=0," ",UPPER(Notenliste!X22))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K24" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L24" s="40" t="str">
-        <f>Notenliste!T22</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W22="x", Notenliste!W22="X"), "bestanden",IF(Notenliste!T22="KP"," ",Notenliste!T22))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M24" s="40">
         <f>Notenliste!S22</f>
         <v>0</v>
       </c>
       <c r="N24" s="42" t="str">
-        <f>UPPER(Notenliste!Z22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z22=0," ",UPPER(Notenliste!Z22))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>22</v>
       </c>
@@ -7436,27 +7439,27 @@
         <v>0</v>
       </c>
       <c r="J25" s="40" t="str">
-        <f>UPPER(Notenliste!X23)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X23=0," ",UPPER(Notenliste!X23))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K25" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L25" s="40" t="str">
-        <f>Notenliste!T23</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W23="x", Notenliste!W23="X"), "bestanden",IF(Notenliste!T23="KP"," ",Notenliste!T23))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M25" s="40">
         <f>Notenliste!S23</f>
         <v>0</v>
       </c>
       <c r="N25" s="42" t="str">
-        <f>UPPER(Notenliste!Z23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z23=0," ",UPPER(Notenliste!Z23))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>23</v>
       </c>
@@ -7493,27 +7496,27 @@
         <v>0</v>
       </c>
       <c r="J26" s="40" t="str">
-        <f>UPPER(Notenliste!X24)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X24=0," ",UPPER(Notenliste!X24))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L26" s="40" t="str">
-        <f>Notenliste!T24</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W24="x", Notenliste!W24="X"), "bestanden",IF(Notenliste!T24="KP"," ",Notenliste!T24))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M26" s="40">
         <f>Notenliste!S24</f>
         <v>0</v>
       </c>
       <c r="N26" s="42" t="str">
-        <f>UPPER(Notenliste!Z24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z24=0," ",UPPER(Notenliste!Z24))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>24</v>
       </c>
@@ -7550,27 +7553,27 @@
         <v>0</v>
       </c>
       <c r="J27" s="40" t="str">
-        <f>UPPER(Notenliste!X25)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X25=0," ",UPPER(Notenliste!X25))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K27" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L27" s="40" t="str">
-        <f>Notenliste!T25</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W25="x", Notenliste!W25="X"), "bestanden",IF(Notenliste!T25="KP"," ",Notenliste!T25))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M27" s="40">
         <f>Notenliste!S25</f>
         <v>0</v>
       </c>
       <c r="N27" s="42" t="str">
-        <f>UPPER(Notenliste!Z25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z25=0," ",UPPER(Notenliste!Z25))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>25</v>
       </c>
@@ -7607,27 +7610,27 @@
         <v>0</v>
       </c>
       <c r="J28" s="40" t="str">
-        <f>UPPER(Notenliste!X26)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X26=0," ",UPPER(Notenliste!X26))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K28" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L28" s="40" t="str">
-        <f>Notenliste!T26</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W26="x", Notenliste!W26="X"), "bestanden",IF(Notenliste!T26="KP"," ",Notenliste!T26))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M28" s="40">
         <f>Notenliste!S26</f>
         <v>0</v>
       </c>
       <c r="N28" s="42" t="str">
-        <f>UPPER(Notenliste!Z26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z26=0," ",UPPER(Notenliste!Z26))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>26</v>
       </c>
@@ -7664,27 +7667,27 @@
         <v>0</v>
       </c>
       <c r="J29" s="40" t="str">
-        <f>UPPER(Notenliste!X27)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X27=0," ",UPPER(Notenliste!X27))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K29" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L29" s="40" t="str">
-        <f>Notenliste!T27</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W27="x", Notenliste!W27="X"), "bestanden",IF(Notenliste!T27="KP"," ",Notenliste!T27))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M29" s="40">
         <f>Notenliste!S27</f>
         <v>0</v>
       </c>
       <c r="N29" s="42" t="str">
-        <f>UPPER(Notenliste!Z27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z27=0," ",UPPER(Notenliste!Z27))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>27</v>
       </c>
@@ -7721,27 +7724,27 @@
         <v>0</v>
       </c>
       <c r="J30" s="40" t="str">
-        <f>UPPER(Notenliste!X28)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X28=0," ",UPPER(Notenliste!X28))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K30" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L30" s="40" t="str">
-        <f>Notenliste!T28</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W28="x", Notenliste!W28="X"), "bestanden",IF(Notenliste!T28="KP"," ",Notenliste!T28))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M30" s="40">
         <f>Notenliste!S28</f>
         <v>0</v>
       </c>
       <c r="N30" s="42" t="str">
-        <f>UPPER(Notenliste!Z28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z28=0," ",UPPER(Notenliste!Z28))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>28</v>
       </c>
@@ -7778,27 +7781,27 @@
         <v>0</v>
       </c>
       <c r="J31" s="40" t="str">
-        <f>UPPER(Notenliste!X29)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X29=0," ",UPPER(Notenliste!X29))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K31" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L31" s="40" t="str">
-        <f>Notenliste!T29</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W29="x", Notenliste!W29="X"), "bestanden",IF(Notenliste!T29="KP"," ",Notenliste!T29))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M31" s="40">
         <f>Notenliste!S29</f>
         <v>0</v>
       </c>
       <c r="N31" s="42" t="str">
-        <f>UPPER(Notenliste!Z29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z29=0," ",UPPER(Notenliste!Z29))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>29</v>
       </c>
@@ -7835,27 +7838,27 @@
         <v>0</v>
       </c>
       <c r="J32" s="40" t="str">
-        <f>UPPER(Notenliste!X30)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X30=0," ",UPPER(Notenliste!X30))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K32" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L32" s="40" t="str">
-        <f>Notenliste!T30</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W30="x", Notenliste!W30="X"), "bestanden",IF(Notenliste!T30="KP"," ",Notenliste!T30))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M32" s="40">
         <f>Notenliste!S30</f>
         <v>0</v>
       </c>
       <c r="N32" s="42" t="str">
-        <f>UPPER(Notenliste!Z30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z30=0," ",UPPER(Notenliste!Z30))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>30</v>
       </c>
@@ -7892,27 +7895,27 @@
         <v>0</v>
       </c>
       <c r="J33" s="40" t="str">
-        <f>UPPER(Notenliste!X31)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X31=0," ",UPPER(Notenliste!X31))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K33" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L33" s="40" t="str">
-        <f>Notenliste!T31</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W31="x", Notenliste!W31="X"), "bestanden",IF(Notenliste!T31="KP"," ",Notenliste!T31))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M33" s="40">
         <f>Notenliste!S31</f>
         <v>0</v>
       </c>
       <c r="N33" s="42" t="str">
-        <f>UPPER(Notenliste!Z31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z31=0," ",UPPER(Notenliste!Z31))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>31</v>
       </c>
@@ -7949,27 +7952,27 @@
         <v>0</v>
       </c>
       <c r="J34" s="40" t="str">
-        <f>UPPER(Notenliste!X32)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X32=0," ",UPPER(Notenliste!X32))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K34" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L34" s="40" t="str">
-        <f>Notenliste!T32</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W32="x", Notenliste!W32="X"), "bestanden",IF(Notenliste!T32="KP"," ",Notenliste!T32))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M34" s="40">
         <f>Notenliste!S32</f>
         <v>0</v>
       </c>
       <c r="N34" s="42" t="str">
-        <f>UPPER(Notenliste!Z32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z32=0," ",UPPER(Notenliste!Z32))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>32</v>
       </c>
@@ -8006,27 +8009,27 @@
         <v>0</v>
       </c>
       <c r="J35" s="40" t="str">
-        <f>UPPER(Notenliste!X33)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X33=0," ",UPPER(Notenliste!X33))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K35" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L35" s="40" t="str">
-        <f>Notenliste!T33</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W33="x", Notenliste!W33="X"), "bestanden",IF(Notenliste!T33="KP"," ",Notenliste!T33))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M35" s="40">
         <f>Notenliste!S33</f>
         <v>0</v>
       </c>
       <c r="N35" s="42" t="str">
-        <f>UPPER(Notenliste!Z33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z33=0," ",UPPER(Notenliste!Z33))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>33</v>
       </c>
@@ -8063,27 +8066,27 @@
         <v>0</v>
       </c>
       <c r="J36" s="40" t="str">
-        <f>UPPER(Notenliste!X34)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X34=0," ",UPPER(Notenliste!X34))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K36" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L36" s="40" t="str">
-        <f>Notenliste!T34</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W34="x", Notenliste!W34="X"), "bestanden",IF(Notenliste!T34="KP"," ",Notenliste!T34))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M36" s="40">
         <f>Notenliste!S34</f>
         <v>0</v>
       </c>
       <c r="N36" s="42" t="str">
-        <f>UPPER(Notenliste!Z34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z34=0," ",UPPER(Notenliste!Z34))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>34</v>
       </c>
@@ -8120,27 +8123,27 @@
         <v>0</v>
       </c>
       <c r="J37" s="40" t="str">
-        <f>UPPER(Notenliste!X35)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X35=0," ",UPPER(Notenliste!X35))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K37" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L37" s="40" t="str">
-        <f>Notenliste!T35</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W35="x", Notenliste!W35="X"), "bestanden",IF(Notenliste!T35="KP"," ",Notenliste!T35))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M37" s="40">
         <f>Notenliste!S35</f>
         <v>0</v>
       </c>
       <c r="N37" s="42" t="str">
-        <f>UPPER(Notenliste!Z35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z35=0," ",UPPER(Notenliste!Z35))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35</v>
       </c>
@@ -8177,27 +8180,27 @@
         <v>0</v>
       </c>
       <c r="J38" s="40" t="str">
-        <f>UPPER(Notenliste!X36)</f>
-        <v>0</v>
+        <f>IF(Notenliste!X36=0," ",UPPER(Notenliste!X36))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K38" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L38" s="40" t="str">
-        <f>Notenliste!T36</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!W36="x", Notenliste!W36="X"), "bestanden",IF(Notenliste!T36="KP"," ",Notenliste!T36))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M38" s="40">
         <f>Notenliste!S36</f>
         <v>0</v>
       </c>
       <c r="N38" s="42" t="str">
-        <f>UPPER(Notenliste!Z36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(Notenliste!Z36=0," ",UPPER(Notenliste!Z36))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -8219,7 +8222,7 @@
       <c r="M39" s="43"/>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="104" t="s">
         <v>44</v>
       </c>
@@ -8237,7 +8240,7 @@
       <c r="M40" s="100"/>
       <c r="N40" s="100"/>
     </row>
-    <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="100"/>
       <c r="B41" s="100"/>
       <c r="C41" s="100"/>
@@ -8253,7 +8256,7 @@
       <c r="M41" s="100"/>
       <c r="N41" s="100"/>
     </row>
-    <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="100"/>
       <c r="B42" s="100"/>
       <c r="C42" s="100"/>
@@ -8269,7 +8272,7 @@
       <c r="M42" s="100"/>
       <c r="N42" s="100"/>
     </row>
-    <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="100"/>
       <c r="B43" s="100"/>
       <c r="C43" s="100"/>
@@ -8285,7 +8288,7 @@
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="98"/>
       <c r="B44" s="105"/>
       <c r="C44" s="105"/>
@@ -8320,7 +8323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8330,25 +8333,25 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="34" customWidth="1"/>
-    <col min="7" max="20" width="7.7109375" style="34" customWidth="1"/>
-    <col min="21" max="21" width="0.85546875" style="34" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="47" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="48" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="0.88671875" style="34" customWidth="1"/>
+    <col min="7" max="20" width="7.6640625" style="34" customWidth="1"/>
+    <col min="21" max="21" width="0.88671875" style="34" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="47" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="48" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="32" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
@@ -8377,7 +8380,7 @@
       <c r="W1" s="109"/>
       <c r="X1" s="110"/>
     </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="107" t="s">
         <v>45</v>
       </c>
@@ -8405,7 +8408,7 @@
       <c r="W2" s="109"/>
       <c r="X2" s="110"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -8434,7 +8437,7 @@
       <c r="W3" s="109"/>
       <c r="X3" s="110"/>
     </row>
-    <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="50" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="50" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="114"/>
       <c r="B5" s="114"/>
       <c r="C5" s="114"/>
@@ -8530,7 +8533,7 @@
       <c r="W5" s="114"/>
       <c r="X5" s="114"/>
     </row>
-    <row r="6" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>1</v>
       </c>
@@ -8570,7 +8573,7 @@
       <c r="W6" s="58"/>
       <c r="X6" s="58"/>
     </row>
-    <row r="7" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>2</v>
       </c>
@@ -8610,7 +8613,7 @@
       <c r="W7" s="58"/>
       <c r="X7" s="58"/>
     </row>
-    <row r="8" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>3</v>
       </c>
@@ -8650,7 +8653,7 @@
       <c r="W8" s="58"/>
       <c r="X8" s="58"/>
     </row>
-    <row r="9" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>4</v>
       </c>
@@ -8690,7 +8693,7 @@
       <c r="W9" s="58"/>
       <c r="X9" s="58"/>
     </row>
-    <row r="10" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>5</v>
       </c>
@@ -8730,7 +8733,7 @@
       <c r="W10" s="58"/>
       <c r="X10" s="58"/>
     </row>
-    <row r="11" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>6</v>
       </c>
@@ -8770,7 +8773,7 @@
       <c r="W11" s="58"/>
       <c r="X11" s="58"/>
     </row>
-    <row r="12" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>7</v>
       </c>
@@ -8810,7 +8813,7 @@
       <c r="W12" s="58"/>
       <c r="X12" s="58"/>
     </row>
-    <row r="13" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>8</v>
       </c>
@@ -8850,7 +8853,7 @@
       <c r="W13" s="58"/>
       <c r="X13" s="58"/>
     </row>
-    <row r="14" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>9</v>
       </c>
@@ -8890,7 +8893,7 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
     </row>
-    <row r="15" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>10</v>
       </c>
@@ -8930,7 +8933,7 @@
       <c r="W15" s="58"/>
       <c r="X15" s="58"/>
     </row>
-    <row r="16" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>11</v>
       </c>
@@ -8970,7 +8973,7 @@
       <c r="W16" s="58"/>
       <c r="X16" s="58"/>
     </row>
-    <row r="17" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>12</v>
       </c>
@@ -9010,7 +9013,7 @@
       <c r="W17" s="58"/>
       <c r="X17" s="58"/>
     </row>
-    <row r="18" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>13</v>
       </c>
@@ -9050,7 +9053,7 @@
       <c r="W18" s="58"/>
       <c r="X18" s="58"/>
     </row>
-    <row r="19" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>14</v>
       </c>
@@ -9090,7 +9093,7 @@
       <c r="W19" s="58"/>
       <c r="X19" s="58"/>
     </row>
-    <row r="20" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>15</v>
       </c>
@@ -9130,7 +9133,7 @@
       <c r="W20" s="58"/>
       <c r="X20" s="58"/>
     </row>
-    <row r="21" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>16</v>
       </c>
@@ -9170,7 +9173,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
     </row>
-    <row r="22" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>17</v>
       </c>
@@ -9210,7 +9213,7 @@
       <c r="W22" s="58"/>
       <c r="X22" s="58"/>
     </row>
-    <row r="23" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>18</v>
       </c>
@@ -9250,7 +9253,7 @@
       <c r="W23" s="58"/>
       <c r="X23" s="58"/>
     </row>
-    <row r="24" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>19</v>
       </c>
@@ -9290,7 +9293,7 @@
       <c r="W24" s="58"/>
       <c r="X24" s="58"/>
     </row>
-    <row r="25" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>20</v>
       </c>
@@ -9330,7 +9333,7 @@
       <c r="W25" s="58"/>
       <c r="X25" s="58"/>
     </row>
-    <row r="26" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>21</v>
       </c>
@@ -9370,7 +9373,7 @@
       <c r="W26" s="58"/>
       <c r="X26" s="58"/>
     </row>
-    <row r="27" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>22</v>
       </c>
@@ -9410,7 +9413,7 @@
       <c r="W27" s="58"/>
       <c r="X27" s="58"/>
     </row>
-    <row r="28" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>23</v>
       </c>
@@ -9450,7 +9453,7 @@
       <c r="W28" s="58"/>
       <c r="X28" s="58"/>
     </row>
-    <row r="29" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>24</v>
       </c>
@@ -9490,7 +9493,7 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
     </row>
-    <row r="30" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>25</v>
       </c>
@@ -9530,7 +9533,7 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
     </row>
-    <row r="31" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>26</v>
       </c>
@@ -9570,7 +9573,7 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
     </row>
-    <row r="32" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>27</v>
       </c>
@@ -9610,7 +9613,7 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
     </row>
-    <row r="33" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>28</v>
       </c>
@@ -9650,7 +9653,7 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
     </row>
-    <row r="34" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>29</v>
       </c>
@@ -9690,7 +9693,7 @@
       <c r="W34" s="58"/>
       <c r="X34" s="58"/>
     </row>
-    <row r="35" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>30</v>
       </c>
@@ -9730,7 +9733,7 @@
       <c r="W35" s="58"/>
       <c r="X35" s="58"/>
     </row>
-    <row r="36" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>31</v>
       </c>
@@ -9770,7 +9773,7 @@
       <c r="W36" s="58"/>
       <c r="X36" s="58"/>
     </row>
-    <row r="37" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>32</v>
       </c>
@@ -9810,7 +9813,7 @@
       <c r="W37" s="58"/>
       <c r="X37" s="58"/>
     </row>
-    <row r="38" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>33</v>
       </c>
@@ -9850,7 +9853,7 @@
       <c r="W38" s="58"/>
       <c r="X38" s="58"/>
     </row>
-    <row r="39" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>34</v>
       </c>
@@ -9890,7 +9893,7 @@
       <c r="W39" s="58"/>
       <c r="X39" s="58"/>
     </row>
-    <row r="40" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>35</v>
       </c>
@@ -9955,25 +9958,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="59" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="61" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
@@ -9999,18 +10002,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="str">
-        <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$43," ")</f>
-        <v>course.ects_points</v>
+        <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!V2&lt;&gt;0,Notenliste!V2,Notenliste!$B$43)," ")</f>
+        <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="63" t="e">
-        <f>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2)))</f>
+        <f>IF(OR(Notenliste!W2="x", Notenliste!W2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2))))</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="64" t="str">
@@ -10021,18 +10024,18 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="str">
-        <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D3&lt;&gt;0,IF(Notenliste!V3&lt;&gt;0,Notenliste!V3,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="63" t="str">
-        <f>IF(Notenliste!D3=0," ",IF(Notenliste!T3="KP"," ",IF(Notenliste!T3="NB","nicht bestanden",Notenliste!T3)))</f>
+        <f>IF(OR(Notenliste!W3="x", Notenliste!W3="X"),"bestanden",IF(Notenliste!D3=0," ",IF(Notenliste!T3="KP"," ",IF(Notenliste!T3="NB","nicht bestanden",Notenliste!T3))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="64" t="str">
@@ -10043,18 +10046,18 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="str">
-        <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D4&lt;&gt;0,IF(Notenliste!V4&lt;&gt;0,Notenliste!V4,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="63" t="str">
-        <f>IF(Notenliste!D4=0," ",IF(Notenliste!T4="KP"," ",IF(Notenliste!T4="NB","nicht bestanden",Notenliste!T4)))</f>
+        <f>IF(OR(Notenliste!W4="x", Notenliste!W4="X"),"bestanden",IF(Notenliste!D4=0," ",IF(Notenliste!T4="KP"," ",IF(Notenliste!T4="NB","nicht bestanden",Notenliste!T4))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="64" t="str">
@@ -10065,18 +10068,18 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="str">
-        <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D5&lt;&gt;0,IF(Notenliste!V5&lt;&gt;0,Notenliste!V5,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="63" t="str">
-        <f>IF(Notenliste!D5=0," ",IF(Notenliste!T5="KP"," ",IF(Notenliste!T5="NB","nicht bestanden",Notenliste!T5)))</f>
+        <f>IF(OR(Notenliste!W5="x", Notenliste!W5="X"),"bestanden",IF(Notenliste!D5=0," ",IF(Notenliste!T5="KP"," ",IF(Notenliste!T5="NB","nicht bestanden",Notenliste!T5))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="64" t="str">
@@ -10087,18 +10090,18 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="str">
-        <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D6&lt;&gt;0,IF(Notenliste!V6&lt;&gt;0,Notenliste!V6,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="63" t="str">
-        <f>IF(Notenliste!D6=0," ",IF(Notenliste!T6="KP"," ",IF(Notenliste!T6="NB","nicht bestanden",Notenliste!T6)))</f>
+        <f>IF(OR(Notenliste!W6="x", Notenliste!W6="X"),"bestanden",IF(Notenliste!D6=0," ",IF(Notenliste!T6="KP"," ",IF(Notenliste!T6="NB","nicht bestanden",Notenliste!T6))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="64" t="str">
@@ -10109,18 +10112,18 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="str">
-        <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D7&lt;&gt;0,IF(Notenliste!V7&lt;&gt;0,Notenliste!V7,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="63" t="str">
-        <f>IF(Notenliste!D7=0," ",IF(Notenliste!T7="KP"," ",IF(Notenliste!T7="NB","nicht bestanden",Notenliste!T7)))</f>
+        <f>IF(OR(Notenliste!W7="x", Notenliste!W7="X"),"bestanden",IF(Notenliste!D7=0," ",IF(Notenliste!T7="KP"," ",IF(Notenliste!T7="NB","nicht bestanden",Notenliste!T7))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="64" t="str">
@@ -10131,18 +10134,18 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="str">
-        <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D8&lt;&gt;0,IF(Notenliste!V8&lt;&gt;0,Notenliste!V8,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="63" t="str">
-        <f>IF(Notenliste!D8=0," ",IF(Notenliste!T8="KP"," ",IF(Notenliste!T8="NB","nicht bestanden",Notenliste!T8)))</f>
+        <f>IF(OR(Notenliste!W8="x", Notenliste!W8="X"),"bestanden",IF(Notenliste!D8=0," ",IF(Notenliste!T8="KP"," ",IF(Notenliste!T8="NB","nicht bestanden",Notenliste!T8))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="64" t="str">
@@ -10153,18 +10156,18 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="str">
-        <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D9&lt;&gt;0,IF(Notenliste!V9&lt;&gt;0,Notenliste!V9,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="63" t="str">
-        <f>IF(Notenliste!D9=0," ",IF(Notenliste!T9="KP"," ",IF(Notenliste!T9="NB","nicht bestanden",Notenliste!T9)))</f>
+        <f>IF(OR(Notenliste!W9="x", Notenliste!W9="X"),"bestanden",IF(Notenliste!D9=0," ",IF(Notenliste!T9="KP"," ",IF(Notenliste!T9="NB","nicht bestanden",Notenliste!T9))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="64" t="str">
@@ -10175,18 +10178,18 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="str">
-        <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D10&lt;&gt;0,IF(Notenliste!V10&lt;&gt;0,Notenliste!V10,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="63" t="str">
-        <f>IF(Notenliste!D10=0," ",IF(Notenliste!T10="KP"," ",IF(Notenliste!T10="NB","nicht bestanden",Notenliste!T10)))</f>
+        <f>IF(OR(Notenliste!W10="x", Notenliste!W10="X"),"bestanden",IF(Notenliste!D10=0," ",IF(Notenliste!T10="KP"," ",IF(Notenliste!T10="NB","nicht bestanden",Notenliste!T10))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="64" t="str">
@@ -10197,18 +10200,18 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="str">
-        <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D11&lt;&gt;0,IF(Notenliste!V11&lt;&gt;0,Notenliste!V11,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="63" t="str">
-        <f>IF(Notenliste!D11=0," ",IF(Notenliste!T11="KP"," ",IF(Notenliste!T11="NB","nicht bestanden",Notenliste!T11)))</f>
+        <f>IF(OR(Notenliste!W11="x", Notenliste!W11="X"),"bestanden",IF(Notenliste!D11=0," ",IF(Notenliste!T11="KP"," ",IF(Notenliste!T11="NB","nicht bestanden",Notenliste!T11))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="64" t="str">
@@ -10219,18 +10222,18 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="str">
-        <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D12&lt;&gt;0,IF(Notenliste!V12&lt;&gt;0,Notenliste!V12,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="63" t="str">
-        <f>IF(Notenliste!D12=0," ",IF(Notenliste!T12="KP"," ",IF(Notenliste!T12="NB","nicht bestanden",Notenliste!T12)))</f>
+        <f>IF(OR(Notenliste!W12="x", Notenliste!W12="X"),"bestanden",IF(Notenliste!D12=0," ",IF(Notenliste!T12="KP"," ",IF(Notenliste!T12="NB","nicht bestanden",Notenliste!T12))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="64" t="str">
@@ -10241,18 +10244,18 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="str">
-        <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D13&lt;&gt;0,IF(Notenliste!V13&lt;&gt;0,Notenliste!V13,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="63" t="str">
-        <f>IF(Notenliste!D13=0," ",IF(Notenliste!T13="KP"," ",IF(Notenliste!T13="NB","nicht bestanden",Notenliste!T13)))</f>
+        <f>IF(OR(Notenliste!W13="x", Notenliste!W13="X"),"bestanden",IF(Notenliste!D13=0," ",IF(Notenliste!T13="KP"," ",IF(Notenliste!T13="NB","nicht bestanden",Notenliste!T13))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="64" t="str">
@@ -10263,18 +10266,18 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="str">
-        <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D14&lt;&gt;0,IF(Notenliste!V14&lt;&gt;0,Notenliste!V14,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="63" t="str">
-        <f>IF(Notenliste!D14=0," ",IF(Notenliste!T14="KP"," ",IF(Notenliste!T14="NB","nicht bestanden",Notenliste!T14)))</f>
+        <f>IF(OR(Notenliste!W14="x", Notenliste!W14="X"),"bestanden",IF(Notenliste!D14=0," ",IF(Notenliste!T14="KP"," ",IF(Notenliste!T14="NB","nicht bestanden",Notenliste!T14))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="64" t="str">
@@ -10285,18 +10288,18 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="str">
-        <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D15&lt;&gt;0,IF(Notenliste!V15&lt;&gt;0,Notenliste!V15,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="63" t="str">
-        <f>IF(Notenliste!D15=0," ",IF(Notenliste!T15="KP"," ",IF(Notenliste!T15="NB","nicht bestanden",Notenliste!T15)))</f>
+        <f>IF(OR(Notenliste!W15="x", Notenliste!W15="X"),"bestanden",IF(Notenliste!D15=0," ",IF(Notenliste!T15="KP"," ",IF(Notenliste!T15="NB","nicht bestanden",Notenliste!T15))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="64" t="str">
@@ -10307,18 +10310,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="str">
-        <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D16&lt;&gt;0,IF(Notenliste!V16&lt;&gt;0,Notenliste!V16,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="63" t="str">
-        <f>IF(Notenliste!D16=0," ",IF(Notenliste!T16="KP"," ",IF(Notenliste!T16="NB","nicht bestanden",Notenliste!T16)))</f>
+        <f>IF(OR(Notenliste!W16="x", Notenliste!W16="X"),"bestanden",IF(Notenliste!D16=0," ",IF(Notenliste!T16="KP"," ",IF(Notenliste!T16="NB","nicht bestanden",Notenliste!T16))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="64" t="str">
@@ -10329,18 +10332,18 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="str">
-        <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D17&lt;&gt;0,IF(Notenliste!V17&lt;&gt;0,Notenliste!V17,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="63" t="str">
-        <f>IF(Notenliste!D17=0," ",IF(Notenliste!T17="KP"," ",IF(Notenliste!T17="NB","nicht bestanden",Notenliste!T17)))</f>
+        <f>IF(OR(Notenliste!W17="x", Notenliste!W17="X"),"bestanden",IF(Notenliste!D17=0," ",IF(Notenliste!T17="KP"," ",IF(Notenliste!T17="NB","nicht bestanden",Notenliste!T17))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="64" t="str">
@@ -10351,18 +10354,18 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="str">
-        <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D18&lt;&gt;0,IF(Notenliste!V18&lt;&gt;0,Notenliste!V18,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="63" t="str">
-        <f>IF(Notenliste!D18=0," ",IF(Notenliste!T18="KP"," ",IF(Notenliste!T18="NB","nicht bestanden",Notenliste!T18)))</f>
+        <f>IF(OR(Notenliste!W18="x", Notenliste!W18="X"),"bestanden",IF(Notenliste!D18=0," ",IF(Notenliste!T18="KP"," ",IF(Notenliste!T18="NB","nicht bestanden",Notenliste!T18))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="64" t="str">
@@ -10373,18 +10376,18 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="str">
-        <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D19&lt;&gt;0,IF(Notenliste!V19&lt;&gt;0,Notenliste!V19,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="63" t="str">
-        <f>IF(Notenliste!D19=0," ",IF(Notenliste!T19="KP"," ",IF(Notenliste!T19="NB","nicht bestanden",Notenliste!T19)))</f>
+        <f>IF(OR(Notenliste!W19="x", Notenliste!W19="X"),"bestanden",IF(Notenliste!D19=0," ",IF(Notenliste!T19="KP"," ",IF(Notenliste!T19="NB","nicht bestanden",Notenliste!T19))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="64" t="str">
@@ -10395,18 +10398,18 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="str">
-        <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D20&lt;&gt;0,IF(Notenliste!V20&lt;&gt;0,Notenliste!V20,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="63" t="str">
-        <f>IF(Notenliste!D20=0," ",IF(Notenliste!T20="KP"," ",IF(Notenliste!T20="NB","nicht bestanden",Notenliste!T20)))</f>
+        <f>IF(OR(Notenliste!W20="x", Notenliste!W20="X"),"bestanden",IF(Notenliste!D20=0," ",IF(Notenliste!T20="KP"," ",IF(Notenliste!T20="NB","nicht bestanden",Notenliste!T20))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="64" t="str">
@@ -10417,18 +10420,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="str">
-        <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D21&lt;&gt;0,IF(Notenliste!V21&lt;&gt;0,Notenliste!V21,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="63" t="str">
-        <f>IF(Notenliste!D21=0," ",IF(Notenliste!T21="KP"," ",IF(Notenliste!T21="NB","nicht bestanden",Notenliste!T21)))</f>
+        <f>IF(OR(Notenliste!W21="x", Notenliste!W21="X"),"bestanden",IF(Notenliste!D21=0," ",IF(Notenliste!T21="KP"," ",IF(Notenliste!T21="NB","nicht bestanden",Notenliste!T21))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="64" t="str">
@@ -10439,18 +10442,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="str">
-        <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D22&lt;&gt;0,IF(Notenliste!V22&lt;&gt;0,Notenliste!V22,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="63" t="str">
-        <f>IF(Notenliste!D22=0," ",IF(Notenliste!T22="KP"," ",IF(Notenliste!T22="NB","nicht bestanden",Notenliste!T22)))</f>
+        <f>IF(OR(Notenliste!W22="x", Notenliste!W22="X"),"bestanden",IF(Notenliste!D22=0," ",IF(Notenliste!T22="KP"," ",IF(Notenliste!T22="NB","nicht bestanden",Notenliste!T22))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="64" t="str">
@@ -10461,18 +10464,18 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="str">
-        <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D23&lt;&gt;0,IF(Notenliste!V23&lt;&gt;0,Notenliste!V23,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="63" t="str">
-        <f>IF(Notenliste!D23=0," ",IF(Notenliste!T23="KP"," ",IF(Notenliste!T23="NB","nicht bestanden",Notenliste!T23)))</f>
+        <f>IF(OR(Notenliste!W23="x", Notenliste!W23="X"),"bestanden",IF(Notenliste!D23=0," ",IF(Notenliste!T23="KP"," ",IF(Notenliste!T23="NB","nicht bestanden",Notenliste!T23))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="64" t="str">
@@ -10483,18 +10486,18 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="str">
-        <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D24&lt;&gt;0,IF(Notenliste!V24&lt;&gt;0,Notenliste!V24,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="63" t="str">
-        <f>IF(Notenliste!D24=0," ",IF(Notenliste!T24="KP"," ",IF(Notenliste!T24="NB","nicht bestanden",Notenliste!T24)))</f>
+        <f>IF(OR(Notenliste!W24="x", Notenliste!W24="X"),"bestanden",IF(Notenliste!D24=0," ",IF(Notenliste!T24="KP"," ",IF(Notenliste!T24="NB","nicht bestanden",Notenliste!T24))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="64" t="str">
@@ -10505,18 +10508,18 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="str">
-        <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D25&lt;&gt;0,IF(Notenliste!V25&lt;&gt;0,Notenliste!V25,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="63" t="str">
-        <f>IF(Notenliste!D25=0," ",IF(Notenliste!T25="KP"," ",IF(Notenliste!T25="NB","nicht bestanden",Notenliste!T25)))</f>
+        <f>IF(OR(Notenliste!W25="x", Notenliste!W25="X"),"bestanden",IF(Notenliste!D25=0," ",IF(Notenliste!T25="KP"," ",IF(Notenliste!T25="NB","nicht bestanden",Notenliste!T25))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="64" t="str">
@@ -10527,18 +10530,18 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="str">
-        <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D26&lt;&gt;0,IF(Notenliste!V26&lt;&gt;0,Notenliste!V26,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="63" t="str">
-        <f>IF(Notenliste!D26=0," ",IF(Notenliste!T26="KP"," ",IF(Notenliste!T26="NB","nicht bestanden",Notenliste!T26)))</f>
+        <f>IF(OR(Notenliste!W26="x", Notenliste!W26="X"),"bestanden",IF(Notenliste!D26=0," ",IF(Notenliste!T26="KP"," ",IF(Notenliste!T26="NB","nicht bestanden",Notenliste!T26))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="64" t="str">
@@ -10549,18 +10552,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="str">
         <f>IF(Notenliste!D27=0," ",Notenliste!D27)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="str">
-        <f>IF(Notenliste!D27&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D27&lt;&gt;0,IF(Notenliste!V27&lt;&gt;0,Notenliste!V27,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D27" s="63" t="str">
-        <f>IF(Notenliste!D27=0," ",IF(Notenliste!T27="KP"," ",IF(Notenliste!T27="NB","nicht bestanden",Notenliste!T27)))</f>
+        <f>IF(OR(Notenliste!W27="x", Notenliste!W27="X"),"bestanden",IF(Notenliste!D27=0," ",IF(Notenliste!T27="KP"," ",IF(Notenliste!T27="NB","nicht bestanden",Notenliste!T27))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E27" s="64" t="str">
@@ -10571,18 +10574,18 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="str">
         <f>IF(Notenliste!D28=0," ",Notenliste!D28)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="str">
-        <f>IF(Notenliste!D28&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D28&lt;&gt;0,IF(Notenliste!V28&lt;&gt;0,Notenliste!V28,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D28" s="63" t="str">
-        <f>IF(Notenliste!D28=0," ",IF(Notenliste!T28="KP"," ",IF(Notenliste!T28="NB","nicht bestanden",Notenliste!T28)))</f>
+        <f>IF(OR(Notenliste!W28="x", Notenliste!W28="X"),"bestanden",IF(Notenliste!D28=0," ",IF(Notenliste!T28="KP"," ",IF(Notenliste!T28="NB","nicht bestanden",Notenliste!T28))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E28" s="64" t="str">
@@ -10593,18 +10596,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="str">
         <f>IF(Notenliste!D29=0," ",Notenliste!D29)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="str">
-        <f>IF(Notenliste!D29&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D29&lt;&gt;0,IF(Notenliste!V29&lt;&gt;0,Notenliste!V29,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D29" s="63" t="str">
-        <f>IF(Notenliste!D29=0," ",IF(Notenliste!T29="KP"," ",IF(Notenliste!T29="NB","nicht bestanden",Notenliste!T29)))</f>
+        <f>IF(OR(Notenliste!W29="x", Notenliste!W29="X"),"bestanden",IF(Notenliste!D29=0," ",IF(Notenliste!T29="KP"," ",IF(Notenliste!T29="NB","nicht bestanden",Notenliste!T29))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E29" s="64" t="str">
@@ -10615,18 +10618,18 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="str">
         <f>IF(Notenliste!D30=0," ",Notenliste!D30)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="str">
-        <f>IF(Notenliste!D30&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D30&lt;&gt;0,IF(Notenliste!V30&lt;&gt;0,Notenliste!V30,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D30" s="63" t="str">
-        <f>IF(Notenliste!D30=0," ",IF(Notenliste!T30="KP"," ",IF(Notenliste!T30="NB","nicht bestanden",Notenliste!T30)))</f>
+        <f>IF(OR(Notenliste!W30="x", Notenliste!W30="X"),"bestanden",IF(Notenliste!D30=0," ",IF(Notenliste!T30="KP"," ",IF(Notenliste!T30="NB","nicht bestanden",Notenliste!T30))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E30" s="64" t="str">
@@ -10637,18 +10640,18 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="str">
         <f>IF(Notenliste!D31=0," ",Notenliste!D31)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="str">
-        <f>IF(Notenliste!D31&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D31&lt;&gt;0,IF(Notenliste!V31&lt;&gt;0,Notenliste!V31,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D31" s="63" t="str">
-        <f>IF(Notenliste!D31=0," ",IF(Notenliste!T31="KP"," ",IF(Notenliste!T31="NB","nicht bestanden",Notenliste!T31)))</f>
+        <f>IF(OR(Notenliste!W31="x", Notenliste!W31="X"),"bestanden",IF(Notenliste!D31=0," ",IF(Notenliste!T31="KP"," ",IF(Notenliste!T31="NB","nicht bestanden",Notenliste!T31))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E31" s="64" t="str">
@@ -10659,18 +10662,18 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="str">
         <f>IF(Notenliste!D32=0," ",Notenliste!D32)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="str">
-        <f>IF(Notenliste!D32&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D32&lt;&gt;0,IF(Notenliste!V32&lt;&gt;0,Notenliste!V32,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D32" s="63" t="str">
-        <f>IF(Notenliste!D32=0," ",IF(Notenliste!T32="KP"," ",IF(Notenliste!T32="NB","nicht bestanden",Notenliste!T32)))</f>
+        <f>IF(OR(Notenliste!W32="x", Notenliste!W32="X"),"bestanden",IF(Notenliste!D32=0," ",IF(Notenliste!T32="KP"," ",IF(Notenliste!T32="NB","nicht bestanden",Notenliste!T32))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E32" s="64" t="str">
@@ -10681,18 +10684,18 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="str">
         <f>IF(Notenliste!D33=0," ",Notenliste!D33)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="str">
-        <f>IF(Notenliste!D33&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D33&lt;&gt;0,IF(Notenliste!V33&lt;&gt;0,Notenliste!V33,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D33" s="63" t="str">
-        <f>IF(Notenliste!D33=0," ",IF(Notenliste!T33="KP"," ",IF(Notenliste!T33="NB","nicht bestanden",Notenliste!T33)))</f>
+        <f>IF(OR(Notenliste!W33="x", Notenliste!W33="X"),"bestanden",IF(Notenliste!D33=0," ",IF(Notenliste!T33="KP"," ",IF(Notenliste!T33="NB","nicht bestanden",Notenliste!T33))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E33" s="64" t="str">
@@ -10703,18 +10706,18 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="str">
         <f>IF(Notenliste!D34=0," ",Notenliste!D34)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="str">
-        <f>IF(Notenliste!D34&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D34&lt;&gt;0,IF(Notenliste!V34&lt;&gt;0,Notenliste!V34,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D34" s="63" t="str">
-        <f>IF(Notenliste!D34=0," ",IF(Notenliste!T34="KP"," ",IF(Notenliste!T34="NB","nicht bestanden",Notenliste!T34)))</f>
+        <f>IF(OR(Notenliste!W34="x", Notenliste!W34="X"),"bestanden",IF(Notenliste!D34=0," ",IF(Notenliste!T34="KP"," ",IF(Notenliste!T34="NB","nicht bestanden",Notenliste!T34))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E34" s="64" t="str">
@@ -10725,18 +10728,18 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="str">
         <f>IF(Notenliste!D35=0," ",Notenliste!D35)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="str">
-        <f>IF(Notenliste!D35&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D35&lt;&gt;0,IF(Notenliste!V35&lt;&gt;0,Notenliste!V35,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D35" s="63" t="str">
-        <f>IF(Notenliste!D35=0," ",IF(Notenliste!T35="KP"," ",IF(Notenliste!T35="NB","nicht bestanden",Notenliste!T35)))</f>
+        <f>IF(OR(Notenliste!W35="x", Notenliste!W35="X"),"bestanden",IF(Notenliste!D35=0," ",IF(Notenliste!T35="KP"," ",IF(Notenliste!T35="NB","nicht bestanden",Notenliste!T35))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E35" s="64" t="str">
@@ -10747,18 +10750,18 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="str">
         <f>IF(Notenliste!D36=0," ",Notenliste!D36)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="str">
-        <f>IF(Notenliste!D36&lt;&gt;0,Notenliste!$B$43," ")</f>
+        <f>IF(Notenliste!D36&lt;&gt;0,IF(Notenliste!V36&lt;&gt;0,Notenliste!V36,Notenliste!$B$43)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D36" s="63" t="str">
-        <f>IF(Notenliste!D36=0," ",IF(Notenliste!T36="KP"," ",IF(Notenliste!T36="NB","nicht bestanden",Notenliste!T36)))</f>
+        <f>IF(OR(Notenliste!W36="x", Notenliste!W36="X"),"bestanden",IF(Notenliste!D36=0," ",IF(Notenliste!T36="KP"," ",IF(Notenliste!T36="NB","nicht bestanden",Notenliste!T36))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E36" s="64" t="str">
@@ -10772,21 +10775,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="E1 E37:E1048576">
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="E1 E37:E1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="A1 A37:A1048576">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="A1 A37:A1048576" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>

--- a/src/spz/templates/export/english.xlsx
+++ b/src/spz/templates/export/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EBA5C4-88C1-4E5A-83D9-CB669FC1C5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6612110A-E7B6-4ED7-9CE9-B7F186196E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -957,6 +957,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1398,7 +1402,7 @@
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!V2&lt;&gt;0,Notenliste!V2,Notenliste!$B$43)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="3">
-      <calculatedColumnFormula>IF(OR(Notenliste!W2="x", Notenliste!W2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",IF(OR(Notenliste!W2="x", Notenliste!W2="X"),"bestanden",Notenliste!T2))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
@@ -2012,7 +2016,7 @@
   <dimension ref="A1:WWM70"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2697,7 +2701,7 @@
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
-      <c r="W2" s="18" t="str">
+      <c r="W2" s="93" t="str">
         <f>RAWDATA!K2</f>
         <v>attendance.hide_grade_str</v>
       </c>
@@ -2783,7 +2787,7 @@
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="93">
         <f>RAWDATA!K3</f>
         <v>0</v>
       </c>
@@ -2869,7 +2873,7 @@
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="93">
         <f>RAWDATA!K4</f>
         <v>0</v>
       </c>
@@ -2955,7 +2959,7 @@
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="93">
         <f>RAWDATA!K5</f>
         <v>0</v>
       </c>
@@ -3041,7 +3045,7 @@
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="93">
         <f>RAWDATA!K6</f>
         <v>0</v>
       </c>
@@ -3127,7 +3131,7 @@
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="93">
         <f>RAWDATA!K7</f>
         <v>0</v>
       </c>
@@ -3213,7 +3217,7 @@
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="93">
         <f>RAWDATA!K8</f>
         <v>0</v>
       </c>
@@ -3299,7 +3303,7 @@
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="93">
         <f>RAWDATA!K9</f>
         <v>0</v>
       </c>
@@ -3385,7 +3389,7 @@
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="93">
         <f>RAWDATA!K10</f>
         <v>0</v>
       </c>
@@ -3471,7 +3475,7 @@
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="93">
         <f>RAWDATA!K11</f>
         <v>0</v>
       </c>
@@ -3557,7 +3561,7 @@
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="93">
         <f>RAWDATA!K12</f>
         <v>0</v>
       </c>
@@ -3643,7 +3647,7 @@
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="93">
         <f>RAWDATA!K13</f>
         <v>0</v>
       </c>
@@ -3729,7 +3733,7 @@
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="93">
         <f>RAWDATA!K14</f>
         <v>0</v>
       </c>
@@ -3815,7 +3819,7 @@
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="93">
         <f>RAWDATA!K15</f>
         <v>0</v>
       </c>
@@ -3901,7 +3905,7 @@
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="93">
         <f>RAWDATA!K16</f>
         <v>0</v>
       </c>
@@ -3987,7 +3991,7 @@
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="W17" s="18">
+      <c r="W17" s="93">
         <f>RAWDATA!K17</f>
         <v>0</v>
       </c>
@@ -4073,7 +4077,7 @@
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="93">
         <f>RAWDATA!K18</f>
         <v>0</v>
       </c>
@@ -4159,7 +4163,7 @@
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="W19" s="18">
+      <c r="W19" s="93">
         <f>RAWDATA!K19</f>
         <v>0</v>
       </c>
@@ -4245,7 +4249,7 @@
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="93">
         <f>RAWDATA!K20</f>
         <v>0</v>
       </c>
@@ -4331,7 +4335,7 @@
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="93">
         <f>RAWDATA!K21</f>
         <v>0</v>
       </c>
@@ -4417,7 +4421,7 @@
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="W22" s="18">
+      <c r="W22" s="93">
         <f>RAWDATA!K22</f>
         <v>0</v>
       </c>
@@ -4503,7 +4507,7 @@
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="93">
         <f>RAWDATA!K23</f>
         <v>0</v>
       </c>
@@ -4589,7 +4593,7 @@
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="93">
         <f>RAWDATA!K24</f>
         <v>0</v>
       </c>
@@ -4675,7 +4679,7 @@
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="93">
         <f>RAWDATA!K25</f>
         <v>0</v>
       </c>
@@ -4744,7 +4748,7 @@
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="18">
+      <c r="W26" s="93">
         <f>RAWDATA!K26</f>
         <v>0</v>
       </c>
@@ -4813,7 +4817,7 @@
         <f>RAWDATA!G27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="93">
         <f>RAWDATA!K27</f>
         <v>0</v>
       </c>
@@ -4882,7 +4886,7 @@
         <f>RAWDATA!G28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="93">
         <f>RAWDATA!K28</f>
         <v>0</v>
       </c>
@@ -4951,7 +4955,7 @@
         <f>RAWDATA!G29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="18">
+      <c r="W29" s="93">
         <f>RAWDATA!K29</f>
         <v>0</v>
       </c>
@@ -5020,7 +5024,7 @@
         <f>RAWDATA!G30</f>
         <v>0</v>
       </c>
-      <c r="W30" s="18">
+      <c r="W30" s="93">
         <f>RAWDATA!K30</f>
         <v>0</v>
       </c>
@@ -5089,7 +5093,7 @@
         <f>RAWDATA!G31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="18">
+      <c r="W31" s="93">
         <f>RAWDATA!K31</f>
         <v>0</v>
       </c>
@@ -5158,7 +5162,7 @@
         <f>RAWDATA!G32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="18">
+      <c r="W32" s="93">
         <f>RAWDATA!K32</f>
         <v>0</v>
       </c>
@@ -5227,7 +5231,7 @@
         <f>RAWDATA!G33</f>
         <v>0</v>
       </c>
-      <c r="W33" s="18">
+      <c r="W33" s="93">
         <f>RAWDATA!K33</f>
         <v>0</v>
       </c>
@@ -5296,7 +5300,7 @@
         <f>RAWDATA!G34</f>
         <v>0</v>
       </c>
-      <c r="W34" s="18">
+      <c r="W34" s="93">
         <f>RAWDATA!K34</f>
         <v>0</v>
       </c>
@@ -5365,7 +5369,7 @@
         <f>RAWDATA!G35</f>
         <v>0</v>
       </c>
-      <c r="W35" s="18">
+      <c r="W35" s="93">
         <f>RAWDATA!K35</f>
         <v>0</v>
       </c>
@@ -5451,7 +5455,7 @@
         <f>RAWDATA!G36</f>
         <v>0</v>
       </c>
-      <c r="W36" s="18">
+      <c r="W36" s="93">
         <f>RAWDATA!K36</f>
         <v>0</v>
       </c>
@@ -5613,26 +5617,26 @@
         <v>80</v>
       </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="28"/>
@@ -5648,24 +5652,24 @@
         <v>59</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="28"/>
@@ -5681,24 +5685,24 @@
         <v>60</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="94"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96"/>
       <c r="W43" s="25"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="28"/>
@@ -5714,24 +5718,24 @@
         <v>61</v>
       </c>
       <c r="C44" s="26"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
       <c r="W44" s="25"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="28"/>
@@ -5747,24 +5751,24 @@
         <v>62</v>
       </c>
       <c r="C45" s="26"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="96"/>
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
       <c r="Y45" s="28"/>
@@ -5780,24 +5784,24 @@
         <v>63</v>
       </c>
       <c r="C46" s="26"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="95"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
       <c r="W46" s="15"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="28"/>
@@ -5813,24 +5817,24 @@
         <v>64</v>
       </c>
       <c r="C47" s="26"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="95"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="97"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
       <c r="W47" s="25"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="28"/>
@@ -5846,24 +5850,24 @@
         <v>65</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="96"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="95"/>
-      <c r="U48" s="95"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="97"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="97"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="96"/>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="28"/>
@@ -5930,7 +5934,7 @@
   <mergeCells count="1">
     <mergeCell ref="D41:U48"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B47" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.2598425196850389" bottom="1.0629921259842521" header="0.59055118110236249" footer="0.78740157480314954"/>
@@ -5963,11 +5967,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="str">
+      <c r="A1" s="98" t="str">
         <f>Notenliste!B44</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="99"/>
       <c r="C1" s="32" t="s">
         <v>35</v>
       </c>
@@ -6100,8 +6104,8 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showZeros="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -6121,45 +6125,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="35" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="100" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" spans="1:14" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="str">
+      <c r="A2" s="102" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103" t="str">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104" t="str">
         <f>"Semster: "&amp;Notenliste!B47</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -6242,23 +6246,23 @@
         <v>0</v>
       </c>
       <c r="J4" s="40" t="str">
-        <f>IF(Notenliste!X2=0," ",UPPER(Notenliste!X2))</f>
+        <f>IF(AND(B4=0,E4=0)," ",IF(Notenliste!X2=0," ",UPPER(Notenliste!X2)))</f>
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="40" t="e">
-        <f t="shared" ref="K4:K9" si="0">IF(L4&lt;=4,"X","")</f>
+        <f>IF(OR(L4&lt;=4, L4="bestanden"),"X","")</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="40" t="e">
-        <f>IF(OR(Notenliste!W2="x", Notenliste!W2="X"), "bestanden",IF(Notenliste!T2="KP"," ",Notenliste!T2))</f>
+        <f>IF(AND(B4=0,E4=0),"",IF(Notenliste!T2="KP"," ",IF(OR(Notenliste!W2="x", Notenliste!W2="X"), "bestanden",Notenliste!T2)))</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="40" t="str">
-        <f>Notenliste!S2</f>
+        <f>IF(AND(B4=0,E4=0)," ",Notenliste!S2)</f>
         <v>attendance.sanitized_grade</v>
       </c>
       <c r="N4" s="42" t="str">
-        <f>IF(Notenliste!Z2=0," ",UPPER(Notenliste!Z2))</f>
+        <f>IF(AND(B4=0,E4=0)," ",IF(Notenliste!Z2=0," ",UPPER(Notenliste!Z2)))</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
@@ -6299,23 +6303,23 @@
         <v>0</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f>IF(Notenliste!X3=0," ",UPPER(Notenliste!X3))</f>
+        <f>IF(AND(B5=0,E5=0)," ",IF(Notenliste!X3=0," ",UPPER(Notenliste!X3)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K5:K38" si="0">IF(OR(L5&lt;=4, L5="bestanden"),"X","")</f>
         <v/>
       </c>
       <c r="L5" s="40" t="str">
-        <f>IF(OR(Notenliste!W3="x", Notenliste!W3="X"), "bestanden",IF(Notenliste!T3="KP"," ",Notenliste!T3))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M5" s="40">
-        <f>Notenliste!S3</f>
-        <v>0</v>
+        <f>IF(AND(B5=0,E5=0),"",IF(Notenliste!T3="KP"," ",IF(OR(Notenliste!W3="x", Notenliste!W3="X"), "bestanden",Notenliste!T3)))</f>
+        <v/>
+      </c>
+      <c r="M5" s="40" t="str">
+        <f>IF(AND(B5=0,E5=0)," ",Notenliste!S3)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N5" s="42" t="str">
-        <f>IF(Notenliste!Z3=0," ",UPPER(Notenliste!Z3))</f>
+        <f>IF(AND(B5=0,E5=0)," ",IF(Notenliste!Z3=0," ",UPPER(Notenliste!Z3)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6356,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="40" t="str">
-        <f>IF(Notenliste!X4=0," ",UPPER(Notenliste!X4))</f>
+        <f>IF(AND(B6=0,E6=0)," ",IF(Notenliste!X4=0," ",UPPER(Notenliste!X4)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K6" s="40" t="str">
@@ -6364,15 +6368,15 @@
         <v/>
       </c>
       <c r="L6" s="40" t="str">
-        <f>IF(OR(Notenliste!W4="x", Notenliste!W4="X"), "bestanden",IF(Notenliste!T4="KP"," ",Notenliste!T4))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M6" s="40">
-        <f>Notenliste!S4</f>
-        <v>0</v>
+        <f>IF(AND(B6=0,E6=0),"",IF(Notenliste!T4="KP"," ",IF(OR(Notenliste!W4="x", Notenliste!W4="X"), "bestanden",Notenliste!T4)))</f>
+        <v/>
+      </c>
+      <c r="M6" s="40" t="str">
+        <f>IF(AND(B6=0,E6=0)," ",Notenliste!S4)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N6" s="42" t="str">
-        <f>IF(Notenliste!Z4=0," ",UPPER(Notenliste!Z4))</f>
+        <f>IF(AND(B6=0,E6=0)," ",IF(Notenliste!Z4=0," ",UPPER(Notenliste!Z4)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6413,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="40" t="str">
-        <f>IF(Notenliste!X5=0," ",UPPER(Notenliste!X5))</f>
+        <f>IF(AND(B7=0,E7=0)," ",IF(Notenliste!X5=0," ",UPPER(Notenliste!X5)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K7" s="40" t="str">
@@ -6421,15 +6425,15 @@
         <v/>
       </c>
       <c r="L7" s="40" t="str">
-        <f>IF(OR(Notenliste!W5="x", Notenliste!W5="X"), "bestanden",IF(Notenliste!T5="KP"," ",Notenliste!T5))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M7" s="40">
-        <f>Notenliste!S5</f>
-        <v>0</v>
+        <f>IF(AND(B7=0,E7=0),"",IF(Notenliste!T5="KP"," ",IF(OR(Notenliste!W5="x", Notenliste!W5="X"), "bestanden",Notenliste!T5)))</f>
+        <v/>
+      </c>
+      <c r="M7" s="40" t="str">
+        <f>IF(AND(B7=0,E7=0)," ",Notenliste!S5)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N7" s="42" t="str">
-        <f>IF(Notenliste!Z5=0," ",UPPER(Notenliste!Z5))</f>
+        <f>IF(AND(B7=0,E7=0)," ",IF(Notenliste!Z5=0," ",UPPER(Notenliste!Z5)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6470,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="40" t="str">
-        <f>IF(Notenliste!X6=0," ",UPPER(Notenliste!X6))</f>
+        <f>IF(AND(B8=0,E8=0)," ",IF(Notenliste!X6=0," ",UPPER(Notenliste!X6)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K8" s="40" t="str">
@@ -6478,15 +6482,15 @@
         <v/>
       </c>
       <c r="L8" s="40" t="str">
-        <f>IF(OR(Notenliste!W6="x", Notenliste!W6="X"), "bestanden",IF(Notenliste!T6="KP"," ",Notenliste!T6))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M8" s="40">
-        <f>Notenliste!S6</f>
-        <v>0</v>
+        <f>IF(AND(B8=0,E8=0),"",IF(Notenliste!T6="KP"," ",IF(OR(Notenliste!W6="x", Notenliste!W6="X"), "bestanden",Notenliste!T6)))</f>
+        <v/>
+      </c>
+      <c r="M8" s="40" t="str">
+        <f>IF(AND(B8=0,E8=0)," ",Notenliste!S6)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N8" s="42" t="str">
-        <f>IF(Notenliste!Z6=0," ",UPPER(Notenliste!Z6))</f>
+        <f>IF(AND(B8=0,E8=0)," ",IF(Notenliste!Z6=0," ",UPPER(Notenliste!Z6)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6527,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="40" t="str">
-        <f>IF(Notenliste!X7=0," ",UPPER(Notenliste!X7))</f>
+        <f>IF(AND(B9=0,E9=0)," ",IF(Notenliste!X7=0," ",UPPER(Notenliste!X7)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K9" s="40" t="str">
@@ -6535,15 +6539,15 @@
         <v/>
       </c>
       <c r="L9" s="40" t="str">
-        <f>IF(OR(Notenliste!W7="x", Notenliste!W7="X"), "bestanden",IF(Notenliste!T7="KP"," ",Notenliste!T7))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M9" s="40">
-        <f>Notenliste!S7</f>
-        <v>0</v>
+        <f>IF(AND(B9=0,E9=0),"",IF(Notenliste!T7="KP"," ",IF(OR(Notenliste!W7="x", Notenliste!W7="X"), "bestanden",Notenliste!T7)))</f>
+        <v/>
+      </c>
+      <c r="M9" s="40" t="str">
+        <f>IF(AND(B9=0,E9=0)," ",Notenliste!S7)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N9" s="42" t="str">
-        <f>IF(Notenliste!Z7=0," ",UPPER(Notenliste!Z7))</f>
+        <f>IF(AND(B9=0,E9=0)," ",IF(Notenliste!Z7=0," ",UPPER(Notenliste!Z7)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6584,23 +6588,23 @@
         <v>0</v>
       </c>
       <c r="J10" s="40" t="str">
-        <f>IF(Notenliste!X8=0," ",UPPER(Notenliste!X8))</f>
+        <f>IF(AND(B10=0,E10=0)," ",IF(Notenliste!X8=0," ",UPPER(Notenliste!X8)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K10" s="40" t="str">
-        <f t="shared" ref="K10:K38" si="1">IF(L10&lt;=4,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L10" s="40" t="str">
-        <f>IF(OR(Notenliste!W8="x", Notenliste!W8="X"), "bestanden",IF(Notenliste!T8="KP"," ",Notenliste!T8))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M10" s="40">
-        <f>Notenliste!S8</f>
-        <v>0</v>
+        <f>IF(AND(B10=0,E10=0),"",IF(Notenliste!T8="KP"," ",IF(OR(Notenliste!W8="x", Notenliste!W8="X"), "bestanden",Notenliste!T8)))</f>
+        <v/>
+      </c>
+      <c r="M10" s="40" t="str">
+        <f>IF(AND(B10=0,E10=0)," ",Notenliste!S8)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N10" s="42" t="str">
-        <f>IF(Notenliste!Z8=0," ",UPPER(Notenliste!Z8))</f>
+        <f>IF(AND(B10=0,E10=0)," ",IF(Notenliste!Z8=0," ",UPPER(Notenliste!Z8)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6641,23 +6645,23 @@
         <v>0</v>
       </c>
       <c r="J11" s="40" t="str">
-        <f>IF(Notenliste!X9=0," ",UPPER(Notenliste!X9))</f>
+        <f>IF(AND(B11=0,E11=0)," ",IF(Notenliste!X9=0," ",UPPER(Notenliste!X9)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K11" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L11" s="40" t="str">
-        <f>IF(OR(Notenliste!W9="x", Notenliste!W9="X"), "bestanden",IF(Notenliste!T9="KP"," ",Notenliste!T9))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M11" s="40">
-        <f>Notenliste!S9</f>
-        <v>0</v>
+        <f>IF(AND(B11=0,E11=0),"",IF(Notenliste!T9="KP"," ",IF(OR(Notenliste!W9="x", Notenliste!W9="X"), "bestanden",Notenliste!T9)))</f>
+        <v/>
+      </c>
+      <c r="M11" s="40" t="str">
+        <f>IF(AND(B11=0,E11=0)," ",Notenliste!S9)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N11" s="42" t="str">
-        <f>IF(Notenliste!Z9=0," ",UPPER(Notenliste!Z9))</f>
+        <f>IF(AND(B11=0,E11=0)," ",IF(Notenliste!Z9=0," ",UPPER(Notenliste!Z9)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6698,23 +6702,23 @@
         <v>0</v>
       </c>
       <c r="J12" s="40" t="str">
-        <f>IF(Notenliste!X10=0," ",UPPER(Notenliste!X10))</f>
+        <f>IF(AND(B12=0,E12=0)," ",IF(Notenliste!X10=0," ",UPPER(Notenliste!X10)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K12" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L12" s="40" t="str">
-        <f>IF(OR(Notenliste!W10="x", Notenliste!W10="X"), "bestanden",IF(Notenliste!T10="KP"," ",Notenliste!T10))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M12" s="40">
-        <f>Notenliste!S10</f>
-        <v>0</v>
+        <f>IF(AND(B12=0,E12=0),"",IF(Notenliste!T10="KP"," ",IF(OR(Notenliste!W10="x", Notenliste!W10="X"), "bestanden",Notenliste!T10)))</f>
+        <v/>
+      </c>
+      <c r="M12" s="40" t="str">
+        <f>IF(AND(B12=0,E12=0)," ",Notenliste!S10)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N12" s="42" t="str">
-        <f>IF(Notenliste!Z10=0," ",UPPER(Notenliste!Z10))</f>
+        <f>IF(AND(B12=0,E12=0)," ",IF(Notenliste!Z10=0," ",UPPER(Notenliste!Z10)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6755,23 +6759,23 @@
         <v>0</v>
       </c>
       <c r="J13" s="40" t="str">
-        <f>IF(Notenliste!X11=0," ",UPPER(Notenliste!X11))</f>
+        <f>IF(AND(B13=0,E13=0)," ",IF(Notenliste!X11=0," ",UPPER(Notenliste!X11)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K13" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L13" s="40" t="str">
-        <f>IF(OR(Notenliste!W11="x", Notenliste!W11="X"), "bestanden",IF(Notenliste!T11="KP"," ",Notenliste!T11))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M13" s="40">
-        <f>Notenliste!S11</f>
-        <v>0</v>
+        <f>IF(AND(B13=0,E13=0),"",IF(Notenliste!T11="KP"," ",IF(OR(Notenliste!W11="x", Notenliste!W11="X"), "bestanden",Notenliste!T11)))</f>
+        <v/>
+      </c>
+      <c r="M13" s="40" t="str">
+        <f>IF(AND(B13=0,E13=0)," ",Notenliste!S11)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N13" s="42" t="str">
-        <f>IF(Notenliste!Z11=0," ",UPPER(Notenliste!Z11))</f>
+        <f>IF(AND(B13=0,E13=0)," ",IF(Notenliste!Z11=0," ",UPPER(Notenliste!Z11)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6812,23 +6816,23 @@
         <v>0</v>
       </c>
       <c r="J14" s="40" t="str">
-        <f>IF(Notenliste!X12=0," ",UPPER(Notenliste!X12))</f>
+        <f>IF(AND(B14=0,E14=0)," ",IF(Notenliste!X12=0," ",UPPER(Notenliste!X12)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K14" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L14" s="40" t="str">
-        <f>IF(OR(Notenliste!W12="x", Notenliste!W12="X"), "bestanden",IF(Notenliste!T12="KP"," ",Notenliste!T12))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M14" s="40">
-        <f>Notenliste!S12</f>
-        <v>0</v>
+        <f>IF(AND(B14=0,E14=0),"",IF(Notenliste!T12="KP"," ",IF(OR(Notenliste!W12="x", Notenliste!W12="X"), "bestanden",Notenliste!T12)))</f>
+        <v/>
+      </c>
+      <c r="M14" s="40" t="str">
+        <f>IF(AND(B14=0,E14=0)," ",Notenliste!S12)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N14" s="42" t="str">
-        <f>IF(Notenliste!Z12=0," ",UPPER(Notenliste!Z12))</f>
+        <f>IF(AND(B14=0,E14=0)," ",IF(Notenliste!Z12=0," ",UPPER(Notenliste!Z12)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6869,23 +6873,23 @@
         <v>0</v>
       </c>
       <c r="J15" s="40" t="str">
-        <f>IF(Notenliste!X13=0," ",UPPER(Notenliste!X13))</f>
+        <f>IF(AND(B15=0,E15=0)," ",IF(Notenliste!X13=0," ",UPPER(Notenliste!X13)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K15" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L15" s="40" t="str">
-        <f>IF(OR(Notenliste!W13="x", Notenliste!W13="X"), "bestanden",IF(Notenliste!T13="KP"," ",Notenliste!T13))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M15" s="40">
-        <f>Notenliste!S13</f>
-        <v>0</v>
+        <f>IF(AND(B15=0,E15=0),"",IF(Notenliste!T13="KP"," ",IF(OR(Notenliste!W13="x", Notenliste!W13="X"), "bestanden",Notenliste!T13)))</f>
+        <v/>
+      </c>
+      <c r="M15" s="40" t="str">
+        <f>IF(AND(B15=0,E15=0)," ",Notenliste!S13)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N15" s="42" t="str">
-        <f>IF(Notenliste!Z13=0," ",UPPER(Notenliste!Z13))</f>
+        <f>IF(AND(B15=0,E15=0)," ",IF(Notenliste!Z13=0," ",UPPER(Notenliste!Z13)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6926,23 +6930,23 @@
         <v>0</v>
       </c>
       <c r="J16" s="40" t="str">
-        <f>IF(Notenliste!X14=0," ",UPPER(Notenliste!X14))</f>
+        <f>IF(AND(B16=0,E16=0)," ",IF(Notenliste!X14=0," ",UPPER(Notenliste!X14)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K16" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L16" s="40" t="str">
-        <f>IF(OR(Notenliste!W14="x", Notenliste!W14="X"), "bestanden",IF(Notenliste!T14="KP"," ",Notenliste!T14))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M16" s="40">
-        <f>Notenliste!S14</f>
-        <v>0</v>
+        <f>IF(AND(B16=0,E16=0),"",IF(Notenliste!T14="KP"," ",IF(OR(Notenliste!W14="x", Notenliste!W14="X"), "bestanden",Notenliste!T14)))</f>
+        <v/>
+      </c>
+      <c r="M16" s="40" t="str">
+        <f>IF(AND(B16=0,E16=0)," ",Notenliste!S14)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N16" s="42" t="str">
-        <f>IF(Notenliste!Z14=0," ",UPPER(Notenliste!Z14))</f>
+        <f>IF(AND(B16=0,E16=0)," ",IF(Notenliste!Z14=0," ",UPPER(Notenliste!Z14)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6983,23 +6987,23 @@
         <v>0</v>
       </c>
       <c r="J17" s="40" t="str">
-        <f>IF(Notenliste!X15=0," ",UPPER(Notenliste!X15))</f>
+        <f>IF(AND(B17=0,E17=0)," ",IF(Notenliste!X15=0," ",UPPER(Notenliste!X15)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K17" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L17" s="40" t="str">
-        <f>IF(OR(Notenliste!W15="x", Notenliste!W15="X"), "bestanden",IF(Notenliste!T15="KP"," ",Notenliste!T15))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M17" s="40">
-        <f>Notenliste!S15</f>
-        <v>0</v>
+        <f>IF(AND(B17=0,E17=0),"",IF(Notenliste!T15="KP"," ",IF(OR(Notenliste!W15="x", Notenliste!W15="X"), "bestanden",Notenliste!T15)))</f>
+        <v/>
+      </c>
+      <c r="M17" s="40" t="str">
+        <f>IF(AND(B17=0,E17=0)," ",Notenliste!S15)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N17" s="42" t="str">
-        <f>IF(Notenliste!Z15=0," ",UPPER(Notenliste!Z15))</f>
+        <f>IF(AND(B17=0,E17=0)," ",IF(Notenliste!Z15=0," ",UPPER(Notenliste!Z15)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7040,23 +7044,23 @@
         <v>0</v>
       </c>
       <c r="J18" s="40" t="str">
-        <f>IF(Notenliste!X16=0," ",UPPER(Notenliste!X16))</f>
+        <f>IF(AND(B18=0,E18=0)," ",IF(Notenliste!X16=0," ",UPPER(Notenliste!X16)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K18" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L18" s="40" t="str">
-        <f>IF(OR(Notenliste!W16="x", Notenliste!W16="X"), "bestanden",IF(Notenliste!T16="KP"," ",Notenliste!T16))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M18" s="40">
-        <f>Notenliste!S16</f>
-        <v>0</v>
+        <f>IF(AND(B18=0,E18=0),"",IF(Notenliste!T16="KP"," ",IF(OR(Notenliste!W16="x", Notenliste!W16="X"), "bestanden",Notenliste!T16)))</f>
+        <v/>
+      </c>
+      <c r="M18" s="40" t="str">
+        <f>IF(AND(B18=0,E18=0)," ",Notenliste!S16)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N18" s="42" t="str">
-        <f>IF(Notenliste!Z16=0," ",UPPER(Notenliste!Z16))</f>
+        <f>IF(AND(B18=0,E18=0)," ",IF(Notenliste!Z16=0," ",UPPER(Notenliste!Z16)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7097,23 +7101,23 @@
         <v>0</v>
       </c>
       <c r="J19" s="40" t="str">
-        <f>IF(Notenliste!X17=0," ",UPPER(Notenliste!X17))</f>
+        <f>IF(AND(B19=0,E19=0)," ",IF(Notenliste!X17=0," ",UPPER(Notenliste!X17)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K19" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L19" s="40" t="str">
-        <f>IF(OR(Notenliste!W17="x", Notenliste!W17="X"), "bestanden",IF(Notenliste!T17="KP"," ",Notenliste!T17))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M19" s="40">
-        <f>Notenliste!S17</f>
-        <v>0</v>
+        <f>IF(AND(B19=0,E19=0),"",IF(Notenliste!T17="KP"," ",IF(OR(Notenliste!W17="x", Notenliste!W17="X"), "bestanden",Notenliste!T17)))</f>
+        <v/>
+      </c>
+      <c r="M19" s="40" t="str">
+        <f>IF(AND(B19=0,E19=0)," ",Notenliste!S17)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N19" s="42" t="str">
-        <f>IF(Notenliste!Z17=0," ",UPPER(Notenliste!Z17))</f>
+        <f>IF(AND(B19=0,E19=0)," ",IF(Notenliste!Z17=0," ",UPPER(Notenliste!Z17)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7154,23 +7158,23 @@
         <v>0</v>
       </c>
       <c r="J20" s="40" t="str">
-        <f>IF(Notenliste!X18=0," ",UPPER(Notenliste!X18))</f>
+        <f>IF(AND(B20=0,E20=0)," ",IF(Notenliste!X18=0," ",UPPER(Notenliste!X18)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K20" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L20" s="40" t="str">
-        <f>IF(OR(Notenliste!W18="x", Notenliste!W18="X"), "bestanden",IF(Notenliste!T18="KP"," ",Notenliste!T18))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M20" s="40">
-        <f>Notenliste!S18</f>
-        <v>0</v>
+        <f>IF(AND(B20=0,E20=0),"",IF(Notenliste!T18="KP"," ",IF(OR(Notenliste!W18="x", Notenliste!W18="X"), "bestanden",Notenliste!T18)))</f>
+        <v/>
+      </c>
+      <c r="M20" s="40" t="str">
+        <f>IF(AND(B20=0,E20=0)," ",Notenliste!S18)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N20" s="42" t="str">
-        <f>IF(Notenliste!Z18=0," ",UPPER(Notenliste!Z18))</f>
+        <f>IF(AND(B20=0,E20=0)," ",IF(Notenliste!Z18=0," ",UPPER(Notenliste!Z18)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7211,23 +7215,23 @@
         <v>0</v>
       </c>
       <c r="J21" s="40" t="str">
-        <f>IF(Notenliste!X19=0," ",UPPER(Notenliste!X19))</f>
+        <f>IF(AND(B21=0,E21=0)," ",IF(Notenliste!X19=0," ",UPPER(Notenliste!X19)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L21" s="40" t="str">
-        <f>IF(OR(Notenliste!W19="x", Notenliste!W19="X"), "bestanden",IF(Notenliste!T19="KP"," ",Notenliste!T19))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M21" s="40">
-        <f>Notenliste!S19</f>
-        <v>0</v>
+        <f>IF(AND(B21=0,E21=0),"",IF(Notenliste!T19="KP"," ",IF(OR(Notenliste!W19="x", Notenliste!W19="X"), "bestanden",Notenliste!T19)))</f>
+        <v/>
+      </c>
+      <c r="M21" s="40" t="str">
+        <f>IF(AND(B21=0,E21=0)," ",Notenliste!S19)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N21" s="42" t="str">
-        <f>IF(Notenliste!Z19=0," ",UPPER(Notenliste!Z19))</f>
+        <f>IF(AND(B21=0,E21=0)," ",IF(Notenliste!Z19=0," ",UPPER(Notenliste!Z19)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7268,23 +7272,23 @@
         <v>0</v>
       </c>
       <c r="J22" s="40" t="str">
-        <f>IF(Notenliste!X20=0," ",UPPER(Notenliste!X20))</f>
+        <f>IF(AND(B22=0,E22=0)," ",IF(Notenliste!X20=0," ",UPPER(Notenliste!X20)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K22" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L22" s="40" t="str">
-        <f>IF(OR(Notenliste!W20="x", Notenliste!W20="X"), "bestanden",IF(Notenliste!T20="KP"," ",Notenliste!T20))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M22" s="40">
-        <f>Notenliste!S20</f>
-        <v>0</v>
+        <f>IF(AND(B22=0,E22=0),"",IF(Notenliste!T20="KP"," ",IF(OR(Notenliste!W20="x", Notenliste!W20="X"), "bestanden",Notenliste!T20)))</f>
+        <v/>
+      </c>
+      <c r="M22" s="40" t="str">
+        <f>IF(AND(B22=0,E22=0)," ",Notenliste!S20)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N22" s="42" t="str">
-        <f>IF(Notenliste!Z20=0," ",UPPER(Notenliste!Z20))</f>
+        <f>IF(AND(B22=0,E22=0)," ",IF(Notenliste!Z20=0," ",UPPER(Notenliste!Z20)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7325,23 +7329,23 @@
         <v>0</v>
       </c>
       <c r="J23" s="40" t="str">
-        <f>IF(Notenliste!X21=0," ",UPPER(Notenliste!X21))</f>
+        <f>IF(AND(B23=0,E23=0)," ",IF(Notenliste!X21=0," ",UPPER(Notenliste!X21)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K23" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L23" s="40" t="str">
-        <f>IF(OR(Notenliste!W21="x", Notenliste!W21="X"), "bestanden",IF(Notenliste!T21="KP"," ",Notenliste!T21))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M23" s="40">
-        <f>Notenliste!S21</f>
-        <v>0</v>
+        <f>IF(AND(B23=0,E23=0),"",IF(Notenliste!T21="KP"," ",IF(OR(Notenliste!W21="x", Notenliste!W21="X"), "bestanden",Notenliste!T21)))</f>
+        <v/>
+      </c>
+      <c r="M23" s="40" t="str">
+        <f>IF(AND(B23=0,E23=0)," ",Notenliste!S21)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N23" s="42" t="str">
-        <f>IF(Notenliste!Z21=0," ",UPPER(Notenliste!Z21))</f>
+        <f>IF(AND(B23=0,E23=0)," ",IF(Notenliste!Z21=0," ",UPPER(Notenliste!Z21)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7382,23 +7386,23 @@
         <v>0</v>
       </c>
       <c r="J24" s="40" t="str">
-        <f>IF(Notenliste!X22=0," ",UPPER(Notenliste!X22))</f>
+        <f>IF(AND(B24=0,E24=0)," ",IF(Notenliste!X22=0," ",UPPER(Notenliste!X22)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K24" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L24" s="40" t="str">
-        <f>IF(OR(Notenliste!W22="x", Notenliste!W22="X"), "bestanden",IF(Notenliste!T22="KP"," ",Notenliste!T22))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M24" s="40">
-        <f>Notenliste!S22</f>
-        <v>0</v>
+        <f>IF(AND(B24=0,E24=0),"",IF(Notenliste!T22="KP"," ",IF(OR(Notenliste!W22="x", Notenliste!W22="X"), "bestanden",Notenliste!T22)))</f>
+        <v/>
+      </c>
+      <c r="M24" s="40" t="str">
+        <f>IF(AND(B24=0,E24=0)," ",Notenliste!S22)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N24" s="42" t="str">
-        <f>IF(Notenliste!Z22=0," ",UPPER(Notenliste!Z22))</f>
+        <f>IF(AND(B24=0,E24=0)," ",IF(Notenliste!Z22=0," ",UPPER(Notenliste!Z22)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7439,23 +7443,23 @@
         <v>0</v>
       </c>
       <c r="J25" s="40" t="str">
-        <f>IF(Notenliste!X23=0," ",UPPER(Notenliste!X23))</f>
+        <f>IF(AND(B25=0,E25=0)," ",IF(Notenliste!X23=0," ",UPPER(Notenliste!X23)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K25" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L25" s="40" t="str">
-        <f>IF(OR(Notenliste!W23="x", Notenliste!W23="X"), "bestanden",IF(Notenliste!T23="KP"," ",Notenliste!T23))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M25" s="40">
-        <f>Notenliste!S23</f>
-        <v>0</v>
+        <f>IF(AND(B25=0,E25=0),"",IF(Notenliste!T23="KP"," ",IF(OR(Notenliste!W23="x", Notenliste!W23="X"), "bestanden",Notenliste!T23)))</f>
+        <v/>
+      </c>
+      <c r="M25" s="40" t="str">
+        <f>IF(AND(B25=0,E25=0)," ",Notenliste!S23)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N25" s="42" t="str">
-        <f>IF(Notenliste!Z23=0," ",UPPER(Notenliste!Z23))</f>
+        <f>IF(AND(B25=0,E25=0)," ",IF(Notenliste!Z23=0," ",UPPER(Notenliste!Z23)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7496,23 +7500,23 @@
         <v>0</v>
       </c>
       <c r="J26" s="40" t="str">
-        <f>IF(Notenliste!X24=0," ",UPPER(Notenliste!X24))</f>
+        <f>IF(AND(B26=0,E26=0)," ",IF(Notenliste!X24=0," ",UPPER(Notenliste!X24)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K26" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L26" s="40" t="str">
-        <f>IF(OR(Notenliste!W24="x", Notenliste!W24="X"), "bestanden",IF(Notenliste!T24="KP"," ",Notenliste!T24))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M26" s="40">
-        <f>Notenliste!S24</f>
-        <v>0</v>
+        <f>IF(AND(B26=0,E26=0),"",IF(Notenliste!T24="KP"," ",IF(OR(Notenliste!W24="x", Notenliste!W24="X"), "bestanden",Notenliste!T24)))</f>
+        <v/>
+      </c>
+      <c r="M26" s="40" t="str">
+        <f>IF(AND(B26=0,E26=0)," ",Notenliste!S24)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N26" s="42" t="str">
-        <f>IF(Notenliste!Z24=0," ",UPPER(Notenliste!Z24))</f>
+        <f>IF(AND(B26=0,E26=0)," ",IF(Notenliste!Z24=0," ",UPPER(Notenliste!Z24)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7553,23 +7557,23 @@
         <v>0</v>
       </c>
       <c r="J27" s="40" t="str">
-        <f>IF(Notenliste!X25=0," ",UPPER(Notenliste!X25))</f>
+        <f>IF(AND(B27=0,E27=0)," ",IF(Notenliste!X25=0," ",UPPER(Notenliste!X25)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K27" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L27" s="40" t="str">
-        <f>IF(OR(Notenliste!W25="x", Notenliste!W25="X"), "bestanden",IF(Notenliste!T25="KP"," ",Notenliste!T25))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M27" s="40">
-        <f>Notenliste!S25</f>
-        <v>0</v>
+        <f>IF(AND(B27=0,E27=0),"",IF(Notenliste!T25="KP"," ",IF(OR(Notenliste!W25="x", Notenliste!W25="X"), "bestanden",Notenliste!T25)))</f>
+        <v/>
+      </c>
+      <c r="M27" s="40" t="str">
+        <f>IF(AND(B27=0,E27=0)," ",Notenliste!S25)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N27" s="42" t="str">
-        <f>IF(Notenliste!Z25=0," ",UPPER(Notenliste!Z25))</f>
+        <f>IF(AND(B27=0,E27=0)," ",IF(Notenliste!Z25=0," ",UPPER(Notenliste!Z25)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7610,23 +7614,23 @@
         <v>0</v>
       </c>
       <c r="J28" s="40" t="str">
-        <f>IF(Notenliste!X26=0," ",UPPER(Notenliste!X26))</f>
+        <f>IF(AND(B28=0,E28=0)," ",IF(Notenliste!X26=0," ",UPPER(Notenliste!X26)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K28" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L28" s="40" t="str">
-        <f>IF(OR(Notenliste!W26="x", Notenliste!W26="X"), "bestanden",IF(Notenliste!T26="KP"," ",Notenliste!T26))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M28" s="40">
-        <f>Notenliste!S26</f>
-        <v>0</v>
+        <f>IF(AND(B28=0,E28=0),"",IF(Notenliste!T26="KP"," ",IF(OR(Notenliste!W26="x", Notenliste!W26="X"), "bestanden",Notenliste!T26)))</f>
+        <v/>
+      </c>
+      <c r="M28" s="40" t="str">
+        <f>IF(AND(B28=0,E28=0)," ",Notenliste!S26)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N28" s="42" t="str">
-        <f>IF(Notenliste!Z26=0," ",UPPER(Notenliste!Z26))</f>
+        <f>IF(AND(B28=0,E28=0)," ",IF(Notenliste!Z26=0," ",UPPER(Notenliste!Z26)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7667,23 +7671,23 @@
         <v>0</v>
       </c>
       <c r="J29" s="40" t="str">
-        <f>IF(Notenliste!X27=0," ",UPPER(Notenliste!X27))</f>
+        <f>IF(AND(B29=0,E29=0)," ",IF(Notenliste!X27=0," ",UPPER(Notenliste!X27)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K29" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L29" s="40" t="str">
-        <f>IF(OR(Notenliste!W27="x", Notenliste!W27="X"), "bestanden",IF(Notenliste!T27="KP"," ",Notenliste!T27))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M29" s="40">
-        <f>Notenliste!S27</f>
-        <v>0</v>
+        <f>IF(AND(B29=0,E29=0),"",IF(Notenliste!T27="KP"," ",IF(OR(Notenliste!W27="x", Notenliste!W27="X"), "bestanden",Notenliste!T27)))</f>
+        <v/>
+      </c>
+      <c r="M29" s="40" t="str">
+        <f>IF(AND(B29=0,E29=0)," ",Notenliste!S27)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N29" s="42" t="str">
-        <f>IF(Notenliste!Z27=0," ",UPPER(Notenliste!Z27))</f>
+        <f>IF(AND(B29=0,E29=0)," ",IF(Notenliste!Z27=0," ",UPPER(Notenliste!Z27)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7724,23 +7728,23 @@
         <v>0</v>
       </c>
       <c r="J30" s="40" t="str">
-        <f>IF(Notenliste!X28=0," ",UPPER(Notenliste!X28))</f>
+        <f>IF(AND(B30=0,E30=0)," ",IF(Notenliste!X28=0," ",UPPER(Notenliste!X28)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K30" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L30" s="40" t="str">
-        <f>IF(OR(Notenliste!W28="x", Notenliste!W28="X"), "bestanden",IF(Notenliste!T28="KP"," ",Notenliste!T28))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M30" s="40">
-        <f>Notenliste!S28</f>
-        <v>0</v>
+        <f>IF(AND(B30=0,E30=0),"",IF(Notenliste!T28="KP"," ",IF(OR(Notenliste!W28="x", Notenliste!W28="X"), "bestanden",Notenliste!T28)))</f>
+        <v/>
+      </c>
+      <c r="M30" s="40" t="str">
+        <f>IF(AND(B30=0,E30=0)," ",Notenliste!S28)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N30" s="42" t="str">
-        <f>IF(Notenliste!Z28=0," ",UPPER(Notenliste!Z28))</f>
+        <f>IF(AND(B30=0,E30=0)," ",IF(Notenliste!Z28=0," ",UPPER(Notenliste!Z28)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7781,23 +7785,23 @@
         <v>0</v>
       </c>
       <c r="J31" s="40" t="str">
-        <f>IF(Notenliste!X29=0," ",UPPER(Notenliste!X29))</f>
+        <f>IF(AND(B31=0,E31=0)," ",IF(Notenliste!X29=0," ",UPPER(Notenliste!X29)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K31" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L31" s="40" t="str">
-        <f>IF(OR(Notenliste!W29="x", Notenliste!W29="X"), "bestanden",IF(Notenliste!T29="KP"," ",Notenliste!T29))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M31" s="40">
-        <f>Notenliste!S29</f>
-        <v>0</v>
+        <f>IF(AND(B31=0,E31=0),"",IF(Notenliste!T29="KP"," ",IF(OR(Notenliste!W29="x", Notenliste!W29="X"), "bestanden",Notenliste!T29)))</f>
+        <v/>
+      </c>
+      <c r="M31" s="40" t="str">
+        <f>IF(AND(B31=0,E31=0)," ",Notenliste!S29)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N31" s="42" t="str">
-        <f>IF(Notenliste!Z29=0," ",UPPER(Notenliste!Z29))</f>
+        <f>IF(AND(B31=0,E31=0)," ",IF(Notenliste!Z29=0," ",UPPER(Notenliste!Z29)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7838,23 +7842,23 @@
         <v>0</v>
       </c>
       <c r="J32" s="40" t="str">
-        <f>IF(Notenliste!X30=0," ",UPPER(Notenliste!X30))</f>
+        <f>IF(AND(B32=0,E32=0)," ",IF(Notenliste!X30=0," ",UPPER(Notenliste!X30)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K32" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L32" s="40" t="str">
-        <f>IF(OR(Notenliste!W30="x", Notenliste!W30="X"), "bestanden",IF(Notenliste!T30="KP"," ",Notenliste!T30))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M32" s="40">
-        <f>Notenliste!S30</f>
-        <v>0</v>
+        <f>IF(AND(B32=0,E32=0),"",IF(Notenliste!T30="KP"," ",IF(OR(Notenliste!W30="x", Notenliste!W30="X"), "bestanden",Notenliste!T30)))</f>
+        <v/>
+      </c>
+      <c r="M32" s="40" t="str">
+        <f>IF(AND(B32=0,E32=0)," ",Notenliste!S30)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N32" s="42" t="str">
-        <f>IF(Notenliste!Z30=0," ",UPPER(Notenliste!Z30))</f>
+        <f>IF(AND(B32=0,E32=0)," ",IF(Notenliste!Z30=0," ",UPPER(Notenliste!Z30)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7895,23 +7899,23 @@
         <v>0</v>
       </c>
       <c r="J33" s="40" t="str">
-        <f>IF(Notenliste!X31=0," ",UPPER(Notenliste!X31))</f>
+        <f>IF(AND(B33=0,E33=0)," ",IF(Notenliste!X31=0," ",UPPER(Notenliste!X31)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K33" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L33" s="40" t="str">
-        <f>IF(OR(Notenliste!W31="x", Notenliste!W31="X"), "bestanden",IF(Notenliste!T31="KP"," ",Notenliste!T31))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M33" s="40">
-        <f>Notenliste!S31</f>
-        <v>0</v>
+        <f>IF(AND(B33=0,E33=0),"",IF(Notenliste!T31="KP"," ",IF(OR(Notenliste!W31="x", Notenliste!W31="X"), "bestanden",Notenliste!T31)))</f>
+        <v/>
+      </c>
+      <c r="M33" s="40" t="str">
+        <f>IF(AND(B33=0,E33=0)," ",Notenliste!S31)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N33" s="42" t="str">
-        <f>IF(Notenliste!Z31=0," ",UPPER(Notenliste!Z31))</f>
+        <f>IF(AND(B33=0,E33=0)," ",IF(Notenliste!Z31=0," ",UPPER(Notenliste!Z31)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -7952,23 +7956,23 @@
         <v>0</v>
       </c>
       <c r="J34" s="40" t="str">
-        <f>IF(Notenliste!X32=0," ",UPPER(Notenliste!X32))</f>
+        <f>IF(AND(B34=0,E34=0)," ",IF(Notenliste!X32=0," ",UPPER(Notenliste!X32)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K34" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L34" s="40" t="str">
-        <f>IF(OR(Notenliste!W32="x", Notenliste!W32="X"), "bestanden",IF(Notenliste!T32="KP"," ",Notenliste!T32))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M34" s="40">
-        <f>Notenliste!S32</f>
-        <v>0</v>
+        <f>IF(AND(B34=0,E34=0),"",IF(Notenliste!T32="KP"," ",IF(OR(Notenliste!W32="x", Notenliste!W32="X"), "bestanden",Notenliste!T32)))</f>
+        <v/>
+      </c>
+      <c r="M34" s="40" t="str">
+        <f>IF(AND(B34=0,E34=0)," ",Notenliste!S32)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N34" s="42" t="str">
-        <f>IF(Notenliste!Z32=0," ",UPPER(Notenliste!Z32))</f>
+        <f>IF(AND(B34=0,E34=0)," ",IF(Notenliste!Z32=0," ",UPPER(Notenliste!Z32)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8009,23 +8013,23 @@
         <v>0</v>
       </c>
       <c r="J35" s="40" t="str">
-        <f>IF(Notenliste!X33=0," ",UPPER(Notenliste!X33))</f>
+        <f>IF(AND(B35=0,E35=0)," ",IF(Notenliste!X33=0," ",UPPER(Notenliste!X33)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K35" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L35" s="40" t="str">
-        <f>IF(OR(Notenliste!W33="x", Notenliste!W33="X"), "bestanden",IF(Notenliste!T33="KP"," ",Notenliste!T33))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M35" s="40">
-        <f>Notenliste!S33</f>
-        <v>0</v>
+        <f>IF(AND(B35=0,E35=0),"",IF(Notenliste!T33="KP"," ",IF(OR(Notenliste!W33="x", Notenliste!W33="X"), "bestanden",Notenliste!T33)))</f>
+        <v/>
+      </c>
+      <c r="M35" s="40" t="str">
+        <f>IF(AND(B35=0,E35=0)," ",Notenliste!S33)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N35" s="42" t="str">
-        <f>IF(Notenliste!Z33=0," ",UPPER(Notenliste!Z33))</f>
+        <f>IF(AND(B35=0,E35=0)," ",IF(Notenliste!Z33=0," ",UPPER(Notenliste!Z33)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8066,23 +8070,23 @@
         <v>0</v>
       </c>
       <c r="J36" s="40" t="str">
-        <f>IF(Notenliste!X34=0," ",UPPER(Notenliste!X34))</f>
+        <f>IF(AND(B36=0,E36=0)," ",IF(Notenliste!X34=0," ",UPPER(Notenliste!X34)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K36" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L36" s="40" t="str">
-        <f>IF(OR(Notenliste!W34="x", Notenliste!W34="X"), "bestanden",IF(Notenliste!T34="KP"," ",Notenliste!T34))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M36" s="40">
-        <f>Notenliste!S34</f>
-        <v>0</v>
+        <f>IF(AND(B36=0,E36=0),"",IF(Notenliste!T34="KP"," ",IF(OR(Notenliste!W34="x", Notenliste!W34="X"), "bestanden",Notenliste!T34)))</f>
+        <v/>
+      </c>
+      <c r="M36" s="40" t="str">
+        <f>IF(AND(B36=0,E36=0)," ",Notenliste!S34)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N36" s="42" t="str">
-        <f>IF(Notenliste!Z34=0," ",UPPER(Notenliste!Z34))</f>
+        <f>IF(AND(B36=0,E36=0)," ",IF(Notenliste!Z34=0," ",UPPER(Notenliste!Z34)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8123,23 +8127,23 @@
         <v>0</v>
       </c>
       <c r="J37" s="40" t="str">
-        <f>IF(Notenliste!X35=0," ",UPPER(Notenliste!X35))</f>
+        <f>IF(AND(B37=0,E37=0)," ",IF(Notenliste!X35=0," ",UPPER(Notenliste!X35)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K37" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L37" s="40" t="str">
-        <f>IF(OR(Notenliste!W35="x", Notenliste!W35="X"), "bestanden",IF(Notenliste!T35="KP"," ",Notenliste!T35))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M37" s="40">
-        <f>Notenliste!S35</f>
-        <v>0</v>
+        <f>IF(AND(B37=0,E37=0),"",IF(Notenliste!T35="KP"," ",IF(OR(Notenliste!W35="x", Notenliste!W35="X"), "bestanden",Notenliste!T35)))</f>
+        <v/>
+      </c>
+      <c r="M37" s="40" t="str">
+        <f>IF(AND(B37=0,E37=0)," ",Notenliste!S35)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N37" s="42" t="str">
-        <f>IF(Notenliste!Z35=0," ",UPPER(Notenliste!Z35))</f>
+        <f>IF(AND(B37=0,E37=0)," ",IF(Notenliste!Z35=0," ",UPPER(Notenliste!Z35)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8180,23 +8184,23 @@
         <v>0</v>
       </c>
       <c r="J38" s="40" t="str">
-        <f>IF(Notenliste!X36=0," ",UPPER(Notenliste!X36))</f>
+        <f>IF(AND(B38=0,E38=0)," ",IF(Notenliste!X36=0," ",UPPER(Notenliste!X36)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K38" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L38" s="40" t="str">
-        <f>IF(OR(Notenliste!W36="x", Notenliste!W36="X"), "bestanden",IF(Notenliste!T36="KP"," ",Notenliste!T36))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M38" s="40">
-        <f>Notenliste!S36</f>
-        <v>0</v>
+        <f>IF(AND(B38=0,E38=0),"",IF(Notenliste!T36="KP"," ",IF(OR(Notenliste!W36="x", Notenliste!W36="X"), "bestanden",Notenliste!T36)))</f>
+        <v/>
+      </c>
+      <c r="M38" s="40" t="str">
+        <f>IF(AND(B38=0,E38=0)," ",Notenliste!S36)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N38" s="42" t="str">
-        <f>IF(Notenliste!Z36=0," ",UPPER(Notenliste!Z36))</f>
+        <f>IF(AND(B38=0,E38=0)," ",IF(Notenliste!Z36=0," ",UPPER(Notenliste!Z36)))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8223,86 +8227,86 @@
       <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
     </row>
     <row r="41" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
     </row>
     <row r="42" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="100"/>
-      <c r="N42" s="100"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
     </row>
     <row r="43" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="100"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="98"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="105"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="106"/>
       <c r="O44" s="35"/>
     </row>
   </sheetData>
@@ -8352,105 +8356,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="str">
+      <c r="A1" s="108" t="str">
         <f>Notenliste!B44&amp;Notenliste!B45</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="110"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="111"/>
     </row>
     <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="110"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="111"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="str">
+      <c r="A3" s="112" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B41</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="49"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="110"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="111"/>
     </row>
     <row r="4" spans="1:24" s="50" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="113" t="s">
+      <c r="A4" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="116" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="51"/>
@@ -8469,22 +8473,22 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="53"/>
-      <c r="V4" s="117" t="s">
+      <c r="V4" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="119" t="s">
+      <c r="W4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="119" t="s">
+      <c r="X4" s="120" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="50" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="116"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="54"/>
       <c r="G5" s="52">
         <v>1</v>
@@ -8529,9 +8533,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="55"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
@@ -9962,7 +9966,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10013,7 +10017,7 @@
         <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="63" t="e">
-        <f>IF(OR(Notenliste!W2="x", Notenliste!W2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",Notenliste!T2))))</f>
+        <f>IF(Notenliste!D2=0," ",IF(Notenliste!T2="KP"," ",IF(Notenliste!T2="NB","nicht bestanden",IF(OR(Notenliste!W2="x", Notenliste!W2="X"),"bestanden",Notenliste!T2))))</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="64" t="str">
@@ -10035,7 +10039,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="63" t="str">
-        <f>IF(OR(Notenliste!W3="x", Notenliste!W3="X"),"bestanden",IF(Notenliste!D3=0," ",IF(Notenliste!T3="KP"," ",IF(Notenliste!T3="NB","nicht bestanden",Notenliste!T3))))</f>
+        <f>IF(Notenliste!D3=0," ",IF(Notenliste!T3="KP"," ",IF(Notenliste!T3="NB","nicht bestanden",IF(OR(Notenliste!W3="x", Notenliste!W3="X"),"bestanden",Notenliste!T3))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="64" t="str">
@@ -10057,7 +10061,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="63" t="str">
-        <f>IF(OR(Notenliste!W4="x", Notenliste!W4="X"),"bestanden",IF(Notenliste!D4=0," ",IF(Notenliste!T4="KP"," ",IF(Notenliste!T4="NB","nicht bestanden",Notenliste!T4))))</f>
+        <f>IF(Notenliste!D4=0," ",IF(Notenliste!T4="KP"," ",IF(Notenliste!T4="NB","nicht bestanden",IF(OR(Notenliste!W4="x", Notenliste!W4="X"),"bestanden",Notenliste!T4))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="64" t="str">
@@ -10079,7 +10083,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="63" t="str">
-        <f>IF(OR(Notenliste!W5="x", Notenliste!W5="X"),"bestanden",IF(Notenliste!D5=0," ",IF(Notenliste!T5="KP"," ",IF(Notenliste!T5="NB","nicht bestanden",Notenliste!T5))))</f>
+        <f>IF(Notenliste!D5=0," ",IF(Notenliste!T5="KP"," ",IF(Notenliste!T5="NB","nicht bestanden",IF(OR(Notenliste!W5="x", Notenliste!W5="X"),"bestanden",Notenliste!T5))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="64" t="str">
@@ -10101,7 +10105,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="63" t="str">
-        <f>IF(OR(Notenliste!W6="x", Notenliste!W6="X"),"bestanden",IF(Notenliste!D6=0," ",IF(Notenliste!T6="KP"," ",IF(Notenliste!T6="NB","nicht bestanden",Notenliste!T6))))</f>
+        <f>IF(Notenliste!D6=0," ",IF(Notenliste!T6="KP"," ",IF(Notenliste!T6="NB","nicht bestanden",IF(OR(Notenliste!W6="x", Notenliste!W6="X"),"bestanden",Notenliste!T6))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="64" t="str">
@@ -10123,7 +10127,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="63" t="str">
-        <f>IF(OR(Notenliste!W7="x", Notenliste!W7="X"),"bestanden",IF(Notenliste!D7=0," ",IF(Notenliste!T7="KP"," ",IF(Notenliste!T7="NB","nicht bestanden",Notenliste!T7))))</f>
+        <f>IF(Notenliste!D7=0," ",IF(Notenliste!T7="KP"," ",IF(Notenliste!T7="NB","nicht bestanden",IF(OR(Notenliste!W7="x", Notenliste!W7="X"),"bestanden",Notenliste!T7))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="64" t="str">
@@ -10145,7 +10149,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="63" t="str">
-        <f>IF(OR(Notenliste!W8="x", Notenliste!W8="X"),"bestanden",IF(Notenliste!D8=0," ",IF(Notenliste!T8="KP"," ",IF(Notenliste!T8="NB","nicht bestanden",Notenliste!T8))))</f>
+        <f>IF(Notenliste!D8=0," ",IF(Notenliste!T8="KP"," ",IF(Notenliste!T8="NB","nicht bestanden",IF(OR(Notenliste!W8="x", Notenliste!W8="X"),"bestanden",Notenliste!T8))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="64" t="str">
@@ -10167,7 +10171,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="63" t="str">
-        <f>IF(OR(Notenliste!W9="x", Notenliste!W9="X"),"bestanden",IF(Notenliste!D9=0," ",IF(Notenliste!T9="KP"," ",IF(Notenliste!T9="NB","nicht bestanden",Notenliste!T9))))</f>
+        <f>IF(Notenliste!D9=0," ",IF(Notenliste!T9="KP"," ",IF(Notenliste!T9="NB","nicht bestanden",IF(OR(Notenliste!W9="x", Notenliste!W9="X"),"bestanden",Notenliste!T9))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="64" t="str">
@@ -10189,7 +10193,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="63" t="str">
-        <f>IF(OR(Notenliste!W10="x", Notenliste!W10="X"),"bestanden",IF(Notenliste!D10=0," ",IF(Notenliste!T10="KP"," ",IF(Notenliste!T10="NB","nicht bestanden",Notenliste!T10))))</f>
+        <f>IF(Notenliste!D10=0," ",IF(Notenliste!T10="KP"," ",IF(Notenliste!T10="NB","nicht bestanden",IF(OR(Notenliste!W10="x", Notenliste!W10="X"),"bestanden",Notenliste!T10))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="64" t="str">
@@ -10211,7 +10215,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="63" t="str">
-        <f>IF(OR(Notenliste!W11="x", Notenliste!W11="X"),"bestanden",IF(Notenliste!D11=0," ",IF(Notenliste!T11="KP"," ",IF(Notenliste!T11="NB","nicht bestanden",Notenliste!T11))))</f>
+        <f>IF(Notenliste!D11=0," ",IF(Notenliste!T11="KP"," ",IF(Notenliste!T11="NB","nicht bestanden",IF(OR(Notenliste!W11="x", Notenliste!W11="X"),"bestanden",Notenliste!T11))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="64" t="str">
@@ -10233,7 +10237,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="63" t="str">
-        <f>IF(OR(Notenliste!W12="x", Notenliste!W12="X"),"bestanden",IF(Notenliste!D12=0," ",IF(Notenliste!T12="KP"," ",IF(Notenliste!T12="NB","nicht bestanden",Notenliste!T12))))</f>
+        <f>IF(Notenliste!D12=0," ",IF(Notenliste!T12="KP"," ",IF(Notenliste!T12="NB","nicht bestanden",IF(OR(Notenliste!W12="x", Notenliste!W12="X"),"bestanden",Notenliste!T12))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="64" t="str">
@@ -10255,7 +10259,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="63" t="str">
-        <f>IF(OR(Notenliste!W13="x", Notenliste!W13="X"),"bestanden",IF(Notenliste!D13=0," ",IF(Notenliste!T13="KP"," ",IF(Notenliste!T13="NB","nicht bestanden",Notenliste!T13))))</f>
+        <f>IF(Notenliste!D13=0," ",IF(Notenliste!T13="KP"," ",IF(Notenliste!T13="NB","nicht bestanden",IF(OR(Notenliste!W13="x", Notenliste!W13="X"),"bestanden",Notenliste!T13))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="64" t="str">
@@ -10277,7 +10281,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="63" t="str">
-        <f>IF(OR(Notenliste!W14="x", Notenliste!W14="X"),"bestanden",IF(Notenliste!D14=0," ",IF(Notenliste!T14="KP"," ",IF(Notenliste!T14="NB","nicht bestanden",Notenliste!T14))))</f>
+        <f>IF(Notenliste!D14=0," ",IF(Notenliste!T14="KP"," ",IF(Notenliste!T14="NB","nicht bestanden",IF(OR(Notenliste!W14="x", Notenliste!W14="X"),"bestanden",Notenliste!T14))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="64" t="str">
@@ -10299,7 +10303,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="63" t="str">
-        <f>IF(OR(Notenliste!W15="x", Notenliste!W15="X"),"bestanden",IF(Notenliste!D15=0," ",IF(Notenliste!T15="KP"," ",IF(Notenliste!T15="NB","nicht bestanden",Notenliste!T15))))</f>
+        <f>IF(Notenliste!D15=0," ",IF(Notenliste!T15="KP"," ",IF(Notenliste!T15="NB","nicht bestanden",IF(OR(Notenliste!W15="x", Notenliste!W15="X"),"bestanden",Notenliste!T15))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="64" t="str">
@@ -10321,7 +10325,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="63" t="str">
-        <f>IF(OR(Notenliste!W16="x", Notenliste!W16="X"),"bestanden",IF(Notenliste!D16=0," ",IF(Notenliste!T16="KP"," ",IF(Notenliste!T16="NB","nicht bestanden",Notenliste!T16))))</f>
+        <f>IF(Notenliste!D16=0," ",IF(Notenliste!T16="KP"," ",IF(Notenliste!T16="NB","nicht bestanden",IF(OR(Notenliste!W16="x", Notenliste!W16="X"),"bestanden",Notenliste!T16))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="64" t="str">
@@ -10343,7 +10347,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="63" t="str">
-        <f>IF(OR(Notenliste!W17="x", Notenliste!W17="X"),"bestanden",IF(Notenliste!D17=0," ",IF(Notenliste!T17="KP"," ",IF(Notenliste!T17="NB","nicht bestanden",Notenliste!T17))))</f>
+        <f>IF(Notenliste!D17=0," ",IF(Notenliste!T17="KP"," ",IF(Notenliste!T17="NB","nicht bestanden",IF(OR(Notenliste!W17="x", Notenliste!W17="X"),"bestanden",Notenliste!T17))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="64" t="str">
@@ -10365,7 +10369,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="63" t="str">
-        <f>IF(OR(Notenliste!W18="x", Notenliste!W18="X"),"bestanden",IF(Notenliste!D18=0," ",IF(Notenliste!T18="KP"," ",IF(Notenliste!T18="NB","nicht bestanden",Notenliste!T18))))</f>
+        <f>IF(Notenliste!D18=0," ",IF(Notenliste!T18="KP"," ",IF(Notenliste!T18="NB","nicht bestanden",IF(OR(Notenliste!W18="x", Notenliste!W18="X"),"bestanden",Notenliste!T18))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="64" t="str">
@@ -10387,7 +10391,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="63" t="str">
-        <f>IF(OR(Notenliste!W19="x", Notenliste!W19="X"),"bestanden",IF(Notenliste!D19=0," ",IF(Notenliste!T19="KP"," ",IF(Notenliste!T19="NB","nicht bestanden",Notenliste!T19))))</f>
+        <f>IF(Notenliste!D19=0," ",IF(Notenliste!T19="KP"," ",IF(Notenliste!T19="NB","nicht bestanden",IF(OR(Notenliste!W19="x", Notenliste!W19="X"),"bestanden",Notenliste!T19))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="64" t="str">
@@ -10409,7 +10413,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="63" t="str">
-        <f>IF(OR(Notenliste!W20="x", Notenliste!W20="X"),"bestanden",IF(Notenliste!D20=0," ",IF(Notenliste!T20="KP"," ",IF(Notenliste!T20="NB","nicht bestanden",Notenliste!T20))))</f>
+        <f>IF(Notenliste!D20=0," ",IF(Notenliste!T20="KP"," ",IF(Notenliste!T20="NB","nicht bestanden",IF(OR(Notenliste!W20="x", Notenliste!W20="X"),"bestanden",Notenliste!T20))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="64" t="str">
@@ -10431,7 +10435,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="63" t="str">
-        <f>IF(OR(Notenliste!W21="x", Notenliste!W21="X"),"bestanden",IF(Notenliste!D21=0," ",IF(Notenliste!T21="KP"," ",IF(Notenliste!T21="NB","nicht bestanden",Notenliste!T21))))</f>
+        <f>IF(Notenliste!D21=0," ",IF(Notenliste!T21="KP"," ",IF(Notenliste!T21="NB","nicht bestanden",IF(OR(Notenliste!W21="x", Notenliste!W21="X"),"bestanden",Notenliste!T21))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="64" t="str">
@@ -10453,7 +10457,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="63" t="str">
-        <f>IF(OR(Notenliste!W22="x", Notenliste!W22="X"),"bestanden",IF(Notenliste!D22=0," ",IF(Notenliste!T22="KP"," ",IF(Notenliste!T22="NB","nicht bestanden",Notenliste!T22))))</f>
+        <f>IF(Notenliste!D22=0," ",IF(Notenliste!T22="KP"," ",IF(Notenliste!T22="NB","nicht bestanden",IF(OR(Notenliste!W22="x", Notenliste!W22="X"),"bestanden",Notenliste!T22))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="64" t="str">
@@ -10475,7 +10479,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="63" t="str">
-        <f>IF(OR(Notenliste!W23="x", Notenliste!W23="X"),"bestanden",IF(Notenliste!D23=0," ",IF(Notenliste!T23="KP"," ",IF(Notenliste!T23="NB","nicht bestanden",Notenliste!T23))))</f>
+        <f>IF(Notenliste!D23=0," ",IF(Notenliste!T23="KP"," ",IF(Notenliste!T23="NB","nicht bestanden",IF(OR(Notenliste!W23="x", Notenliste!W23="X"),"bestanden",Notenliste!T23))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="64" t="str">
@@ -10497,7 +10501,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="63" t="str">
-        <f>IF(OR(Notenliste!W24="x", Notenliste!W24="X"),"bestanden",IF(Notenliste!D24=0," ",IF(Notenliste!T24="KP"," ",IF(Notenliste!T24="NB","nicht bestanden",Notenliste!T24))))</f>
+        <f>IF(Notenliste!D24=0," ",IF(Notenliste!T24="KP"," ",IF(Notenliste!T24="NB","nicht bestanden",IF(OR(Notenliste!W24="x", Notenliste!W24="X"),"bestanden",Notenliste!T24))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="64" t="str">
@@ -10519,7 +10523,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="63" t="str">
-        <f>IF(OR(Notenliste!W25="x", Notenliste!W25="X"),"bestanden",IF(Notenliste!D25=0," ",IF(Notenliste!T25="KP"," ",IF(Notenliste!T25="NB","nicht bestanden",Notenliste!T25))))</f>
+        <f>IF(Notenliste!D25=0," ",IF(Notenliste!T25="KP"," ",IF(Notenliste!T25="NB","nicht bestanden",IF(OR(Notenliste!W25="x", Notenliste!W25="X"),"bestanden",Notenliste!T25))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="64" t="str">
@@ -10541,7 +10545,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="63" t="str">
-        <f>IF(OR(Notenliste!W26="x", Notenliste!W26="X"),"bestanden",IF(Notenliste!D26=0," ",IF(Notenliste!T26="KP"," ",IF(Notenliste!T26="NB","nicht bestanden",Notenliste!T26))))</f>
+        <f>IF(Notenliste!D26=0," ",IF(Notenliste!T26="KP"," ",IF(Notenliste!T26="NB","nicht bestanden",IF(OR(Notenliste!W26="x", Notenliste!W26="X"),"bestanden",Notenliste!T26))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="64" t="str">
@@ -10563,7 +10567,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D27" s="63" t="str">
-        <f>IF(OR(Notenliste!W27="x", Notenliste!W27="X"),"bestanden",IF(Notenliste!D27=0," ",IF(Notenliste!T27="KP"," ",IF(Notenliste!T27="NB","nicht bestanden",Notenliste!T27))))</f>
+        <f>IF(Notenliste!D27=0," ",IF(Notenliste!T27="KP"," ",IF(Notenliste!T27="NB","nicht bestanden",IF(OR(Notenliste!W27="x", Notenliste!W27="X"),"bestanden",Notenliste!T27))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E27" s="64" t="str">
@@ -10585,7 +10589,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D28" s="63" t="str">
-        <f>IF(OR(Notenliste!W28="x", Notenliste!W28="X"),"bestanden",IF(Notenliste!D28=0," ",IF(Notenliste!T28="KP"," ",IF(Notenliste!T28="NB","nicht bestanden",Notenliste!T28))))</f>
+        <f>IF(Notenliste!D28=0," ",IF(Notenliste!T28="KP"," ",IF(Notenliste!T28="NB","nicht bestanden",IF(OR(Notenliste!W28="x", Notenliste!W28="X"),"bestanden",Notenliste!T28))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E28" s="64" t="str">
@@ -10607,7 +10611,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D29" s="63" t="str">
-        <f>IF(OR(Notenliste!W29="x", Notenliste!W29="X"),"bestanden",IF(Notenliste!D29=0," ",IF(Notenliste!T29="KP"," ",IF(Notenliste!T29="NB","nicht bestanden",Notenliste!T29))))</f>
+        <f>IF(Notenliste!D29=0," ",IF(Notenliste!T29="KP"," ",IF(Notenliste!T29="NB","nicht bestanden",IF(OR(Notenliste!W29="x", Notenliste!W29="X"),"bestanden",Notenliste!T29))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E29" s="64" t="str">
@@ -10629,7 +10633,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D30" s="63" t="str">
-        <f>IF(OR(Notenliste!W30="x", Notenliste!W30="X"),"bestanden",IF(Notenliste!D30=0," ",IF(Notenliste!T30="KP"," ",IF(Notenliste!T30="NB","nicht bestanden",Notenliste!T30))))</f>
+        <f>IF(Notenliste!D30=0," ",IF(Notenliste!T30="KP"," ",IF(Notenliste!T30="NB","nicht bestanden",IF(OR(Notenliste!W30="x", Notenliste!W30="X"),"bestanden",Notenliste!T30))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E30" s="64" t="str">
@@ -10651,7 +10655,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D31" s="63" t="str">
-        <f>IF(OR(Notenliste!W31="x", Notenliste!W31="X"),"bestanden",IF(Notenliste!D31=0," ",IF(Notenliste!T31="KP"," ",IF(Notenliste!T31="NB","nicht bestanden",Notenliste!T31))))</f>
+        <f>IF(Notenliste!D31=0," ",IF(Notenliste!T31="KP"," ",IF(Notenliste!T31="NB","nicht bestanden",IF(OR(Notenliste!W31="x", Notenliste!W31="X"),"bestanden",Notenliste!T31))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E31" s="64" t="str">
@@ -10673,7 +10677,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D32" s="63" t="str">
-        <f>IF(OR(Notenliste!W32="x", Notenliste!W32="X"),"bestanden",IF(Notenliste!D32=0," ",IF(Notenliste!T32="KP"," ",IF(Notenliste!T32="NB","nicht bestanden",Notenliste!T32))))</f>
+        <f>IF(Notenliste!D32=0," ",IF(Notenliste!T32="KP"," ",IF(Notenliste!T32="NB","nicht bestanden",IF(OR(Notenliste!W32="x", Notenliste!W32="X"),"bestanden",Notenliste!T32))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E32" s="64" t="str">
@@ -10695,7 +10699,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D33" s="63" t="str">
-        <f>IF(OR(Notenliste!W33="x", Notenliste!W33="X"),"bestanden",IF(Notenliste!D33=0," ",IF(Notenliste!T33="KP"," ",IF(Notenliste!T33="NB","nicht bestanden",Notenliste!T33))))</f>
+        <f>IF(Notenliste!D33=0," ",IF(Notenliste!T33="KP"," ",IF(Notenliste!T33="NB","nicht bestanden",IF(OR(Notenliste!W33="x", Notenliste!W33="X"),"bestanden",Notenliste!T33))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E33" s="64" t="str">
@@ -10717,7 +10721,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D34" s="63" t="str">
-        <f>IF(OR(Notenliste!W34="x", Notenliste!W34="X"),"bestanden",IF(Notenliste!D34=0," ",IF(Notenliste!T34="KP"," ",IF(Notenliste!T34="NB","nicht bestanden",Notenliste!T34))))</f>
+        <f>IF(Notenliste!D34=0," ",IF(Notenliste!T34="KP"," ",IF(Notenliste!T34="NB","nicht bestanden",IF(OR(Notenliste!W34="x", Notenliste!W34="X"),"bestanden",Notenliste!T34))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E34" s="64" t="str">
@@ -10739,7 +10743,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D35" s="63" t="str">
-        <f>IF(OR(Notenliste!W35="x", Notenliste!W35="X"),"bestanden",IF(Notenliste!D35=0," ",IF(Notenliste!T35="KP"," ",IF(Notenliste!T35="NB","nicht bestanden",Notenliste!T35))))</f>
+        <f>IF(Notenliste!D35=0," ",IF(Notenliste!T35="KP"," ",IF(Notenliste!T35="NB","nicht bestanden",IF(OR(Notenliste!W35="x", Notenliste!W35="X"),"bestanden",Notenliste!T35))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E35" s="64" t="str">
@@ -10761,7 +10765,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D36" s="63" t="str">
-        <f>IF(OR(Notenliste!W36="x", Notenliste!W36="X"),"bestanden",IF(Notenliste!D36=0," ",IF(Notenliste!T36="KP"," ",IF(Notenliste!T36="NB","nicht bestanden",Notenliste!T36))))</f>
+        <f>IF(Notenliste!D36=0," ",IF(Notenliste!T36="KP"," ",IF(Notenliste!T36="NB","nicht bestanden",IF(OR(Notenliste!W36="x", Notenliste!W36="X"),"bestanden",Notenliste!T36))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E36" s="64" t="str">
